--- a/proali.xlsx
+++ b/proali.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos PY\py_deltron\Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B351A5C-F6A3-4884-AE6D-FC087A000DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47CF77EE-69AE-47D5-9904-0DFCD2643B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/proali.xlsx
+++ b/proali.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos PY\py_deltron\Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB97EB38-2659-41EE-9D50-C68A7091ABB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3095BD04-328E-44B1-9A72-5A1A27F93C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="275">
   <si>
     <t>CODIGO</t>
   </si>
@@ -194,25 +194,16 @@
     <t>Fiat 500e</t>
   </si>
   <si>
-    <t>1955 Ford Thunderbird</t>
-  </si>
-  <si>
     <t>KT5319</t>
   </si>
   <si>
     <t>https://www.kinsmart.com/upload/products/original/183571412564.KT5319-website.jpg</t>
   </si>
   <si>
-    <t>1932 Ford 3-Window Coupe</t>
-  </si>
-  <si>
     <t>KT5332</t>
   </si>
   <si>
     <t>https://www.kinsmart.com/upload/products/original/059346103299.KT5332-website.jpg</t>
-  </si>
-  <si>
-    <t>1956 Ford F-100 Pickup</t>
   </si>
   <si>
     <t>https://www.kinsmart.com/upload/products/original/375901828256.KT5385-website.jpg</t>
@@ -260,9 +251,6 @@
     <t>https://www.kinsmart.com/upload/products/original/711448895452.KT5438B-website.jpg</t>
   </si>
   <si>
-    <t>1949 Ford Woody Wagon</t>
-  </si>
-  <si>
     <t>KT5402</t>
   </si>
   <si>
@@ -287,16 +275,10 @@
     <t>https://www.kinsmart.com/upload/products/original/022115599112.KT5391F-website.jpg</t>
   </si>
   <si>
-    <t>2008 Hummer H2 SUV</t>
-  </si>
-  <si>
     <t>https://www.kinsmart.com/upload/products/original/641669254176.KT5337-website.jpg</t>
   </si>
   <si>
     <t>KT5337</t>
-  </si>
-  <si>
-    <t>2018 Jeep Wrangler (Hard Top)</t>
   </si>
   <si>
     <t>KT5412B</t>
@@ -320,9 +302,6 @@
     <t>KT5355</t>
   </si>
   <si>
-    <t>Lamborghini Aventador LP 700-4</t>
-  </si>
-  <si>
     <t>Lamborghini Miura SV</t>
   </si>
   <si>
@@ -330,9 +309,6 @@
   </si>
   <si>
     <t>https://www.kinsmart.com/upload/products/original/750351418737.KT5390-website.jpg</t>
-  </si>
-  <si>
-    <t>Lamborghini Countach LPI 800-4</t>
   </si>
   <si>
     <t>https://www.kinsmart.com/upload/products/original/620609511569.KT5437-website.jpg</t>
@@ -353,19 +329,10 @@
     <t xml:space="preserve">KT5416 </t>
   </si>
   <si>
-    <t>Jaguar XE SV Project</t>
-  </si>
-  <si>
     <t>KT5408</t>
   </si>
   <si>
-    <t>Porsche 911 GT2 RS</t>
-  </si>
-  <si>
     <t>KT5392</t>
-  </si>
-  <si>
-    <t>McLaren 675LT</t>
   </si>
   <si>
     <t>KT5403</t>
@@ -381,9 +348,6 @@
   </si>
   <si>
     <t>KT5060</t>
-  </si>
-  <si>
-    <t>1962 Volkswagen Classical Bus (Ivory Top)</t>
   </si>
   <si>
     <t>KT5455F</t>
@@ -422,22 +386,13 @@
     <t>KT5057</t>
   </si>
   <si>
-    <t>1967 Volkswagen Classical Beetle</t>
-  </si>
-  <si>
     <t>KT5059</t>
-  </si>
-  <si>
-    <t>Mini Cooper S</t>
   </si>
   <si>
     <t>Chevrolet 2 Classic</t>
   </si>
   <si>
     <t>KT5349</t>
-  </si>
-  <si>
-    <t>Mercedes-Benz SLS AMG</t>
   </si>
   <si>
     <t>KT5059FB</t>
@@ -447,9 +402,6 @@
   </si>
   <si>
     <t>KT5343</t>
-  </si>
-  <si>
-    <t>Toyota FJ Cruiser</t>
   </si>
   <si>
     <t>BMW Z4 AZUL</t>
@@ -554,13 +506,358 @@
     <t>Autos de Colección</t>
   </si>
   <si>
-    <t>Llaveros</t>
+    <t>https://v.etsystatic.com/video/upload/s--WaqvwOlT--/ac_none,c_crop,du_15,h_720,q_auto:good,w_960,x_146,y_0/IMG_1556_a25uk7</t>
   </si>
   <si>
-    <t>Sticker</t>
+    <t>1955 Ford Thunderbird ROJO</t>
   </si>
   <si>
-    <t>Figuras de Accion</t>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_8764_r8frug.mp4</t>
+  </si>
+  <si>
+    <t>1955 Ford Thunderbird CELESTE</t>
+  </si>
+  <si>
+    <t>1955 Ford Thunderbird AMARILLO</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_8760_wfrmhf.mp4</t>
+  </si>
+  <si>
+    <t>1955 Ford Thunderbird NEGRO</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_0082_xlz1dg.mp4</t>
+  </si>
+  <si>
+    <t>https://www.kinsmart.com/upload/products/original/019865720546.KT5060-website.jpg</t>
+  </si>
+  <si>
+    <t>1962 Volkswagen Classical Bus (Ivory Top) NARANJA</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_0084_xgc8ya.mp4</t>
+  </si>
+  <si>
+    <t>1962 Volkswagen Classical Bus (Ivory Top) AMARILLO</t>
+  </si>
+  <si>
+    <t>1962 Volkswagen Classical Bus (Ivory Top) GUINDO</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_7796_2_ogdgwx.mp4</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_7797_2_hlhoow.mp4</t>
+  </si>
+  <si>
+    <t>1962 Volkswagen Classical Bus (Ivory Top) VERDE</t>
+  </si>
+  <si>
+    <t>https://www.kinsmart.com/upload/products/original/180125764526.KT5411-website.jpg</t>
+  </si>
+  <si>
+    <t>https://www.kinsmart.com/upload/products/original/587947135665.KT5392-website.jpg</t>
+  </si>
+  <si>
+    <t>McLaren 675LT AZUL</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_1924_ar5i5o.mp4</t>
+  </si>
+  <si>
+    <t>McLaren 675LT GRIS</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_4208_vdfcfw.mp4</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_1923_zztwhc.mp4</t>
+  </si>
+  <si>
+    <t>McLaren 675LT AMARILLO</t>
+  </si>
+  <si>
+    <t>McLaren 675LT VERDE</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_4211_aaq4pm.mp4</t>
+  </si>
+  <si>
+    <t>https://www.kinsmart.com/upload/products/original/989194063017.KT5393-website.jpg</t>
+  </si>
+  <si>
+    <t>https://www.kinsmart.com/upload/products/original/537956841634.KT5403-website.jpg</t>
+  </si>
+  <si>
+    <t>https://www.kinsmart.com/upload/products/original/530451497878.KT5328-website.jpg</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_0128_fla1ok.mp4</t>
+  </si>
+  <si>
+    <t>https://www.kinsmart.com/upload/products/original/560820748537.KT5361F-website.jpg</t>
+  </si>
+  <si>
+    <t>https://www.kinsmart.com/upload/products/original/715369443353.KT5366-website.jpg</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_6175_hqaxbq.mp4</t>
+  </si>
+  <si>
+    <t>https://www.kinsmart.com/upload/products/original/185695261675.KT5455F-website.jpg</t>
+  </si>
+  <si>
+    <t>https://www.kinsmart.com/upload/products/original/996751466225.KT5349-website.jpg</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_7802_x7jxpo.mp4</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz SLS AMG ROJO</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_7801_ncuzln.mp4</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz SLS AMG GRIS</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/s--uf3gDWrP--/ac_none,c_crop,du_15,h_720,q_auto:good,w_1080,x_125,y_0/IMG_6376_qpabzc</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz SLS AMG PLATA</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz SLS AMG BLANCO</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_9975_efwy0n.mp4</t>
+  </si>
+  <si>
+    <t>https://www.kinsmart.com/upload/products/original/144380851312.KT5059FB-website.jpg</t>
+  </si>
+  <si>
+    <t>https://www.kinsmart.com/upload/products/original/825592759838.KT5059-website.jpg</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_8509_theanw.mp4</t>
+  </si>
+  <si>
+    <t>Mini Cooper S CELESTE</t>
+  </si>
+  <si>
+    <t>Mini Cooper S VERDE</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_8214_qkwxvq.mp4</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_3033_uijazh.mp4</t>
+  </si>
+  <si>
+    <t>Mini Cooper S ROJO</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_9999_trl3py.mp4</t>
+  </si>
+  <si>
+    <t>Mini Cooper S AMARILLO</t>
+  </si>
+  <si>
+    <t>https://www.kinsmart.com/upload/products/original/757841750897.KT5343-website.jpg</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_3265_m3kz1f.mp4</t>
+  </si>
+  <si>
+    <t>Toyota FJ Cruiser AMARILLO</t>
+  </si>
+  <si>
+    <t>Toyota FJ Cruiser GUINDO</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_8222_nlcnlr.mp4</t>
+  </si>
+  <si>
+    <t>Toyota FJ Cruiser AZUL</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_4940_yb4qut.mp4</t>
+  </si>
+  <si>
+    <t>https://d3dnwnveix5428.cloudfront.net/store_f6ee1f9e-7f74-40ad-8870-7bea20681510/images/9CU9MgMwNFeyBll1713109437.jpeg</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_0115_g40jum.mp4</t>
+  </si>
+  <si>
+    <t>Jaguar XE SV Project 8 AZUL</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_6195_o6uz7l.mp4</t>
+  </si>
+  <si>
+    <t>Jaguar XE SV Project 8 GRIS</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_0114_mhwmvp.mp4</t>
+  </si>
+  <si>
+    <t>Jaguar XE SV Project 8 NARANJA</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_0116_jrnekb.mp4</t>
+  </si>
+  <si>
+    <t>Jaguar XE SV Project 8 ROJO</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/s--iG-6pHSi--/ac_none,c_crop,du_15,h_720,q_auto:good,w_1080,x_149,y_0/IMG_2716_ywafrg</t>
+  </si>
+  <si>
+    <t>1967 Volkswagen Classical Beetle AZUL</t>
+  </si>
+  <si>
+    <t>https://www.kinsmart.com/upload/products/original/341148072172.KT5057-website.jpg</t>
+  </si>
+  <si>
+    <t>https://www.kinsmart.com/upload/products/original/543051209558.KT5408-website.jpg</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_4200_z5dev2.mp4</t>
+  </si>
+  <si>
+    <t>Porsche 911 GT2 RS CELESTE</t>
+  </si>
+  <si>
+    <t>Porsche 911 GT2 RS BLANCO</t>
+  </si>
+  <si>
+    <t>Porsche 911 GT2 RS ROJO</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_4199_sjltcb.mp4</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_0754_lmiel1.mp4</t>
+  </si>
+  <si>
+    <t>Porsche 911 GT2 RS NEGRO</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_7618_c7by8f.mp4</t>
+  </si>
+  <si>
+    <t>https://video.aliexpress-media.com/play/u/ae_sg_item/2210947737601/p/1/e/6/t/10301/5000119282235.mp4?from=chrome</t>
+  </si>
+  <si>
+    <t>https://video.aliexpress-media.com/play/u/ae_sg_item/2210947737601/p/1/e/6/t/10301/5000119286087.mp4?from=chrome</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_5617_2_rjhxjj.mp4</t>
+  </si>
+  <si>
+    <t>1932 Ford 3-Window Coupe AMARILLO</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_1074_2_zz4w2p.mp4</t>
+  </si>
+  <si>
+    <t>Lamborghini Aventador LP 700-4 ROJO</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_3285_nyfjld.mp4</t>
+  </si>
+  <si>
+    <t>1956 Ford F-100 Pickup AMARILLO</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/s--N1HCPFUD--/ac_none,c_crop,du_15,h_720,q_auto:good,w_1080,x_73,y_0/IMG_5161_yyawvo</t>
+  </si>
+  <si>
+    <t>1956 Ford F-100 Pickup ROJO</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_2740_gh6tdf.mp4</t>
+  </si>
+  <si>
+    <t>1956 Ford F-100 Pickup NEGRO</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_1192_bhta0p.mp4</t>
+  </si>
+  <si>
+    <t>1956 Ford F-100 Pickup BLANCO</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_1046_sugxys.mp4</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_8932_gij3ro.mp4</t>
+  </si>
+  <si>
+    <t>Lamborghini Countach LPI 800-4 ROJO</t>
+  </si>
+  <si>
+    <t>Lamborghini Countach LPI 800-4 BLANCO</t>
+  </si>
+  <si>
+    <t>2008 Hummer H2 SUV ROJO</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_6172_b9cqhg.mp4</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_6168_dqogcq.mp4</t>
+  </si>
+  <si>
+    <t>2008 Hummer H2 SUV AMARILLO</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_4917_lkixov.mp4</t>
+  </si>
+  <si>
+    <t>2008 Hummer H2 SUV NEGRO</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_6169_nboap8.mp4</t>
+  </si>
+  <si>
+    <t>2008 Hummer H2 SUV BLANCO</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_3262_hcvb2u.mp4</t>
+  </si>
+  <si>
+    <t>1949 Ford Woody Wagon AZUL</t>
+  </si>
+  <si>
+    <t>1949 Ford Woody Wagon ROJO</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_3927_i0dgjb.mp4</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_3161_pbgb6c.mp4</t>
+  </si>
+  <si>
+    <t>1949 Ford Woody Wagon VERDE</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_3263_2_e3cg84.mp4</t>
+  </si>
+  <si>
+    <t>1949 Ford Woody Wagon NEGRO</t>
+  </si>
+  <si>
+    <t>2018 Jeep Wrangler (Hard Top) AZUL</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_3915_u4pwto.mp4</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_5672_2_ob4ii2.mp4</t>
   </si>
 </sst>
 </file>
@@ -891,10 +1188,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:I2267" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="A1:I2267" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H2267">
-    <sortCondition ref="F1:F2267"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:I2297" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="A1:I2297" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I2297">
+    <sortCondition ref="D1:D2297"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="6" xr3:uid="{D349EDB8-1023-498A-8D26-F168360F9742}" name="FOTO" dataDxfId="9"/>
@@ -1200,18 +1497,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2268"/>
+  <dimension ref="A1:I2298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C53" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="66.42578125" bestFit="1" customWidth="1"/>
@@ -1245,169 +1542,171 @@
         <v>10</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>240</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>33</v>
+        <v>241</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
       </c>
       <c r="F2" s="8">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H2" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>28.200000000000003</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>264</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>27</v>
+        <v>265</v>
       </c>
       <c r="E3" s="9">
         <v>0</v>
       </c>
       <c r="F3" s="8">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>28.200000000000003</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>270</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>43</v>
+        <v>271</v>
       </c>
       <c r="E4" s="9">
         <v>0</v>
       </c>
       <c r="F4" s="8">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H4" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>28.200000000000003</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>267</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="E5" s="9">
         <v>0</v>
       </c>
       <c r="F5" s="8">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H5" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>28.200000000000003</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>268</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>38</v>
+        <v>269</v>
       </c>
       <c r="E6" s="9">
         <v>0</v>
       </c>
       <c r="F6" s="8">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H6" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>28.200000000000003</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="C7" s="7" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="E7" s="9">
         <v>0</v>
@@ -1416,148 +1715,148 @@
         <v>4.7</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H7" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
         <v>28.200000000000003</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="E8" s="9">
         <v>0</v>
       </c>
       <c r="F8" s="8">
-        <v>7.7</v>
+        <v>4.7</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="H8" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>46.2</v>
+        <v>28.200000000000003</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="E9" s="9">
         <v>0</v>
       </c>
       <c r="F9" s="8">
-        <v>7.7</v>
+        <v>4.7</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="H9" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>46.2</v>
+        <v>28.200000000000003</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E10" s="9">
         <v>0</v>
       </c>
       <c r="F10" s="8">
-        <v>7.7</v>
+        <v>4.7</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="H10" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>46.2</v>
+        <v>28.200000000000003</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E11" s="9">
         <v>0</v>
       </c>
       <c r="F11" s="8">
-        <v>7.7</v>
+        <v>4.7</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="H11" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>46.2</v>
+        <v>28.200000000000003</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>151</v>
+        <v>57</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>139</v>
+        <v>245</v>
       </c>
       <c r="E12" s="9">
         <v>0</v>
@@ -1566,28 +1865,28 @@
         <v>6.2</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
         <v>37.200000000000003</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>13</v>
+        <v>57</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="E13" s="9">
         <v>0</v>
@@ -1596,383 +1895,387 @@
         <v>6.2</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H13" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
         <v>37.200000000000003</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="E14" s="9">
         <v>0</v>
       </c>
       <c r="F14" s="8">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H14" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>28.200000000000003</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>152</v>
+        <v>246</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>11</v>
+        <v>247</v>
       </c>
       <c r="E15" s="9">
         <v>0</v>
       </c>
       <c r="F15" s="8">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>28.200000000000003</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>102</v>
+        <v>26</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
+        <v>144</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
         <v>4.7</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="G16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
         <v>28.200000000000003</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>102</v>
+        <v>28</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
+        <v>27</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
         <v>4.7</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="G17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
         <v>28.200000000000003</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>102</v>
+        <v>146</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
+        <v>143</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
         <v>4.7</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="G18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
         <v>28.200000000000003</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>102</v>
+        <v>140</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
+        <v>145</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
         <v>4.7</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="G19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
         <v>28.200000000000003</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="C20" s="7" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="E20" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="8">
         <v>4.7</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H20" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
         <v>28.200000000000003</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="C21" s="7" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="E21" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="8">
         <v>4.7</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H21" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
         <v>28.200000000000003</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="E22" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="8">
         <v>4.7</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H22" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
         <v>28.200000000000003</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="E23" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="8">
         <v>4.7</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H23" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
         <v>28.200000000000003</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E24" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="8">
         <v>4.7</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H24" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
         <v>28.200000000000003</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E25" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="8">
         <v>4.7</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H25" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
         <v>28.200000000000003</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+      <c r="A26" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="B26" s="3"/>
       <c r="C26" s="7" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="E26" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="8">
         <v>4.7</v>
@@ -1985,158 +2288,172 @@
         <v>28.200000000000003</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="C27" s="7" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="E27" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="8">
         <v>4.7</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H27" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
         <v>28.200000000000003</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C28" s="7" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="E28" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="8">
         <v>4.7</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H28" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
         <v>28.200000000000003</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C29" s="7" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="E29" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="8">
         <v>4.7</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H29" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
         <v>28.200000000000003</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="C30" s="7" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="E30" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="8">
         <v>4.7</v>
       </c>
       <c r="G30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="10">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H30" s="10">
-        <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>28.200000000000003</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="9">
-        <v>1</v>
-      </c>
-      <c r="F31" s="8">
-        <v>4.7</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="H31" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>28.200000000000003</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B32" s="3"/>
       <c r="C32" s="7" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="E32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="8">
         <v>4.7</v>
@@ -2149,335 +2466,365 @@
         <v>28.200000000000003</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>258</v>
+      </c>
       <c r="C33" s="7" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
+        <v>259</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
         <v>4.7</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" s="4">
+      <c r="G33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
         <v>28.200000000000003</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="5" t="s">
-        <v>101</v>
+        <v>80</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
+        <v>263</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
         <v>4.7</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" s="4">
+      <c r="G34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
         <v>28.200000000000003</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="5" t="s">
-        <v>91</v>
+        <v>80</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
+        <v>261</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
         <v>4.7</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" s="4">
+      <c r="G35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
         <v>28.200000000000003</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="3"/>
+      <c r="A36" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="C36" s="7" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
+        <v>256</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
         <v>4.7</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" s="4">
+      <c r="G36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
         <v>28.200000000000003</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B37" s="3"/>
       <c r="C37" s="7" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="E37" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F37" s="8">
         <v>4.7</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H37" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
         <v>28.200000000000003</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="5" t="s">
-        <v>51</v>
+        <v>188</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="1">
-        <v>2</v>
-      </c>
-      <c r="F38" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="4">
-        <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>28.200000000000003</v>
+        <v>112</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0</v>
+      </c>
+      <c r="F38" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="10">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>37.200000000000003</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="5" t="s">
-        <v>97</v>
+      <c r="C39" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" s="1">
-        <v>2</v>
-      </c>
-      <c r="F39" s="3">
+        <v>77</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0</v>
+      </c>
+      <c r="F39" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="10">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0</v>
+      </c>
+      <c r="F40" s="8">
         <v>4.7</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G40" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H40" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
         <v>28.200000000000003</v>
       </c>
-      <c r="I39" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" s="1">
-        <v>2</v>
-      </c>
-      <c r="F40" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" s="4">
-        <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>28.200000000000003</v>
-      </c>
       <c r="I40" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
+      <c r="A41" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="B41" s="3"/>
       <c r="C41" s="7" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E41" s="1">
-        <v>2</v>
-      </c>
-      <c r="F41" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H41" s="4">
-        <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>28.200000000000003</v>
+        <v>69</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0</v>
+      </c>
+      <c r="F41" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="10">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>37.200000000000003</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="7"/>
+      <c r="A42" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="D42" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E42" s="1">
-        <v>2</v>
-      </c>
-      <c r="F42" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="4">
-        <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>28.200000000000003</v>
+        <v>62</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0</v>
+      </c>
+      <c r="F42" s="8">
+        <v>7.7</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="10">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>46.2</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
+      <c r="A43" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="B43" s="3"/>
       <c r="C43" s="7" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E43" s="1">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3">
+        <v>59</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0</v>
+      </c>
+      <c r="F43" s="8">
         <v>4.7</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" s="4">
+      <c r="G43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
         <v>28.200000000000003</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>238</v>
+      </c>
       <c r="C44" s="7" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E44" s="9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F44" s="8">
-        <v>4.7</v>
+        <v>7.7</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="H44" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>28.200000000000003</v>
+        <v>46.2</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
+      <c r="A45" s="8" t="s">
+        <v>190</v>
+      </c>
       <c r="B45" s="3"/>
       <c r="C45" s="7" t="s">
         <v>105</v>
@@ -2485,954 +2832,1500 @@
       <c r="D45" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E45" s="1">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="G45" s="3" t="s">
+      <c r="E45" s="9">
+        <v>0</v>
+      </c>
+      <c r="F45" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="4">
-        <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>37.200000000000003</v>
+      <c r="H45" s="10">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>28.200000000000003</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="C46" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="E46" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="8">
-        <v>6.2</v>
+        <v>7.7</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>22</v>
       </c>
       <c r="H46" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>37.200000000000003</v>
+        <v>46.2</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="5" t="s">
-        <v>94</v>
+        <v>124</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="G47" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0</v>
+      </c>
+      <c r="F47" s="8">
+        <v>7.7</v>
+      </c>
+      <c r="G47" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H47" s="4">
-        <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>37.200000000000003</v>
+      <c r="H47" s="10">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>46.2</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="C48" s="7" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="E48" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="8">
+        <v>7.7</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="10">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>46.2</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" s="9">
+        <v>0</v>
+      </c>
+      <c r="F49" s="8">
+        <v>7.7</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="10">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>46.2</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0</v>
+      </c>
+      <c r="F50" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="10">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="9">
+        <v>0</v>
+      </c>
+      <c r="F51" s="8">
         <v>6.2</v>
       </c>
-      <c r="G48" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" s="10">
+      <c r="G51" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
         <v>37.200000000000003</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H49" s="4">
-        <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>37.200000000000003</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H50" s="4">
-        <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>37.200000000000003</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1</v>
-      </c>
-      <c r="F51" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H51" s="4">
-        <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>37.200000000000003</v>
-      </c>
       <c r="I51" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="3"/>
+      <c r="A52" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="C52" s="7" t="s">
-        <v>123</v>
+        <v>4</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="E52" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="8">
         <v>6.2</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H52" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
         <v>37.200000000000003</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="3"/>
+      <c r="A53" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="C53" s="7" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="E53" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F53" s="8">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H53" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>37.200000000000003</v>
+        <v>28.200000000000003</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="3"/>
+      <c r="A54" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="C54" s="7" t="s">
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E54" s="1">
-        <v>2</v>
-      </c>
-      <c r="F54" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H54" s="4">
-        <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>37.200000000000003</v>
+        <v>11</v>
+      </c>
+      <c r="E54" s="9">
+        <v>0</v>
+      </c>
+      <c r="F54" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" s="10">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>28.200000000000003</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="7" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E55" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F55" s="8">
-        <v>6.2</v>
+        <v>7.7</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>22</v>
       </c>
       <c r="H55" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>37.200000000000003</v>
+        <v>46.2</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C56" s="7" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E56" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F56" s="8">
-        <v>6.2</v>
+        <v>7.7</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H56" s="10">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>37.200000000000003</v>
+        <v>46.2</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="A57" s="8"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="C57" s="7"/>
       <c r="D57" s="8" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="E57" s="9">
-        <v>4</v>
-      </c>
-      <c r="F57" s="8">
-        <v>6.2</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H57" s="10">
-        <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>37.200000000000003</v>
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>28.200000000000003</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="7" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E58" s="9">
-        <v>1</v>
-      </c>
-      <c r="F58" s="8">
-        <v>7.7</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H58" s="10">
-        <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>46.2</v>
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>28.200000000000003</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B59" s="3"/>
-      <c r="C59" s="7" t="s">
-        <v>70</v>
+      <c r="C59" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E59" s="9">
         <v>0</v>
       </c>
-      <c r="F59" s="8">
-        <v>7.7</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H59" s="10">
-        <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>46.2</v>
+      <c r="F59" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H59" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>28.200000000000003</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60" s="3"/>
+        <v>217</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>218</v>
+      </c>
       <c r="C60" s="7" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="E60" s="9">
         <v>0</v>
       </c>
-      <c r="F60" s="8">
-        <v>7.7</v>
-      </c>
-      <c r="G60" s="8" t="s">
+      <c r="F60" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H60" s="10">
-        <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>46.2</v>
+      <c r="H60" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>37.200000000000003</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>16</v>
+        <v>217</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c r="E61" s="9">
-        <v>1</v>
-      </c>
-      <c r="F61" s="8">
-        <v>7.7</v>
-      </c>
-      <c r="G61" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H61" s="10">
-        <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>46.2</v>
+      <c r="H61" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>37.200000000000003</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="3"/>
+      <c r="A62" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="C62" s="7" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E62" s="1">
+        <v>223</v>
+      </c>
+      <c r="E62" s="9">
         <v>0</v>
       </c>
       <c r="F62" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E63" s="9">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E64" s="9">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E65" s="9">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3">
         <v>4.7</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G65" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E66" s="9">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E67" s="9">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E68" s="9">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H68" s="4">
         <f>Tabla1[[#This Row],[$]]*6</f>
         <v>28.200000000000003</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="4">
-        <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="4">
-        <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I64" s="3" t="s">
+      <c r="I68" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" s="9">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E70" s="9">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E71" s="9">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E72" s="9">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="4">
-        <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I65" s="3" t="s">
+      <c r="B73" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E73" s="9">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D74" s="8" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="4">
-        <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="4">
-        <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="4">
-        <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="4">
-        <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="4">
-        <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="4">
-        <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="4">
-        <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="4">
-        <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
+      <c r="E74" s="9">
+        <v>0</v>
+      </c>
+      <c r="F74" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H74" s="4">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I74" s="3"/>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
+      <c r="A75" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E75" s="9">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H75" s="4">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I75" s="3"/>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
+      <c r="A76" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E76" s="9">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H76" s="4">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I76" s="3"/>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
+      <c r="A77" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="B77" s="3"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
+      <c r="C77" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E77" s="9">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H77" s="4">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I77" s="3"/>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
+      <c r="A78" s="8" t="s">
+        <v>183</v>
+      </c>
       <c r="B78" s="3"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
+      <c r="C78" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E78" s="9">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H78" s="4">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I78" s="3"/>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
+      <c r="A79" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E79" s="9">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H79" s="4">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I79" s="3"/>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
+      <c r="A80" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E80" s="9">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H80" s="4">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I80" s="3"/>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
+      <c r="A81" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E81" s="9">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H81" s="4">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I81" s="3"/>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
+      <c r="A82" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E82" s="9">
+        <v>0</v>
+      </c>
+      <c r="F82" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H82" s="4">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I82" s="3"/>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
+      <c r="A83" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E83" s="9">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="H83" s="4">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I83" s="3"/>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
+      <c r="A84" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E84" s="9">
+        <v>0</v>
+      </c>
+      <c r="F84" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="H84" s="4">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I84" s="3"/>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
+      <c r="A85" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E85" s="9">
+        <v>0</v>
+      </c>
+      <c r="F85" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="H85" s="4">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I85" s="3"/>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
+      <c r="A86" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E86" s="9">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="H86" s="4">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I86" s="3"/>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
+      <c r="A87" s="8" t="s">
+        <v>200</v>
+      </c>
       <c r="B87" s="3"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
+      <c r="C87" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E87" s="9">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="H87" s="4">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I87" s="3"/>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="8"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
+      <c r="A88" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E88" s="9">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H88" s="4">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I88" s="3"/>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="8"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
+      <c r="A89" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E89" s="9">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H89" s="4">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I89" s="3"/>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
+      <c r="A90" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E90" s="9">
+        <v>0</v>
+      </c>
+      <c r="F90" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H90" s="4">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I90" s="3"/>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
+      <c r="A91" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E91" s="9">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H91" s="4">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I91" s="3"/>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="8"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
+      <c r="A92" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E92" s="9">
+        <v>0</v>
+      </c>
+      <c r="F92" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H92" s="4">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I92" s="3"/>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="8"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
+      <c r="A93" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E93" s="9">
+        <v>0</v>
+      </c>
+      <c r="F93" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H93" s="4">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I93" s="3"/>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
+      <c r="A94" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E94" s="9">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H94" s="4">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I94" s="3"/>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
+      <c r="A95" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E95" s="9">
+        <v>0</v>
+      </c>
+      <c r="F95" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H95" s="4">
         <f>Tabla1[[#This Row],[$]]*6</f>
-        <v>0</v>
-      </c>
-      <c r="I95" s="3"/>
+        <v>28.200000000000003</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
@@ -4068,7 +4961,7 @@
       <c r="A141" s="8"/>
       <c r="B141" s="3"/>
       <c r="C141" s="5"/>
-      <c r="D141" s="3"/>
+      <c r="D141" s="8"/>
       <c r="E141" s="1"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
@@ -4082,7 +4975,7 @@
       <c r="A142" s="8"/>
       <c r="B142" s="3"/>
       <c r="C142" s="5"/>
-      <c r="D142" s="3"/>
+      <c r="D142" s="8"/>
       <c r="E142" s="1"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
@@ -4096,7 +4989,7 @@
       <c r="A143" s="8"/>
       <c r="B143" s="3"/>
       <c r="C143" s="5"/>
-      <c r="D143" s="3"/>
+      <c r="D143" s="8"/>
       <c r="E143" s="1"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
@@ -4110,7 +5003,7 @@
       <c r="A144" s="8"/>
       <c r="B144" s="3"/>
       <c r="C144" s="5"/>
-      <c r="D144" s="3"/>
+      <c r="D144" s="8"/>
       <c r="E144" s="1"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -4124,7 +5017,7 @@
       <c r="A145" s="8"/>
       <c r="B145" s="3"/>
       <c r="C145" s="5"/>
-      <c r="D145" s="3"/>
+      <c r="D145" s="8"/>
       <c r="E145" s="1"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
@@ -4138,7 +5031,7 @@
       <c r="A146" s="8"/>
       <c r="B146" s="3"/>
       <c r="C146" s="5"/>
-      <c r="D146" s="3"/>
+      <c r="D146" s="8"/>
       <c r="E146" s="1"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
@@ -4152,7 +5045,7 @@
       <c r="A147" s="8"/>
       <c r="B147" s="3"/>
       <c r="C147" s="5"/>
-      <c r="D147" s="3"/>
+      <c r="D147" s="8"/>
       <c r="E147" s="1"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
@@ -4166,7 +5059,7 @@
       <c r="A148" s="8"/>
       <c r="B148" s="3"/>
       <c r="C148" s="5"/>
-      <c r="D148" s="3"/>
+      <c r="D148" s="8"/>
       <c r="E148" s="1"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
@@ -4180,7 +5073,7 @@
       <c r="A149" s="8"/>
       <c r="B149" s="3"/>
       <c r="C149" s="5"/>
-      <c r="D149" s="3"/>
+      <c r="D149" s="8"/>
       <c r="E149" s="1"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
@@ -4194,7 +5087,7 @@
       <c r="A150" s="8"/>
       <c r="B150" s="3"/>
       <c r="C150" s="5"/>
-      <c r="D150" s="3"/>
+      <c r="D150" s="8"/>
       <c r="E150" s="1"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
@@ -4208,7 +5101,7 @@
       <c r="A151" s="8"/>
       <c r="B151" s="3"/>
       <c r="C151" s="5"/>
-      <c r="D151" s="3"/>
+      <c r="D151" s="8"/>
       <c r="E151" s="1"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
@@ -4222,7 +5115,7 @@
       <c r="A152" s="8"/>
       <c r="B152" s="3"/>
       <c r="C152" s="5"/>
-      <c r="D152" s="3"/>
+      <c r="D152" s="8"/>
       <c r="E152" s="1"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
@@ -4236,7 +5129,7 @@
       <c r="A153" s="8"/>
       <c r="B153" s="3"/>
       <c r="C153" s="5"/>
-      <c r="D153" s="3"/>
+      <c r="D153" s="8"/>
       <c r="E153" s="1"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
@@ -4250,7 +5143,7 @@
       <c r="A154" s="8"/>
       <c r="B154" s="3"/>
       <c r="C154" s="5"/>
-      <c r="D154" s="3"/>
+      <c r="D154" s="8"/>
       <c r="E154" s="1"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -4264,7 +5157,7 @@
       <c r="A155" s="8"/>
       <c r="B155" s="3"/>
       <c r="C155" s="5"/>
-      <c r="D155" s="3"/>
+      <c r="D155" s="8"/>
       <c r="E155" s="1"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
@@ -4278,7 +5171,7 @@
       <c r="A156" s="8"/>
       <c r="B156" s="3"/>
       <c r="C156" s="5"/>
-      <c r="D156" s="3"/>
+      <c r="D156" s="8"/>
       <c r="E156" s="1"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
@@ -4292,7 +5185,7 @@
       <c r="A157" s="8"/>
       <c r="B157" s="3"/>
       <c r="C157" s="5"/>
-      <c r="D157" s="3"/>
+      <c r="D157" s="8"/>
       <c r="E157" s="1"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
@@ -4306,7 +5199,7 @@
       <c r="A158" s="8"/>
       <c r="B158" s="3"/>
       <c r="C158" s="5"/>
-      <c r="D158" s="3"/>
+      <c r="D158" s="8"/>
       <c r="E158" s="1"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
@@ -4320,7 +5213,7 @@
       <c r="A159" s="8"/>
       <c r="B159" s="3"/>
       <c r="C159" s="5"/>
-      <c r="D159" s="3"/>
+      <c r="D159" s="8"/>
       <c r="E159" s="1"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
@@ -4334,7 +5227,7 @@
       <c r="A160" s="8"/>
       <c r="B160" s="3"/>
       <c r="C160" s="5"/>
-      <c r="D160" s="3"/>
+      <c r="D160" s="8"/>
       <c r="E160" s="1"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
@@ -4348,7 +5241,7 @@
       <c r="A161" s="8"/>
       <c r="B161" s="3"/>
       <c r="C161" s="5"/>
-      <c r="D161" s="3"/>
+      <c r="D161" s="8"/>
       <c r="E161" s="1"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
@@ -4362,7 +5255,7 @@
       <c r="A162" s="8"/>
       <c r="B162" s="3"/>
       <c r="C162" s="5"/>
-      <c r="D162" s="3"/>
+      <c r="D162" s="8"/>
       <c r="E162" s="1"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
@@ -4376,7 +5269,7 @@
       <c r="A163" s="8"/>
       <c r="B163" s="3"/>
       <c r="C163" s="5"/>
-      <c r="D163" s="3"/>
+      <c r="D163" s="8"/>
       <c r="E163" s="1"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
@@ -4390,7 +5283,7 @@
       <c r="A164" s="8"/>
       <c r="B164" s="3"/>
       <c r="C164" s="5"/>
-      <c r="D164" s="3"/>
+      <c r="D164" s="8"/>
       <c r="E164" s="1"/>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4404,7 +5297,7 @@
       <c r="A165" s="8"/>
       <c r="B165" s="3"/>
       <c r="C165" s="5"/>
-      <c r="D165" s="3"/>
+      <c r="D165" s="8"/>
       <c r="E165" s="1"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
@@ -4418,7 +5311,7 @@
       <c r="A166" s="8"/>
       <c r="B166" s="3"/>
       <c r="C166" s="5"/>
-      <c r="D166" s="3"/>
+      <c r="D166" s="8"/>
       <c r="E166" s="1"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
@@ -4432,7 +5325,7 @@
       <c r="A167" s="8"/>
       <c r="B167" s="3"/>
       <c r="C167" s="5"/>
-      <c r="D167" s="3"/>
+      <c r="D167" s="8"/>
       <c r="E167" s="1"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
@@ -4446,7 +5339,7 @@
       <c r="A168" s="8"/>
       <c r="B168" s="3"/>
       <c r="C168" s="5"/>
-      <c r="D168" s="3"/>
+      <c r="D168" s="8"/>
       <c r="E168" s="1"/>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
@@ -4460,7 +5353,7 @@
       <c r="A169" s="8"/>
       <c r="B169" s="3"/>
       <c r="C169" s="5"/>
-      <c r="D169" s="3"/>
+      <c r="D169" s="8"/>
       <c r="E169" s="1"/>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
@@ -4474,7 +5367,7 @@
       <c r="A170" s="8"/>
       <c r="B170" s="3"/>
       <c r="C170" s="5"/>
-      <c r="D170" s="3"/>
+      <c r="D170" s="8"/>
       <c r="E170" s="1"/>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
@@ -5843,7 +6736,7 @@
       <c r="I267" s="3"/>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A268" s="3"/>
+      <c r="A268" s="8"/>
       <c r="B268" s="3"/>
       <c r="C268" s="5"/>
       <c r="D268" s="3"/>
@@ -5857,7 +6750,7 @@
       <c r="I268" s="3"/>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A269" s="3"/>
+      <c r="A269" s="8"/>
       <c r="B269" s="3"/>
       <c r="C269" s="5"/>
       <c r="D269" s="3"/>
@@ -5871,7 +6764,7 @@
       <c r="I269" s="3"/>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A270" s="3"/>
+      <c r="A270" s="8"/>
       <c r="B270" s="3"/>
       <c r="C270" s="5"/>
       <c r="D270" s="3"/>
@@ -5885,7 +6778,7 @@
       <c r="I270" s="3"/>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A271" s="3"/>
+      <c r="A271" s="8"/>
       <c r="B271" s="3"/>
       <c r="C271" s="5"/>
       <c r="D271" s="3"/>
@@ -5899,7 +6792,7 @@
       <c r="I271" s="3"/>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A272" s="3"/>
+      <c r="A272" s="8"/>
       <c r="B272" s="3"/>
       <c r="C272" s="5"/>
       <c r="D272" s="3"/>
@@ -5913,7 +6806,7 @@
       <c r="I272" s="3"/>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A273" s="3"/>
+      <c r="A273" s="8"/>
       <c r="B273" s="3"/>
       <c r="C273" s="5"/>
       <c r="D273" s="3"/>
@@ -5927,7 +6820,7 @@
       <c r="I273" s="3"/>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A274" s="3"/>
+      <c r="A274" s="8"/>
       <c r="B274" s="3"/>
       <c r="C274" s="5"/>
       <c r="D274" s="3"/>
@@ -5941,7 +6834,7 @@
       <c r="I274" s="3"/>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A275" s="3"/>
+      <c r="A275" s="8"/>
       <c r="B275" s="3"/>
       <c r="C275" s="5"/>
       <c r="D275" s="3"/>
@@ -5955,7 +6848,7 @@
       <c r="I275" s="3"/>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A276" s="3"/>
+      <c r="A276" s="8"/>
       <c r="B276" s="3"/>
       <c r="C276" s="5"/>
       <c r="D276" s="3"/>
@@ -5969,7 +6862,7 @@
       <c r="I276" s="3"/>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A277" s="3"/>
+      <c r="A277" s="8"/>
       <c r="B277" s="3"/>
       <c r="C277" s="5"/>
       <c r="D277" s="3"/>
@@ -5983,7 +6876,7 @@
       <c r="I277" s="3"/>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A278" s="3"/>
+      <c r="A278" s="8"/>
       <c r="B278" s="3"/>
       <c r="C278" s="5"/>
       <c r="D278" s="3"/>
@@ -5997,7 +6890,7 @@
       <c r="I278" s="3"/>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A279" s="3"/>
+      <c r="A279" s="8"/>
       <c r="B279" s="3"/>
       <c r="C279" s="5"/>
       <c r="D279" s="3"/>
@@ -6011,7 +6904,7 @@
       <c r="I279" s="3"/>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A280" s="3"/>
+      <c r="A280" s="8"/>
       <c r="B280" s="3"/>
       <c r="C280" s="5"/>
       <c r="D280" s="3"/>
@@ -6025,7 +6918,7 @@
       <c r="I280" s="3"/>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A281" s="3"/>
+      <c r="A281" s="8"/>
       <c r="B281" s="3"/>
       <c r="C281" s="5"/>
       <c r="D281" s="3"/>
@@ -6039,7 +6932,7 @@
       <c r="I281" s="3"/>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A282" s="3"/>
+      <c r="A282" s="8"/>
       <c r="B282" s="3"/>
       <c r="C282" s="5"/>
       <c r="D282" s="3"/>
@@ -6053,7 +6946,7 @@
       <c r="I282" s="3"/>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A283" s="3"/>
+      <c r="A283" s="8"/>
       <c r="B283" s="3"/>
       <c r="C283" s="5"/>
       <c r="D283" s="3"/>
@@ -6067,7 +6960,7 @@
       <c r="I283" s="3"/>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A284" s="3"/>
+      <c r="A284" s="8"/>
       <c r="B284" s="3"/>
       <c r="C284" s="5"/>
       <c r="D284" s="3"/>
@@ -6081,7 +6974,7 @@
       <c r="I284" s="3"/>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A285" s="3"/>
+      <c r="A285" s="8"/>
       <c r="B285" s="3"/>
       <c r="C285" s="5"/>
       <c r="D285" s="3"/>
@@ -6095,7 +6988,7 @@
       <c r="I285" s="3"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A286" s="3"/>
+      <c r="A286" s="8"/>
       <c r="B286" s="3"/>
       <c r="C286" s="5"/>
       <c r="D286" s="3"/>
@@ -6109,7 +7002,7 @@
       <c r="I286" s="3"/>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A287" s="3"/>
+      <c r="A287" s="8"/>
       <c r="B287" s="3"/>
       <c r="C287" s="5"/>
       <c r="D287" s="3"/>
@@ -6123,7 +7016,7 @@
       <c r="I287" s="3"/>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A288" s="3"/>
+      <c r="A288" s="8"/>
       <c r="B288" s="3"/>
       <c r="C288" s="5"/>
       <c r="D288" s="3"/>
@@ -6137,7 +7030,7 @@
       <c r="I288" s="3"/>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A289" s="3"/>
+      <c r="A289" s="8"/>
       <c r="B289" s="3"/>
       <c r="C289" s="5"/>
       <c r="D289" s="3"/>
@@ -6151,7 +7044,7 @@
       <c r="I289" s="3"/>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A290" s="3"/>
+      <c r="A290" s="8"/>
       <c r="B290" s="3"/>
       <c r="C290" s="5"/>
       <c r="D290" s="3"/>
@@ -6165,7 +7058,7 @@
       <c r="I290" s="3"/>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A291" s="3"/>
+      <c r="A291" s="8"/>
       <c r="B291" s="3"/>
       <c r="C291" s="5"/>
       <c r="D291" s="3"/>
@@ -6179,7 +7072,7 @@
       <c r="I291" s="3"/>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A292" s="3"/>
+      <c r="A292" s="8"/>
       <c r="B292" s="3"/>
       <c r="C292" s="5"/>
       <c r="D292" s="3"/>
@@ -6193,7 +7086,7 @@
       <c r="I292" s="3"/>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A293" s="3"/>
+      <c r="A293" s="8"/>
       <c r="B293" s="3"/>
       <c r="C293" s="5"/>
       <c r="D293" s="3"/>
@@ -6207,7 +7100,7 @@
       <c r="I293" s="3"/>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A294" s="3"/>
+      <c r="A294" s="8"/>
       <c r="B294" s="3"/>
       <c r="C294" s="5"/>
       <c r="D294" s="3"/>
@@ -6221,7 +7114,7 @@
       <c r="I294" s="3"/>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A295" s="3"/>
+      <c r="A295" s="8"/>
       <c r="B295" s="3"/>
       <c r="C295" s="5"/>
       <c r="D295" s="3"/>
@@ -6235,7 +7128,7 @@
       <c r="I295" s="3"/>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A296" s="3"/>
+      <c r="A296" s="8"/>
       <c r="B296" s="3"/>
       <c r="C296" s="5"/>
       <c r="D296" s="3"/>
@@ -6249,7 +7142,7 @@
       <c r="I296" s="3"/>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A297" s="3"/>
+      <c r="A297" s="8"/>
       <c r="B297" s="3"/>
       <c r="C297" s="5"/>
       <c r="D297" s="3"/>
@@ -33843,26 +34736,449 @@
       <c r="I2267" s="3"/>
     </row>
     <row r="2268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2268" s="3"/>
+      <c r="B2268" s="3"/>
+      <c r="C2268" s="5"/>
+      <c r="D2268" s="3"/>
+      <c r="E2268" s="1"/>
+      <c r="F2268" s="3"/>
       <c r="G2268" s="3"/>
-      <c r="H2268" s="3"/>
+      <c r="H2268" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2268" s="3"/>
+    </row>
+    <row r="2269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2269" s="3"/>
+      <c r="B2269" s="3"/>
+      <c r="C2269" s="5"/>
+      <c r="D2269" s="3"/>
+      <c r="E2269" s="1"/>
+      <c r="F2269" s="3"/>
+      <c r="G2269" s="3"/>
+      <c r="H2269" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2269" s="3"/>
+    </row>
+    <row r="2270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2270" s="3"/>
+      <c r="B2270" s="3"/>
+      <c r="C2270" s="5"/>
+      <c r="D2270" s="3"/>
+      <c r="E2270" s="1"/>
+      <c r="F2270" s="3"/>
+      <c r="G2270" s="3"/>
+      <c r="H2270" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2270" s="3"/>
+    </row>
+    <row r="2271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2271" s="3"/>
+      <c r="B2271" s="3"/>
+      <c r="C2271" s="5"/>
+      <c r="D2271" s="3"/>
+      <c r="E2271" s="1"/>
+      <c r="F2271" s="3"/>
+      <c r="G2271" s="3"/>
+      <c r="H2271" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2271" s="3"/>
+    </row>
+    <row r="2272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2272" s="3"/>
+      <c r="B2272" s="3"/>
+      <c r="C2272" s="5"/>
+      <c r="D2272" s="3"/>
+      <c r="E2272" s="1"/>
+      <c r="F2272" s="3"/>
+      <c r="G2272" s="3"/>
+      <c r="H2272" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2272" s="3"/>
+    </row>
+    <row r="2273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2273" s="3"/>
+      <c r="B2273" s="3"/>
+      <c r="C2273" s="5"/>
+      <c r="D2273" s="3"/>
+      <c r="E2273" s="1"/>
+      <c r="F2273" s="3"/>
+      <c r="G2273" s="3"/>
+      <c r="H2273" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2273" s="3"/>
+    </row>
+    <row r="2274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2274" s="3"/>
+      <c r="B2274" s="3"/>
+      <c r="C2274" s="5"/>
+      <c r="D2274" s="3"/>
+      <c r="E2274" s="1"/>
+      <c r="F2274" s="3"/>
+      <c r="G2274" s="3"/>
+      <c r="H2274" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2274" s="3"/>
+    </row>
+    <row r="2275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2275" s="3"/>
+      <c r="B2275" s="3"/>
+      <c r="C2275" s="5"/>
+      <c r="D2275" s="3"/>
+      <c r="E2275" s="1"/>
+      <c r="F2275" s="3"/>
+      <c r="G2275" s="3"/>
+      <c r="H2275" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2275" s="3"/>
+    </row>
+    <row r="2276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2276" s="3"/>
+      <c r="B2276" s="3"/>
+      <c r="C2276" s="5"/>
+      <c r="D2276" s="3"/>
+      <c r="E2276" s="1"/>
+      <c r="F2276" s="3"/>
+      <c r="G2276" s="3"/>
+      <c r="H2276" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2276" s="3"/>
+    </row>
+    <row r="2277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2277" s="3"/>
+      <c r="B2277" s="3"/>
+      <c r="C2277" s="5"/>
+      <c r="D2277" s="3"/>
+      <c r="E2277" s="1"/>
+      <c r="F2277" s="3"/>
+      <c r="G2277" s="3"/>
+      <c r="H2277" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2277" s="3"/>
+    </row>
+    <row r="2278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2278" s="3"/>
+      <c r="B2278" s="3"/>
+      <c r="C2278" s="5"/>
+      <c r="D2278" s="3"/>
+      <c r="E2278" s="1"/>
+      <c r="F2278" s="3"/>
+      <c r="G2278" s="3"/>
+      <c r="H2278" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2278" s="3"/>
+    </row>
+    <row r="2279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2279" s="3"/>
+      <c r="B2279" s="3"/>
+      <c r="C2279" s="5"/>
+      <c r="D2279" s="3"/>
+      <c r="E2279" s="1"/>
+      <c r="F2279" s="3"/>
+      <c r="G2279" s="3"/>
+      <c r="H2279" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2279" s="3"/>
+    </row>
+    <row r="2280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2280" s="3"/>
+      <c r="B2280" s="3"/>
+      <c r="C2280" s="5"/>
+      <c r="D2280" s="3"/>
+      <c r="E2280" s="1"/>
+      <c r="F2280" s="3"/>
+      <c r="G2280" s="3"/>
+      <c r="H2280" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2280" s="3"/>
+    </row>
+    <row r="2281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2281" s="3"/>
+      <c r="B2281" s="3"/>
+      <c r="C2281" s="5"/>
+      <c r="D2281" s="3"/>
+      <c r="E2281" s="1"/>
+      <c r="F2281" s="3"/>
+      <c r="G2281" s="3"/>
+      <c r="H2281" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2281" s="3"/>
+    </row>
+    <row r="2282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2282" s="3"/>
+      <c r="B2282" s="3"/>
+      <c r="C2282" s="5"/>
+      <c r="D2282" s="3"/>
+      <c r="E2282" s="1"/>
+      <c r="F2282" s="3"/>
+      <c r="G2282" s="3"/>
+      <c r="H2282" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2282" s="3"/>
+    </row>
+    <row r="2283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2283" s="3"/>
+      <c r="B2283" s="3"/>
+      <c r="C2283" s="5"/>
+      <c r="D2283" s="3"/>
+      <c r="E2283" s="1"/>
+      <c r="F2283" s="3"/>
+      <c r="G2283" s="3"/>
+      <c r="H2283" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2283" s="3"/>
+    </row>
+    <row r="2284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2284" s="3"/>
+      <c r="B2284" s="3"/>
+      <c r="C2284" s="5"/>
+      <c r="D2284" s="3"/>
+      <c r="E2284" s="1"/>
+      <c r="F2284" s="3"/>
+      <c r="G2284" s="3"/>
+      <c r="H2284" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2284" s="3"/>
+    </row>
+    <row r="2285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2285" s="3"/>
+      <c r="B2285" s="3"/>
+      <c r="C2285" s="5"/>
+      <c r="D2285" s="3"/>
+      <c r="E2285" s="1"/>
+      <c r="F2285" s="3"/>
+      <c r="G2285" s="3"/>
+      <c r="H2285" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2285" s="3"/>
+    </row>
+    <row r="2286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2286" s="3"/>
+      <c r="B2286" s="3"/>
+      <c r="C2286" s="5"/>
+      <c r="D2286" s="3"/>
+      <c r="E2286" s="1"/>
+      <c r="F2286" s="3"/>
+      <c r="G2286" s="3"/>
+      <c r="H2286" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2286" s="3"/>
+    </row>
+    <row r="2287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2287" s="3"/>
+      <c r="B2287" s="3"/>
+      <c r="C2287" s="5"/>
+      <c r="D2287" s="3"/>
+      <c r="E2287" s="1"/>
+      <c r="F2287" s="3"/>
+      <c r="G2287" s="3"/>
+      <c r="H2287" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2287" s="3"/>
+    </row>
+    <row r="2288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2288" s="3"/>
+      <c r="B2288" s="3"/>
+      <c r="C2288" s="5"/>
+      <c r="D2288" s="3"/>
+      <c r="E2288" s="1"/>
+      <c r="F2288" s="3"/>
+      <c r="G2288" s="3"/>
+      <c r="H2288" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2288" s="3"/>
+    </row>
+    <row r="2289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2289" s="3"/>
+      <c r="B2289" s="3"/>
+      <c r="C2289" s="5"/>
+      <c r="D2289" s="3"/>
+      <c r="E2289" s="1"/>
+      <c r="F2289" s="3"/>
+      <c r="G2289" s="3"/>
+      <c r="H2289" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2289" s="3"/>
+    </row>
+    <row r="2290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2290" s="3"/>
+      <c r="B2290" s="3"/>
+      <c r="C2290" s="5"/>
+      <c r="D2290" s="3"/>
+      <c r="E2290" s="1"/>
+      <c r="F2290" s="3"/>
+      <c r="G2290" s="3"/>
+      <c r="H2290" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2290" s="3"/>
+    </row>
+    <row r="2291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2291" s="3"/>
+      <c r="B2291" s="3"/>
+      <c r="C2291" s="5"/>
+      <c r="D2291" s="3"/>
+      <c r="E2291" s="1"/>
+      <c r="F2291" s="3"/>
+      <c r="G2291" s="3"/>
+      <c r="H2291" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2291" s="3"/>
+    </row>
+    <row r="2292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2292" s="3"/>
+      <c r="B2292" s="3"/>
+      <c r="C2292" s="5"/>
+      <c r="D2292" s="3"/>
+      <c r="E2292" s="1"/>
+      <c r="F2292" s="3"/>
+      <c r="G2292" s="3"/>
+      <c r="H2292" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2292" s="3"/>
+    </row>
+    <row r="2293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2293" s="3"/>
+      <c r="B2293" s="3"/>
+      <c r="C2293" s="5"/>
+      <c r="D2293" s="3"/>
+      <c r="E2293" s="1"/>
+      <c r="F2293" s="3"/>
+      <c r="G2293" s="3"/>
+      <c r="H2293" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2293" s="3"/>
+    </row>
+    <row r="2294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2294" s="3"/>
+      <c r="B2294" s="3"/>
+      <c r="C2294" s="5"/>
+      <c r="D2294" s="3"/>
+      <c r="E2294" s="1"/>
+      <c r="F2294" s="3"/>
+      <c r="G2294" s="3"/>
+      <c r="H2294" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2294" s="3"/>
+    </row>
+    <row r="2295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2295" s="3"/>
+      <c r="B2295" s="3"/>
+      <c r="C2295" s="5"/>
+      <c r="D2295" s="3"/>
+      <c r="E2295" s="1"/>
+      <c r="F2295" s="3"/>
+      <c r="G2295" s="3"/>
+      <c r="H2295" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2295" s="3"/>
+    </row>
+    <row r="2296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2296" s="3"/>
+      <c r="B2296" s="3"/>
+      <c r="C2296" s="5"/>
+      <c r="D2296" s="3"/>
+      <c r="E2296" s="1"/>
+      <c r="F2296" s="3"/>
+      <c r="G2296" s="3"/>
+      <c r="H2296" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2296" s="3"/>
+    </row>
+    <row r="2297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2297" s="3"/>
+      <c r="B2297" s="3"/>
+      <c r="C2297" s="5"/>
+      <c r="D2297" s="3"/>
+      <c r="E2297" s="1"/>
+      <c r="F2297" s="3"/>
+      <c r="G2297" s="3"/>
+      <c r="H2297" s="4">
+        <f>Tabla1[[#This Row],[$]]*6</f>
+        <v>0</v>
+      </c>
+      <c r="I2297" s="3"/>
+    </row>
+    <row r="2298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G2298" s="3"/>
+      <c r="H2298" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E2267">
+  <conditionalFormatting sqref="E2:E2297">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A15" r:id="rId1" xr:uid="{927C92C7-6B61-4EB9-9C9C-FD4E9084BAFF}"/>
-    <hyperlink ref="A14" r:id="rId2" xr:uid="{25778FAC-AD20-4E64-A08F-91AC02BCF198}"/>
-    <hyperlink ref="A48" r:id="rId3" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{149EC145-919F-4AAB-B457-D975A30A31A7}"/>
-    <hyperlink ref="A61" r:id="rId4" xr:uid="{FCF7D838-4D62-4799-8E4F-2595606E99C2}"/>
-    <hyperlink ref="B61" r:id="rId5" display="https://video.aliexpress-media.com/play/u/ae_sg_item/2210947737601/p/1/e/6/t/10301/5000119272165.mp4?from=chrome" xr:uid="{6BE665CA-47CE-4FBE-9062-70CB85717110}"/>
+    <hyperlink ref="A54" r:id="rId1" xr:uid="{927C92C7-6B61-4EB9-9C9C-FD4E9084BAFF}"/>
+    <hyperlink ref="A53" r:id="rId2" xr:uid="{25778FAC-AD20-4E64-A08F-91AC02BCF198}"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{149EC145-919F-4AAB-B457-D975A30A31A7}"/>
+    <hyperlink ref="A56" r:id="rId4" xr:uid="{FCF7D838-4D62-4799-8E4F-2595606E99C2}"/>
+    <hyperlink ref="B56" r:id="rId5" display="https://video.aliexpress-media.com/play/u/ae_sg_item/2210947737601/p/1/e/6/t/10301/5000119272165.mp4?from=chrome" xr:uid="{6BE665CA-47CE-4FBE-9062-70CB85717110}"/>
+    <hyperlink ref="A5" r:id="rId6" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{2584EE3D-0412-4BD2-8398-FAAB1C32718D}"/>
+    <hyperlink ref="A6" r:id="rId7" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{0647A1AD-A655-422F-8B07-94408022CD94}"/>
+    <hyperlink ref="A4" r:id="rId8" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{14CB63D3-0390-43A2-AE82-0C817E70ABD2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/proali.xlsx
+++ b/proali.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos PY\py_deltron\Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3CB642-9ED9-4283-BE20-416F8C879C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6996AC-1B92-4188-9668-54929C17B469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="357">
   <si>
     <t>CODIGO</t>
   </si>
@@ -92,9 +92,6 @@
     <t>KT5423</t>
   </si>
   <si>
-    <t>Bugatti Chiron Supersport</t>
-  </si>
-  <si>
     <t>https://video.aliexpress-media.com/play/u/ae_sg_item/2210947737601/p/1/e/6/t/10301/5000119272165.mp4</t>
   </si>
   <si>
@@ -218,18 +215,12 @@
     <t>https://www.kinsmart.com/upload/products/original/276406359543.KT5445B-website.jpg</t>
   </si>
   <si>
-    <t>2022 Ford Bronco (Police)</t>
-  </si>
-  <si>
     <t>KT5438P</t>
   </si>
   <si>
     <t>https://www.kinsmart.com/upload/products/original/678442329995.KT5438P-website.jpg</t>
   </si>
   <si>
-    <t>2022 Ford F-150 Raptor (Police)</t>
-  </si>
-  <si>
     <t>1/46 Metal fundido a presión de 5'', puertas que se abren, acción de retroceso</t>
   </si>
   <si>
@@ -254,18 +245,12 @@
     <t>https://www.kinsmart.com/upload/products/original/959919960072.KT5402-website.jpg</t>
   </si>
   <si>
-    <t>1966 Ford GT40 MKII (Heritage Edition)</t>
-  </si>
-  <si>
     <t>https://www.kinsmart.com/upload/products/original/374613035429.KT5427F-website.jpg</t>
   </si>
   <si>
     <t>KT5427F</t>
   </si>
   <si>
-    <t>2017 Ford GT with printing</t>
-  </si>
-  <si>
     <t>KT5391F</t>
   </si>
   <si>
@@ -338,18 +323,12 @@
     <t>KT5328</t>
   </si>
   <si>
-    <t>Subaru Impreza WRC 2007</t>
-  </si>
-  <si>
     <t>KT5060</t>
   </si>
   <si>
     <t>KT5455F</t>
   </si>
   <si>
-    <t>2024 Ford Mustang Dark Horse (Livery Edition)</t>
-  </si>
-  <si>
     <t>KT5411</t>
   </si>
   <si>
@@ -383,9 +362,6 @@
     <t>KT5059</t>
   </si>
   <si>
-    <t>Chevrolet 2 Classic</t>
-  </si>
-  <si>
     <t>KT5349</t>
   </si>
   <si>
@@ -864,6 +840,270 @@
   </si>
   <si>
     <t>Stickers</t>
+  </si>
+  <si>
+    <t>KT5418</t>
+  </si>
+  <si>
+    <t>1/43 Metal fundido a presión de 5'', puertas que se abren, acción de retroceso</t>
+  </si>
+  <si>
+    <t>https://www.kinsmart.com/upload/products/original/945200205834.KT5418-website.jpg</t>
+  </si>
+  <si>
+    <t>1967 Chevrolet Impala NEGRO</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_8502_mq2bid.mp4</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_3259_rempnc.mp4</t>
+  </si>
+  <si>
+    <t>1967 Chevrolet Impala AZUL</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_8503_tf0o6i.mp4</t>
+  </si>
+  <si>
+    <t>1967 Chevrolet Impala BLANCO</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_2690_hleo6s.mp4</t>
+  </si>
+  <si>
+    <t>1967 Chevrolet Impala ROJO</t>
+  </si>
+  <si>
+    <t>1932 Ford 3-Window Coupe VERDE</t>
+  </si>
+  <si>
+    <t>2018 Jeep Wrangler (Hard Top) VERDE</t>
+  </si>
+  <si>
+    <t>2017 Ford GT with printing BLANCO</t>
+  </si>
+  <si>
+    <t>2022 Ford Bronco (Police) NEGRO</t>
+  </si>
+  <si>
+    <t>2022 Ford F-150 Raptor (Police) NEGRO</t>
+  </si>
+  <si>
+    <t>https://video.aliexpress-media.com/play/u/ae_sg_item/2210947737601/p/1/e/6/t/10301/5000119272643.mp4?from=chrome</t>
+  </si>
+  <si>
+    <t>1966 Ford GT40 MKII (Heritage Edition) CELESTE</t>
+  </si>
+  <si>
+    <t>Subaru Impreza WRC 2007 AZUL</t>
+  </si>
+  <si>
+    <t>https://video.aliexpress-media.com/play/u/ae_sg_item/2210656568869/p/1/e/6/t/10301/5000119364539.mp4?from=chrome</t>
+  </si>
+  <si>
+    <t>2024 Ford Mustang Dark Horse (Livery Edition) BLANCO</t>
+  </si>
+  <si>
+    <t>Bugatti Chiron Supersport AZUL</t>
+  </si>
+  <si>
+    <t>https://video.aliexpress-media.com/play/u/ae_sg_item/2210947737601/p/1/e/6/t/10301/5000119270262.mp4?from=chrome</t>
+  </si>
+  <si>
+    <t>https://www.kinsmart.com/upload/products/original/611050875659.KT5081-website.jpg</t>
+  </si>
+  <si>
+    <t>KT5081</t>
+  </si>
+  <si>
+    <t>https://www.kinsmart.com/upload/products/original/569965863384.KT5352-website.jpg</t>
+  </si>
+  <si>
+    <t>KT5352</t>
+  </si>
+  <si>
+    <t>2010 Porsche 911 GST RS NARANJA</t>
+  </si>
+  <si>
+    <t>2010 Porsche 911 GST RS GRIS</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_0755_hwjiaj.mp4</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/s--dcYSFzBx--/ac_none,c_crop,du_15,h_720,q_auto:good,w_1080,x_184,y_0/IMG_0752_ajjke8</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_0756_octwfz.mp4</t>
+  </si>
+  <si>
+    <t>2010 Porsche 911 GST RS BLANCO</t>
+  </si>
+  <si>
+    <t>Porsche Carrera GT ROJO</t>
+  </si>
+  <si>
+    <t>Porsche Carrera GT AZUL</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_8628_ufbh9e.mp4</t>
+  </si>
+  <si>
+    <t>https://v.etsystatic.com/video/upload/ac_none,du_15,q_auto:good/IMG_7758_2_lkpkug.mp4</t>
+  </si>
+  <si>
+    <t>Electronica</t>
+  </si>
+  <si>
+    <t>https://video.aliexpress-media.com/play/u/ae_sg_item/2211627277846/p/1/e/6/t/10301/1100106061483.mp4?from=chrome</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S1f14a195bd6a4e2e9020d38b3bfea1d8C.jpg</t>
+  </si>
+  <si>
+    <t>EL1009</t>
+  </si>
+  <si>
+    <t>Case ORICO HDD Case 2.5 SATA a USB 3.0 NEGRO</t>
+  </si>
+  <si>
+    <t>Adaptador de receptor Bluetooth AUX</t>
+  </si>
+  <si>
+    <t>https://video.aliexpress-media.com/play/u/ae_sg_item/3000001776091/p/1/e/6/t/10301/1100224231790.mp4?from=chrome</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S60d59307439d4af4a9e4bbc7f467e406L.jpg</t>
+  </si>
+  <si>
+    <t>Adhesivos</t>
+  </si>
+  <si>
+    <t>https://ae03.alicdn.com/kf/S1ff8d456d1ce40108f6de52fc857fb82c.jpg</t>
+  </si>
+  <si>
+    <t>https://ae03.alicdn.com/kf/Sed4d93521939435fa24ef9c01a6fb8bdk.jpg</t>
+  </si>
+  <si>
+    <t>https://ae03.alicdn.com/kf/Sa827d5ce6f3a4463b2cba6247cc14c843.jpg</t>
+  </si>
+  <si>
+    <t>Ashesivo Protector para manija 4 puertas AZUL</t>
+  </si>
+  <si>
+    <t>Ashesivo Protector para manija 4 puertas ROJO</t>
+  </si>
+  <si>
+    <t>Ashesivo Protector para manija 4 puertas BLANCO</t>
+  </si>
+  <si>
+    <t>AD0100</t>
+  </si>
+  <si>
+    <t>EL1010</t>
+  </si>
+  <si>
+    <t>https://evosparksdiecast.com/cdn/shop/files/Sca9b1d4286044e2197d67b13a452daffI.webp?v=1702198432&amp;width=1445</t>
+  </si>
+  <si>
+    <t>https://evosparksdiecast.com/cdn/shop/files/S72588d1fac9d45cca1dfcd64abe431efj.webp?v=1702198432&amp;width=600</t>
+  </si>
+  <si>
+    <t>KT6004</t>
+  </si>
+  <si>
+    <t>https://video.aliexpress-media.com/play/u/ae_sg_item/2215901085461/p/1/e/6/t/10301/5000197750530.mp4?from=chrome</t>
+  </si>
+  <si>
+    <t>KT6005</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Sda677df14417468bba525f0b6b095a0bi.jpg</t>
+  </si>
+  <si>
+    <t>Bugatti Bolide AZUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAMMOTH PICKUP </t>
+  </si>
+  <si>
+    <t>https://video.aliexpress-media.com/play/u/ae_sg_item/2215259469909/p/1/e/6/t/10301/4000150994856.mp4?from=chrome</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Sb4b671bb7db642ea9ee5dc2eac407b25J.jpg</t>
+  </si>
+  <si>
+    <t>FA1001</t>
+  </si>
+  <si>
+    <t>Pokemon 6 unids/set 6-7cm</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S94482c46046d46b98c2dd8ae42933656n.jpg</t>
+  </si>
+  <si>
+    <t>KT6006</t>
+  </si>
+  <si>
+    <t>Volkswagen Classical Beetle AMARILLO</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S7935961c470747318778e509fd6a934fI.jpg</t>
+  </si>
+  <si>
+    <t>Volkswagen Classical Beetle CELESTE</t>
+  </si>
+  <si>
+    <t>Volkswagen Classical Beetle ROJO</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S4cc0df649ecd493ba23b10840a048ff5S.jpg</t>
+  </si>
+  <si>
+    <t>Volkswagen Classical Beetle BLANCO</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S5f6e349d720941fcbeaada8792942bd2H.jpg</t>
+  </si>
+  <si>
+    <t>Volkswagen Classical Beetle ROSA</t>
+  </si>
+  <si>
+    <t>https://video.aliexpress-media.com/play/u/ae_sg_item/3000001417501/p/1/e/6/t/10301/1100062134029.mp4?from=chrome</t>
+  </si>
+  <si>
+    <t>KT6007</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Sf31d501a8f4545d5b081de575a3c7faaT.jpg?width=800&amp;height=800&amp;hash=1600</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/A407b8670e4254636bf5d70ec8f3e4de8X.jpg</t>
+  </si>
+  <si>
+    <t>Broly 20cm</t>
+  </si>
+  <si>
+    <t>FA1002</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S648edc9c082047588679f1d083c2d4f49.jpg</t>
+  </si>
+  <si>
+    <t>Adhesivo Hojitas ROJO</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Sd1576e32c31e4a78b2fb1999ea9eae9aE.jpg</t>
+  </si>
+  <si>
+    <t>AD0101</t>
+  </si>
+  <si>
+    <t>Adhesivo Hojitas AZUL</t>
+  </si>
+  <si>
+    <t>Tractor excavadora AMARILLO</t>
   </si>
 </sst>
 </file>
@@ -935,7 +1175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -967,6 +1207,9 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -995,8 +1238,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;S/&quot;\ * #,##0_-;\-&quot;S/&quot;\ * #,##0_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1011,7 +1253,8 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;S/&quot;\ * #,##0_-;\-&quot;S/&quot;\ * #,##0_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1178,10 +1421,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:H2297" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
-  <autoFilter ref="A1:H2297" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H2297">
-    <sortCondition ref="D1:D2297"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:H2309" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
+  <autoFilter ref="A1:H2309" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H2309">
+    <sortCondition ref="D1:D2309"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="6" xr3:uid="{D349EDB8-1023-498A-8D26-F168360F9742}" name="FOTO" dataDxfId="8"/>
@@ -1190,8 +1433,8 @@
     <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{9228A578-C29A-4A98-B2E0-DD3E2C05AAD3}" name="CATEGORIA" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{9228A578-C29A-4A98-B2E0-DD3E2C05AAD3}" name="CATEGORIA" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1484,15 +1727,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2298"/>
+  <dimension ref="A1:H2310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C85" workbookViewId="0">
-      <selection activeCell="H99" sqref="H99"/>
+    <sheetView tabSelected="1" topLeftCell="B110" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="13" style="6" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.5703125" bestFit="1" customWidth="1"/>
@@ -1525,1109 +1768,1115 @@
         <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E2" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>262</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="7" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="E3" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="E4" s="9">
         <v>0</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E5" s="9">
         <v>0</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E6" s="9">
         <v>0</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>258</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>32</v>
+        <v>259</v>
       </c>
       <c r="E7" s="9">
         <v>0</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="E8" s="9">
         <v>0</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E9" s="9">
         <v>0</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E10" s="9">
         <v>0</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E11" s="9">
         <v>0</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>242</v>
+        <v>147</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>243</v>
+        <v>148</v>
       </c>
       <c r="E12" s="9">
         <v>0</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="D13" s="8" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="E13" s="9">
         <v>0</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="D14" s="8" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E14" s="9">
         <v>0</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="D15" s="8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E15" s="9">
         <v>0</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>236</v>
+      </c>
       <c r="C16" s="7" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
       <c r="E16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="E17" s="9">
         <v>0</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="E18" s="9">
         <v>0</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E19" s="9">
         <v>0</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="E20" s="9">
         <v>0</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E21" s="9">
         <v>0</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="E22" s="9">
         <v>0</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E23" s="9">
         <v>0</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E24" s="9">
         <v>0</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="E25" s="9">
         <v>0</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="3"/>
+        <v>155</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="C26" s="7" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="E26" s="9">
         <v>0</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>285</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>38</v>
+        <v>286</v>
       </c>
       <c r="E27" s="9">
         <v>0</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E28" s="9">
         <v>0</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="E29" s="9">
         <v>0</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E30" s="9">
         <v>0</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>226</v>
+        <v>34</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="E31" s="9">
         <v>0</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B32" s="3"/>
+        <v>271</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="C32" s="7" t="s">
-        <v>105</v>
+        <v>269</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>106</v>
+        <v>275</v>
       </c>
       <c r="E32" s="9">
         <v>0</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="10"/>
+        <v>270</v>
+      </c>
+      <c r="G32" s="4"/>
       <c r="H32" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="E33" s="9">
         <v>0</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="10"/>
+        <v>270</v>
+      </c>
+      <c r="G33" s="4"/>
       <c r="H33" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="E34" s="9">
         <v>0</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="10"/>
+        <v>270</v>
+      </c>
+      <c r="G34" s="4"/>
       <c r="H34" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="E35" s="9">
         <v>0</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="10"/>
+        <v>270</v>
+      </c>
+      <c r="G35" s="4"/>
       <c r="H35" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="E36" s="9">
         <v>0</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E37" s="9">
         <v>0</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>110</v>
+        <v>249</v>
       </c>
       <c r="E38" s="9">
         <v>0</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="C39" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>76</v>
+        <v>253</v>
       </c>
       <c r="E39" s="9">
         <v>0</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="E40" s="9">
         <v>0</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>247</v>
+      </c>
       <c r="C41" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>68</v>
+        <v>246</v>
       </c>
       <c r="E41" s="9">
         <v>0</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>63</v>
+        <v>294</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>237</v>
+        <v>300</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>62</v>
+        <v>295</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>61</v>
+        <v>301</v>
       </c>
       <c r="E42" s="9">
         <v>0</v>
       </c>
-      <c r="F42" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="10"/>
+      <c r="F42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="4"/>
       <c r="H42" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="3"/>
+        <v>294</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>299</v>
+      </c>
       <c r="C43" s="7" t="s">
-        <v>59</v>
+        <v>295</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>58</v>
+        <v>297</v>
       </c>
       <c r="E43" s="9">
         <v>0</v>
       </c>
-      <c r="F43" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="10"/>
+      <c r="F43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" s="4"/>
       <c r="H43" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>67</v>
+        <v>294</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>66</v>
+        <v>295</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>64</v>
+        <v>296</v>
       </c>
       <c r="E44" s="9">
         <v>0</v>
       </c>
-      <c r="F44" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G44" s="10"/>
+      <c r="F44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" s="4"/>
       <c r="H44" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E45" s="9">
         <v>0</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E46" s="9">
         <v>0</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>130</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B47" s="3"/>
       <c r="C47" s="7" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="E47" s="9">
         <v>0</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>123</v>
+        <v>263</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>124</v>
+        <v>262</v>
       </c>
       <c r="E48" s="9">
         <v>0</v>
@@ -2637,1240 +2886,1406 @@
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>126</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B49" s="3"/>
       <c r="C49" s="7" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>127</v>
+        <v>281</v>
       </c>
       <c r="E49" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>21</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B50" s="3"/>
       <c r="C50" s="7" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="E50" s="9">
         <v>0</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>133</v>
+        <v>61</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>121</v>
+        <v>283</v>
       </c>
       <c r="E51" s="9">
         <v>0</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>12</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B52" s="3"/>
       <c r="C52" s="7" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E52" s="9">
         <v>0</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G52" s="10"/>
       <c r="H52" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>132</v>
+        <v>228</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>11</v>
+        <v>284</v>
       </c>
       <c r="E53" s="9">
         <v>0</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="G53" s="10"/>
       <c r="H53" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>134</v>
+        <v>288</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>10</v>
+        <v>289</v>
       </c>
       <c r="E54" s="9">
         <v>0</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="C55" s="7" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="E55" s="9">
         <v>0</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="E56" s="9">
         <v>0</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="7"/>
+      <c r="A57" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="D57" s="8" t="s">
         <v>116</v>
       </c>
       <c r="E57" s="9">
         <v>0</v>
       </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="4"/>
+      <c r="F57" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="10"/>
       <c r="H57" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B58" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="C58" s="7" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="E58" s="9">
         <v>0</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G58" s="4"/>
+      <c r="F58" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="10"/>
       <c r="H58" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="5" t="s">
-        <v>50</v>
+        <v>7</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="E59" s="9">
         <v>0</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G59" s="4"/>
+      <c r="F59" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" s="10"/>
       <c r="H59" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>216</v>
+        <v>123</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>217</v>
+        <v>113</v>
       </c>
       <c r="E60" s="9">
         <v>0</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G60" s="4"/>
+      <c r="G60" s="10"/>
       <c r="H60" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>218</v>
+        <v>123</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>219</v>
+        <v>13</v>
       </c>
       <c r="E61" s="9">
         <v>0</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G61" s="4"/>
+      <c r="G61" s="10"/>
       <c r="H61" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>220</v>
+        <v>124</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>221</v>
+        <v>11</v>
       </c>
       <c r="E62" s="9">
         <v>0</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G62" s="4"/>
+      <c r="G62" s="10"/>
       <c r="H62" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>222</v>
+        <v>126</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="E63" s="9">
         <v>0</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G63" s="4"/>
+      <c r="G63" s="10"/>
       <c r="H63" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>87</v>
+        <v>291</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="E64" s="9">
         <v>0</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" s="4"/>
+      <c r="F64" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" s="10"/>
       <c r="H64" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>91</v>
+        <v>19</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>253</v>
+        <v>14</v>
       </c>
       <c r="E65" s="9">
         <v>0</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" s="4"/>
+      <c r="F65" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="10"/>
       <c r="H65" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>91</v>
+        <v>45</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>252</v>
+        <v>46</v>
       </c>
       <c r="E66" s="9">
         <v>0</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>272</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B67" s="3"/>
       <c r="C67" s="5" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>273</v>
+        <v>50</v>
       </c>
       <c r="E67" s="9">
         <v>0</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="5" t="s">
-        <v>84</v>
+        <v>207</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="E68" s="9">
         <v>0</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>93</v>
+        <v>207</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>92</v>
+        <v>210</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="E69" s="9">
         <v>0</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>93</v>
+        <v>207</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>92</v>
+        <v>212</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="E70" s="9">
         <v>0</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>93</v>
+        <v>207</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>92</v>
+        <v>214</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="E71" s="9">
         <v>0</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>145</v>
+        <v>232</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>146</v>
+        <v>233</v>
       </c>
       <c r="E72" s="9">
         <v>0</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>97</v>
+        <v>243</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
       <c r="E73" s="9">
         <v>0</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>97</v>
+        <v>242</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>173</v>
+        <v>244</v>
       </c>
       <c r="E74" s="9">
         <v>0</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>172</v>
+        <v>84</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>97</v>
+        <v>264</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="E75" s="9">
         <v>0</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>97</v>
+        <v>80</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="E76" s="9">
         <v>0</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="7" t="s">
-        <v>98</v>
+        <v>88</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="E77" s="9">
         <v>0</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="7" t="s">
-        <v>112</v>
+        <v>88</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="E78" s="9">
         <v>0</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>189</v>
+        <v>88</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>117</v>
+        <v>141</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="E79" s="9">
         <v>0</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>189</v>
+        <v>88</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>117</v>
+        <v>137</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="E80" s="9">
         <v>0</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="E81" s="9">
         <v>0</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="E82" s="9">
         <v>0</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="E83" s="9">
         <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="E84" s="9">
         <v>0</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>204</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B85" s="3"/>
       <c r="C85" s="7" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="E85" s="9">
         <v>0</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>203</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B86" s="3"/>
       <c r="C86" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="E86" s="9">
         <v>0</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B87" s="3"/>
+        <v>181</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="C87" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="E87" s="9">
         <v>0</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="E88" s="9">
         <v>0</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="E89" s="9">
         <v>0</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>234</v>
+        <v>183</v>
       </c>
       <c r="E90" s="9">
         <v>0</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="E91" s="9">
         <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="E92" s="9">
         <v>0</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="E93" s="9">
         <v>0</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="E94" s="9">
         <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>212</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="B95" s="3"/>
       <c r="C95" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="E95" s="9">
         <v>0</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="8"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="3"/>
+      <c r="A96" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E96" s="9">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G96" s="4"/>
       <c r="H96" s="3" t="s">
-        <v>274</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="8"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="3"/>
+      <c r="A97" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E97" s="9">
+        <v>0</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G97" s="4"/>
       <c r="H97" s="3" t="s">
-        <v>275</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="8"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="3"/>
+      <c r="A98" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E98" s="9">
+        <v>0</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G98" s="4"/>
       <c r="H98" s="3" t="s">
-        <v>276</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="3"/>
+      <c r="A99" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E99" s="9">
+        <v>0</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G99" s="4"/>
-      <c r="H99" s="3"/>
+      <c r="H99" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="3"/>
+      <c r="A100" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E100" s="9">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G100" s="4"/>
-      <c r="H100" s="3"/>
+      <c r="H100" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="8"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="3"/>
+      <c r="A101" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E101" s="9">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G101" s="4"/>
-      <c r="H101" s="3"/>
+      <c r="H101" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="3"/>
+      <c r="A102" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E102" s="9">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G102" s="4"/>
-      <c r="H102" s="3"/>
+      <c r="H102" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="3"/>
+      <c r="A103" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E103" s="9">
+        <v>0</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G103" s="4"/>
-      <c r="H103" s="3"/>
+      <c r="H103" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="8"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="3"/>
+      <c r="A104" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E104" s="9">
+        <v>0</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G104" s="4"/>
-      <c r="H104" s="3"/>
+      <c r="H104" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="3"/>
+      <c r="A105" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E105" s="9">
+        <v>1</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G105" s="4"/>
-      <c r="H105" s="3"/>
+      <c r="H105" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="3"/>
+      <c r="A106" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E106" s="9">
+        <v>1</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G106" s="4"/>
-      <c r="H106" s="3"/>
+      <c r="H106" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="3"/>
+      <c r="A107" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E107" s="9">
+        <v>0</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G107" s="4"/>
-      <c r="H107" s="3"/>
+      <c r="H107" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
@@ -3880,7 +4295,9 @@
       <c r="E108" s="1"/>
       <c r="F108" s="3"/>
       <c r="G108" s="4"/>
-      <c r="H108" s="3"/>
+      <c r="H108" s="3" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
@@ -3890,7 +4307,9 @@
       <c r="E109" s="1"/>
       <c r="F109" s="3"/>
       <c r="G109" s="4"/>
-      <c r="H109" s="3"/>
+      <c r="H109" s="3" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
@@ -3900,180 +4319,394 @@
       <c r="E110" s="1"/>
       <c r="F110" s="3"/>
       <c r="G110" s="4"/>
-      <c r="H110" s="3"/>
+      <c r="H110" s="3" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="1"/>
+      <c r="A111" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E111" s="1">
+        <v>2</v>
+      </c>
       <c r="F111" s="3"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="3"/>
+      <c r="G111" s="4">
+        <v>46</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="1"/>
+      <c r="A112" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
       <c r="F112" s="3"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="3"/>
+      <c r="G112" s="4">
+        <v>100</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
+      <c r="A113" s="8" t="s">
+        <v>315</v>
+      </c>
       <c r="B113" s="3"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="1"/>
+      <c r="C113" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1</v>
+      </c>
       <c r="F113" s="3"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="3"/>
+      <c r="G113" s="4">
+        <v>19</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="8"/>
+      <c r="A114" s="8" t="s">
+        <v>316</v>
+      </c>
       <c r="B114" s="3"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="1"/>
+      <c r="C114" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1</v>
+      </c>
       <c r="F114" s="3"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="3"/>
+      <c r="G114" s="4">
+        <v>19</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="8"/>
+      <c r="A115" s="8" t="s">
+        <v>317</v>
+      </c>
       <c r="B115" s="3"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="1"/>
+      <c r="C115" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
       <c r="F115" s="3"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="3"/>
+      <c r="G115" s="4">
+        <v>19</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="8"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="1"/>
+      <c r="A116" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E116" s="1">
+        <v>1</v>
+      </c>
       <c r="F116" s="3"/>
       <c r="G116" s="4"/>
-      <c r="H116" s="3"/>
+      <c r="H116" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="8"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="1"/>
+      <c r="A117" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0</v>
+      </c>
       <c r="F117" s="3"/>
       <c r="G117" s="4"/>
-      <c r="H117" s="3"/>
+      <c r="H117" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="8"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="1"/>
+      <c r="A118" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1</v>
+      </c>
       <c r="F118" s="3"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="3"/>
+      <c r="G118" s="4">
+        <v>46</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="8"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="1"/>
+      <c r="A119" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B119" s="11"/>
+      <c r="C119" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0</v>
+      </c>
       <c r="F119" s="3"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="3"/>
+      <c r="G119" s="4">
+        <v>36</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="8"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="1"/>
+      <c r="A120" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B120" s="11"/>
+      <c r="C120" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
       <c r="F120" s="3"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="3"/>
+      <c r="G120" s="4">
+        <v>36</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="8"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="1"/>
+      <c r="A121" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B121" s="11"/>
+      <c r="C121" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
       <c r="F121" s="3"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="3"/>
+      <c r="G121" s="4">
+        <v>36</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="8"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="1"/>
+      <c r="A122" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B122" s="11"/>
+      <c r="C122" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
       <c r="F122" s="3"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="3"/>
+      <c r="G122" s="4">
+        <v>36</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="8"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="1"/>
+      <c r="A123" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B123" s="11"/>
+      <c r="C123" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
       <c r="F123" s="3"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="3"/>
+      <c r="G123" s="4">
+        <v>36</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="8"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="1"/>
+      <c r="A124" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1</v>
+      </c>
       <c r="F124" s="3"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="3"/>
+      <c r="G124" s="4">
+        <v>46</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="8"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="1"/>
+      <c r="A125" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B125" s="11"/>
+      <c r="C125" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E125" s="1">
+        <v>2</v>
+      </c>
       <c r="F125" s="3"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="3"/>
+      <c r="G125" s="4">
+        <v>28</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="8"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="1"/>
+      <c r="A126" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B126" s="11"/>
+      <c r="C126" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="E126" s="1">
+        <v>2</v>
+      </c>
       <c r="F126" s="3"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="3"/>
+      <c r="G126" s="4">
+        <v>12</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="8"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="1"/>
+      <c r="A127" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B127" s="11"/>
+      <c r="C127" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="E127" s="1">
+        <v>2</v>
+      </c>
       <c r="F127" s="3"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="3"/>
+      <c r="G127" s="4">
+        <v>12</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="8"/>
+      <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="5"/>
       <c r="D128" s="8"/>
@@ -4506,7 +5139,7 @@
       <c r="A171" s="8"/>
       <c r="B171" s="3"/>
       <c r="C171" s="5"/>
-      <c r="D171" s="3"/>
+      <c r="D171" s="8"/>
       <c r="E171" s="1"/>
       <c r="F171" s="3"/>
       <c r="G171" s="4"/>
@@ -4516,7 +5149,7 @@
       <c r="A172" s="8"/>
       <c r="B172" s="3"/>
       <c r="C172" s="5"/>
-      <c r="D172" s="3"/>
+      <c r="D172" s="8"/>
       <c r="E172" s="1"/>
       <c r="F172" s="3"/>
       <c r="G172" s="4"/>
@@ -4526,7 +5159,7 @@
       <c r="A173" s="8"/>
       <c r="B173" s="3"/>
       <c r="C173" s="5"/>
-      <c r="D173" s="3"/>
+      <c r="D173" s="8"/>
       <c r="E173" s="1"/>
       <c r="F173" s="3"/>
       <c r="G173" s="4"/>
@@ -4536,7 +5169,7 @@
       <c r="A174" s="8"/>
       <c r="B174" s="3"/>
       <c r="C174" s="5"/>
-      <c r="D174" s="3"/>
+      <c r="D174" s="8"/>
       <c r="E174" s="1"/>
       <c r="F174" s="3"/>
       <c r="G174" s="4"/>
@@ -4546,7 +5179,7 @@
       <c r="A175" s="8"/>
       <c r="B175" s="3"/>
       <c r="C175" s="5"/>
-      <c r="D175" s="3"/>
+      <c r="D175" s="8"/>
       <c r="E175" s="1"/>
       <c r="F175" s="3"/>
       <c r="G175" s="4"/>
@@ -4556,7 +5189,7 @@
       <c r="A176" s="8"/>
       <c r="B176" s="3"/>
       <c r="C176" s="5"/>
-      <c r="D176" s="3"/>
+      <c r="D176" s="8"/>
       <c r="E176" s="1"/>
       <c r="F176" s="3"/>
       <c r="G176" s="4"/>
@@ -4566,7 +5199,7 @@
       <c r="A177" s="8"/>
       <c r="B177" s="3"/>
       <c r="C177" s="5"/>
-      <c r="D177" s="3"/>
+      <c r="D177" s="8"/>
       <c r="E177" s="1"/>
       <c r="F177" s="3"/>
       <c r="G177" s="4"/>
@@ -4576,7 +5209,7 @@
       <c r="A178" s="8"/>
       <c r="B178" s="3"/>
       <c r="C178" s="5"/>
-      <c r="D178" s="3"/>
+      <c r="D178" s="8"/>
       <c r="E178" s="1"/>
       <c r="F178" s="3"/>
       <c r="G178" s="4"/>
@@ -4586,7 +5219,7 @@
       <c r="A179" s="8"/>
       <c r="B179" s="3"/>
       <c r="C179" s="5"/>
-      <c r="D179" s="3"/>
+      <c r="D179" s="8"/>
       <c r="E179" s="1"/>
       <c r="F179" s="3"/>
       <c r="G179" s="4"/>
@@ -4596,7 +5229,7 @@
       <c r="A180" s="8"/>
       <c r="B180" s="3"/>
       <c r="C180" s="5"/>
-      <c r="D180" s="3"/>
+      <c r="D180" s="8"/>
       <c r="E180" s="1"/>
       <c r="F180" s="3"/>
       <c r="G180" s="4"/>
@@ -4606,7 +5239,7 @@
       <c r="A181" s="8"/>
       <c r="B181" s="3"/>
       <c r="C181" s="5"/>
-      <c r="D181" s="3"/>
+      <c r="D181" s="8"/>
       <c r="E181" s="1"/>
       <c r="F181" s="3"/>
       <c r="G181" s="4"/>
@@ -4616,7 +5249,7 @@
       <c r="A182" s="8"/>
       <c r="B182" s="3"/>
       <c r="C182" s="5"/>
-      <c r="D182" s="3"/>
+      <c r="D182" s="8"/>
       <c r="E182" s="1"/>
       <c r="F182" s="3"/>
       <c r="G182" s="4"/>
@@ -5773,7 +6406,7 @@
       <c r="H297" s="3"/>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A298" s="3"/>
+      <c r="A298" s="8"/>
       <c r="B298" s="3"/>
       <c r="C298" s="5"/>
       <c r="D298" s="3"/>
@@ -5783,7 +6416,7 @@
       <c r="H298" s="3"/>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A299" s="3"/>
+      <c r="A299" s="8"/>
       <c r="B299" s="3"/>
       <c r="C299" s="5"/>
       <c r="D299" s="3"/>
@@ -5793,7 +6426,7 @@
       <c r="H299" s="3"/>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A300" s="3"/>
+      <c r="A300" s="8"/>
       <c r="B300" s="3"/>
       <c r="C300" s="5"/>
       <c r="D300" s="3"/>
@@ -5803,7 +6436,7 @@
       <c r="H300" s="3"/>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A301" s="3"/>
+      <c r="A301" s="8"/>
       <c r="B301" s="3"/>
       <c r="C301" s="5"/>
       <c r="D301" s="3"/>
@@ -5813,7 +6446,7 @@
       <c r="H301" s="3"/>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A302" s="3"/>
+      <c r="A302" s="8"/>
       <c r="B302" s="3"/>
       <c r="C302" s="5"/>
       <c r="D302" s="3"/>
@@ -5823,7 +6456,7 @@
       <c r="H302" s="3"/>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A303" s="3"/>
+      <c r="A303" s="8"/>
       <c r="B303" s="3"/>
       <c r="C303" s="5"/>
       <c r="D303" s="3"/>
@@ -5833,7 +6466,7 @@
       <c r="H303" s="3"/>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A304" s="3"/>
+      <c r="A304" s="8"/>
       <c r="B304" s="3"/>
       <c r="C304" s="5"/>
       <c r="D304" s="3"/>
@@ -5843,7 +6476,7 @@
       <c r="H304" s="3"/>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A305" s="3"/>
+      <c r="A305" s="8"/>
       <c r="B305" s="3"/>
       <c r="C305" s="5"/>
       <c r="D305" s="3"/>
@@ -5853,7 +6486,7 @@
       <c r="H305" s="3"/>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A306" s="3"/>
+      <c r="A306" s="8"/>
       <c r="B306" s="3"/>
       <c r="C306" s="5"/>
       <c r="D306" s="3"/>
@@ -5863,7 +6496,7 @@
       <c r="H306" s="3"/>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A307" s="3"/>
+      <c r="A307" s="8"/>
       <c r="B307" s="3"/>
       <c r="C307" s="5"/>
       <c r="D307" s="3"/>
@@ -5873,7 +6506,7 @@
       <c r="H307" s="3"/>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A308" s="3"/>
+      <c r="A308" s="8"/>
       <c r="B308" s="3"/>
       <c r="C308" s="5"/>
       <c r="D308" s="3"/>
@@ -5883,7 +6516,7 @@
       <c r="H308" s="3"/>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A309" s="3"/>
+      <c r="A309" s="8"/>
       <c r="B309" s="3"/>
       <c r="C309" s="5"/>
       <c r="D309" s="3"/>
@@ -25773,24 +26406,143 @@
       <c r="H2297" s="3"/>
     </row>
     <row r="2298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2298" s="3"/>
+      <c r="B2298" s="3"/>
+      <c r="C2298" s="5"/>
+      <c r="D2298" s="3"/>
+      <c r="E2298" s="1"/>
       <c r="F2298" s="3"/>
-      <c r="G2298" s="3"/>
+      <c r="G2298" s="4"/>
+      <c r="H2298" s="3"/>
+    </row>
+    <row r="2299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2299" s="3"/>
+      <c r="B2299" s="3"/>
+      <c r="C2299" s="5"/>
+      <c r="D2299" s="3"/>
+      <c r="E2299" s="1"/>
+      <c r="F2299" s="3"/>
+      <c r="G2299" s="4"/>
+      <c r="H2299" s="3"/>
+    </row>
+    <row r="2300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2300" s="3"/>
+      <c r="B2300" s="3"/>
+      <c r="C2300" s="5"/>
+      <c r="D2300" s="3"/>
+      <c r="E2300" s="1"/>
+      <c r="F2300" s="3"/>
+      <c r="G2300" s="4"/>
+      <c r="H2300" s="3"/>
+    </row>
+    <row r="2301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2301" s="3"/>
+      <c r="B2301" s="3"/>
+      <c r="C2301" s="5"/>
+      <c r="D2301" s="3"/>
+      <c r="E2301" s="1"/>
+      <c r="F2301" s="3"/>
+      <c r="G2301" s="4"/>
+      <c r="H2301" s="3"/>
+    </row>
+    <row r="2302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2302" s="3"/>
+      <c r="B2302" s="3"/>
+      <c r="C2302" s="5"/>
+      <c r="D2302" s="3"/>
+      <c r="E2302" s="1"/>
+      <c r="F2302" s="3"/>
+      <c r="G2302" s="4"/>
+      <c r="H2302" s="3"/>
+    </row>
+    <row r="2303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2303" s="3"/>
+      <c r="B2303" s="3"/>
+      <c r="C2303" s="5"/>
+      <c r="D2303" s="3"/>
+      <c r="E2303" s="1"/>
+      <c r="F2303" s="3"/>
+      <c r="G2303" s="4"/>
+      <c r="H2303" s="3"/>
+    </row>
+    <row r="2304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2304" s="3"/>
+      <c r="B2304" s="3"/>
+      <c r="C2304" s="5"/>
+      <c r="D2304" s="3"/>
+      <c r="E2304" s="1"/>
+      <c r="F2304" s="3"/>
+      <c r="G2304" s="4"/>
+      <c r="H2304" s="3"/>
+    </row>
+    <row r="2305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2305" s="3"/>
+      <c r="B2305" s="3"/>
+      <c r="C2305" s="5"/>
+      <c r="D2305" s="3"/>
+      <c r="E2305" s="1"/>
+      <c r="F2305" s="3"/>
+      <c r="G2305" s="4"/>
+      <c r="H2305" s="3"/>
+    </row>
+    <row r="2306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2306" s="3"/>
+      <c r="B2306" s="3"/>
+      <c r="C2306" s="5"/>
+      <c r="D2306" s="3"/>
+      <c r="E2306" s="1"/>
+      <c r="F2306" s="3"/>
+      <c r="G2306" s="4"/>
+      <c r="H2306" s="3"/>
+    </row>
+    <row r="2307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2307" s="3"/>
+      <c r="B2307" s="3"/>
+      <c r="C2307" s="5"/>
+      <c r="D2307" s="3"/>
+      <c r="E2307" s="1"/>
+      <c r="F2307" s="3"/>
+      <c r="G2307" s="4"/>
+      <c r="H2307" s="3"/>
+    </row>
+    <row r="2308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2308" s="3"/>
+      <c r="B2308" s="3"/>
+      <c r="C2308" s="5"/>
+      <c r="D2308" s="3"/>
+      <c r="E2308" s="1"/>
+      <c r="F2308" s="3"/>
+      <c r="G2308" s="4"/>
+      <c r="H2308" s="3"/>
+    </row>
+    <row r="2309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2309" s="3"/>
+      <c r="B2309" s="3"/>
+      <c r="C2309" s="5"/>
+      <c r="D2309" s="3"/>
+      <c r="E2309" s="1"/>
+      <c r="F2309" s="3"/>
+      <c r="G2309" s="4"/>
+      <c r="H2309" s="3"/>
+    </row>
+    <row r="2310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2310" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E2297">
+  <conditionalFormatting sqref="E2:E2309">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A54" r:id="rId1" xr:uid="{927C92C7-6B61-4EB9-9C9C-FD4E9084BAFF}"/>
-    <hyperlink ref="A53" r:id="rId2" xr:uid="{25778FAC-AD20-4E64-A08F-91AC02BCF198}"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{149EC145-919F-4AAB-B457-D975A30A31A7}"/>
-    <hyperlink ref="A56" r:id="rId4" xr:uid="{FCF7D838-4D62-4799-8E4F-2595606E99C2}"/>
-    <hyperlink ref="B56" r:id="rId5" display="https://video.aliexpress-media.com/play/u/ae_sg_item/2210947737601/p/1/e/6/t/10301/5000119272165.mp4?from=chrome" xr:uid="{6BE665CA-47CE-4FBE-9062-70CB85717110}"/>
-    <hyperlink ref="A5" r:id="rId6" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{2584EE3D-0412-4BD2-8398-FAAB1C32718D}"/>
-    <hyperlink ref="A6" r:id="rId7" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{0647A1AD-A655-422F-8B07-94408022CD94}"/>
-    <hyperlink ref="A4" r:id="rId8" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{14CB63D3-0390-43A2-AE82-0C817E70ABD2}"/>
+    <hyperlink ref="A63" r:id="rId1" xr:uid="{927C92C7-6B61-4EB9-9C9C-FD4E9084BAFF}"/>
+    <hyperlink ref="A62" r:id="rId2" xr:uid="{25778FAC-AD20-4E64-A08F-91AC02BCF198}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{149EC145-919F-4AAB-B457-D975A30A31A7}"/>
+    <hyperlink ref="A65" r:id="rId4" xr:uid="{FCF7D838-4D62-4799-8E4F-2595606E99C2}"/>
+    <hyperlink ref="B65" r:id="rId5" display="https://video.aliexpress-media.com/play/u/ae_sg_item/2210947737601/p/1/e/6/t/10301/5000119272165.mp4?from=chrome" xr:uid="{6BE665CA-47CE-4FBE-9062-70CB85717110}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{2584EE3D-0412-4BD2-8398-FAAB1C32718D}"/>
+    <hyperlink ref="A7" r:id="rId7" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{0647A1AD-A655-422F-8B07-94408022CD94}"/>
+    <hyperlink ref="A5" r:id="rId8" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{14CB63D3-0390-43A2-AE82-0C817E70ABD2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>

--- a/proali.xlsx
+++ b/proali.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos PY\py_deltron\Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F43F4A-3B4D-4D1E-87DB-D83F936D05A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88041A30-2C45-43D4-84AF-08957CC4CABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="395">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1097,9 +1097,6 @@
     <t>Tractor excavadora AMARILLO</t>
   </si>
   <si>
-    <t>https://ae01.alicdn.com/kf/S9be0079e33a941fd9c21c5a3aa3370f3h.jpg</t>
-  </si>
-  <si>
     <t>EL1011</t>
   </si>
   <si>
@@ -1125,6 +1122,102 @@
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/71HtUc5fuLL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S49bf2b0d5d4642e3813085c229f0fa65M.jpg</t>
+  </si>
+  <si>
+    <t>Juego de destornilladores de precisión magnética 25 en 1</t>
+  </si>
+  <si>
+    <t>KT6009</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S1e65a74486804e51837d4f66dcf4f19bG.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Sab4ed8d51ae84a05a57ff4f00d1e0f14v.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moto Vespa </t>
+  </si>
+  <si>
+    <t>1/18 metal</t>
+  </si>
+  <si>
+    <t>https://video.aliexpress-media.com/play/u/ae_sg_item/3000004561156/p/1/e/6/t/10301/5000116342390.mp4?from=chrome</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S3d5f21c1b21d4289b57ad442a2290ffde.jpg</t>
+  </si>
+  <si>
+    <t>Figura de acción de One Piece Zoro</t>
+  </si>
+  <si>
+    <t>10cm</t>
+  </si>
+  <si>
+    <t>FA1003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figura de Death Note Ryuk </t>
+  </si>
+  <si>
+    <t>https://video.aliexpress-media.com/play/u/ae_sg_item/2213983474161/p/1/e/6/t/10301/1100083146459.mp4?from=chrome</t>
+  </si>
+  <si>
+    <t>FA1004</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Sae25f178c1284767bea703083a938f3fQ.jpg</t>
+  </si>
+  <si>
+    <t>24cm</t>
+  </si>
+  <si>
+    <t>https://video.aliexpress-media.com/play/u/ae_sg_item/2215483985827/p/1/e/6/t/10301/1100196404795.mp4?from=chrome</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S4a113d13fb98454bb8e35540a59363f2R.jpg</t>
+  </si>
+  <si>
+    <t>KT6010</t>
+  </si>
+  <si>
+    <t>Wrangler 7 puertas Amarillo</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Sde505b957ad846489551806450cc5097M.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S418a7345aeb142b3b9e300af9e1e9c8cU.jpg</t>
+  </si>
+  <si>
+    <t>FA1005</t>
+  </si>
+  <si>
+    <t>FA1006</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S9a0ddab8fc0f4763bbe39f3f64dd872bo.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S394a6bdde41243d1becd1f214cd4a750o.jpg</t>
+  </si>
+  <si>
+    <t>Figura de accion Mario ROJO</t>
+  </si>
+  <si>
+    <t>Figura de accion Luigui VERDE</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S13265d1146304043b88ac83928fb26f5v.jpg?width=1000&amp;height=611&amp;hash=1611</t>
+  </si>
+  <si>
+    <t>Chopp USB Flash Drive, 64GB AMARILLO</t>
+  </si>
+  <si>
+    <t>EL1012</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1226,9 +1319,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1750,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1759,7 +1849,7 @@
     <col min="1" max="1" width="13" style="6" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="66.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -4608,7 +4698,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="5" t="s">
@@ -4621,14 +4711,16 @@
         <v>2</v>
       </c>
       <c r="F113" s="3"/>
-      <c r="G113" s="4"/>
+      <c r="G113" s="4">
+        <v>19</v>
+      </c>
       <c r="H113" s="3" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="5" t="s">
@@ -4641,14 +4733,16 @@
         <v>2</v>
       </c>
       <c r="F114" s="3"/>
-      <c r="G114" s="4"/>
+      <c r="G114" s="4">
+        <v>19</v>
+      </c>
       <c r="H114" s="3" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="5" t="s">
@@ -4661,7 +4755,9 @@
         <v>2</v>
       </c>
       <c r="F115" s="3"/>
-      <c r="G115" s="4"/>
+      <c r="G115" s="4">
+        <v>19</v>
+      </c>
       <c r="H115" s="3" t="s">
         <v>314</v>
       </c>
@@ -4733,8 +4829,10 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="11"/>
+      <c r="A119" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B119" s="3"/>
       <c r="C119" s="5" t="s">
         <v>333</v>
       </c>
@@ -4754,7 +4852,7 @@
       <c r="A120" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B120" s="11"/>
+      <c r="B120" s="3"/>
       <c r="C120" s="5" t="s">
         <v>333</v>
       </c>
@@ -4774,7 +4872,7 @@
       <c r="A121" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B121" s="11"/>
+      <c r="B121" s="3"/>
       <c r="C121" s="5" t="s">
         <v>333</v>
       </c>
@@ -4794,7 +4892,7 @@
       <c r="A122" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B122" s="11"/>
+      <c r="B122" s="3"/>
       <c r="C122" s="5" t="s">
         <v>333</v>
       </c>
@@ -4814,7 +4912,7 @@
       <c r="A123" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B123" s="11"/>
+      <c r="B123" s="3"/>
       <c r="C123" s="5" t="s">
         <v>333</v>
       </c>
@@ -4856,7 +4954,7 @@
       <c r="A125" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B125" s="11"/>
+      <c r="B125" s="3"/>
       <c r="C125" s="5" t="s">
         <v>347</v>
       </c>
@@ -4876,7 +4974,7 @@
       <c r="A126" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B126" s="11"/>
+      <c r="B126" s="3"/>
       <c r="C126" s="5" t="s">
         <v>351</v>
       </c>
@@ -4884,10 +4982,12 @@
         <v>349</v>
       </c>
       <c r="E126" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F126" s="3"/>
-      <c r="G126" s="4"/>
+      <c r="G126" s="4">
+        <v>12</v>
+      </c>
       <c r="H126" s="3" t="s">
         <v>314</v>
       </c>
@@ -4896,7 +4996,7 @@
       <c r="A127" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B127" s="11"/>
+      <c r="B127" s="3"/>
       <c r="C127" s="5" t="s">
         <v>351</v>
       </c>
@@ -4914,36 +5014,38 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E128" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F128" s="3"/>
-      <c r="G128" s="4"/>
+      <c r="G128" s="4">
+        <v>16</v>
+      </c>
       <c r="H128" s="3" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D129" s="8" t="s">
         <v>358</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>359</v>
       </c>
       <c r="E129" s="1">
         <v>0</v>
@@ -4955,100 +5057,194 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="8"/>
+      <c r="A130" s="8" t="s">
+        <v>363</v>
+      </c>
       <c r="B130" s="3"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="8"/>
+      <c r="C130" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>364</v>
+      </c>
       <c r="E130" s="1">
         <v>0</v>
       </c>
       <c r="F130" s="3"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="3"/>
+      <c r="G130" s="4">
+        <v>28</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="8"/>
+      <c r="A131" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>368</v>
+      </c>
       <c r="E131" s="1">
         <v>0</v>
       </c>
-      <c r="F131" s="3"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="3"/>
+      <c r="F131" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="G131" s="4">
+        <v>19</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="8"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="8"/>
+      <c r="A132" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>372</v>
+      </c>
       <c r="E132" s="1">
         <v>0</v>
       </c>
-      <c r="F132" s="3"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="3"/>
+      <c r="F132" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G132" s="4">
+        <v>22</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="8"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="8"/>
+      <c r="A133" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>375</v>
+      </c>
       <c r="E133" s="1">
         <v>0</v>
       </c>
-      <c r="F133" s="3"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="3"/>
+      <c r="F133" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="G133" s="4">
+        <v>29</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="8"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="8"/>
+      <c r="A134" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>383</v>
+      </c>
       <c r="E134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" s="3"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="3"/>
+      <c r="G134" s="4">
+        <v>50</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="8"/>
+      <c r="A135" s="8" t="s">
+        <v>388</v>
+      </c>
       <c r="B135" s="3"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="8"/>
+      <c r="C135" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>390</v>
+      </c>
       <c r="E135" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" s="3"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="3"/>
+      <c r="G135" s="4">
+        <v>19</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="8"/>
+      <c r="A136" s="8" t="s">
+        <v>389</v>
+      </c>
       <c r="B136" s="3"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="8"/>
+      <c r="C136" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>391</v>
+      </c>
       <c r="E136" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" s="3"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="3"/>
+      <c r="G136" s="4">
+        <v>19</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="8"/>
+      <c r="A137" s="8" t="s">
+        <v>392</v>
+      </c>
       <c r="B137" s="3"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="8"/>
+      <c r="C137" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>393</v>
+      </c>
       <c r="E137" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" s="3"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="3"/>
+      <c r="G137" s="4">
+        <v>16</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>

--- a/proali.xlsx
+++ b/proali.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos PY\py_deltron\Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FC31D4-13C1-4B6E-A008-12FE0D503068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60DC1AA-C07F-43BB-A387-726B1578D2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="420">
   <si>
     <t>CODIGO</t>
   </si>
@@ -827,15 +827,9 @@
     <t>Lamborghini Miura SV AMARILLO</t>
   </si>
   <si>
-    <t>Llaveros</t>
-  </si>
-  <si>
     <t>Figuras de Accion</t>
   </si>
   <si>
-    <t>Stickers</t>
-  </si>
-  <si>
     <t>KT5418</t>
   </si>
   <si>
@@ -974,15 +968,6 @@
     <t>Adhesivos</t>
   </si>
   <si>
-    <t>Ashesivo Protector para manija 4 puertas AZUL</t>
-  </si>
-  <si>
-    <t>Ashesivo Protector para manija 4 puertas ROJO</t>
-  </si>
-  <si>
-    <t>Ashesivo Protector para manija 4 puertas BLANCO</t>
-  </si>
-  <si>
     <t>AD0100</t>
   </si>
   <si>
@@ -1073,9 +1058,6 @@
     <t>https://ae01.alicdn.com/kf/S648edc9c082047588679f1d083c2d4f49.jpg</t>
   </si>
   <si>
-    <t>Adhesivo Hojitas ROJO</t>
-  </si>
-  <si>
     <t>https://ae01.alicdn.com/kf/Sd1576e32c31e4a78b2fb1999ea9eae9aE.jpg</t>
   </si>
   <si>
@@ -1121,18 +1103,9 @@
     <t>KT6009</t>
   </si>
   <si>
-    <t>https://ae01.alicdn.com/kf/S1e65a74486804e51837d4f66dcf4f19bG.jpg</t>
-  </si>
-  <si>
     <t>https://ae01.alicdn.com/kf/Sab4ed8d51ae84a05a57ff4f00d1e0f14v.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Moto Vespa </t>
-  </si>
-  <si>
-    <t>1/18 metal</t>
-  </si>
-  <si>
     <t>https://video.aliexpress-media.com/play/u/ae_sg_item/3000004561156/p/1/e/6/t/10301/5000116342390.mp4?from=chrome</t>
   </si>
   <si>
@@ -1169,9 +1142,6 @@
     <t>KT6010</t>
   </si>
   <si>
-    <t>Wrangler 7 puertas Amarillo</t>
-  </si>
-  <si>
     <t>https://ae01.alicdn.com/kf/Sde505b957ad846489551806450cc5097M.jpg</t>
   </si>
   <si>
@@ -1244,16 +1214,85 @@
     <t>Figura de accion Death Note Ryuk NEGRO</t>
   </si>
   <si>
-    <t>6-7cm x 6 Unidades</t>
-  </si>
-  <si>
     <t>Figura de accion Pokemon</t>
   </si>
   <si>
-    <t>Flash Drive USB Chopp 64GB AMARILLO</t>
-  </si>
-  <si>
-    <t>Flash Drive USB  GamePad 64GB NEGRO</t>
+    <t>1/18 Metal fundido a presión</t>
+  </si>
+  <si>
+    <t>Moto Vespa ROJO</t>
+  </si>
+  <si>
+    <t>Adhesivo Decorativo Hojitas ROJO</t>
+  </si>
+  <si>
+    <t>6-7cm - Set de 6 Unidades</t>
+  </si>
+  <si>
+    <t>Fibra de Carbono, Reflectivo</t>
+  </si>
+  <si>
+    <t>Para 4 puertas, Fibra de Carbono, Reflectivo</t>
+  </si>
+  <si>
+    <t>Ashesivo Protector para manija AZUL</t>
+  </si>
+  <si>
+    <t>Ashesivo Protector para manija BLANCO</t>
+  </si>
+  <si>
+    <t>Ashesivo Protector para manija ROJO</t>
+  </si>
+  <si>
+    <t>EL1013</t>
+  </si>
+  <si>
+    <t>https://www.geeky-gadgets.com/wp-content/uploads/2009/05/transformers-usb-drive.jpg</t>
+  </si>
+  <si>
+    <t>128GB USB 2.0</t>
+  </si>
+  <si>
+    <t>64GB USB 2.0</t>
+  </si>
+  <si>
+    <t>Flash Drive USB Transformer NEGRO</t>
+  </si>
+  <si>
+    <t>Flash Drive USB Stitch AZUL</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Sa8d23bffe137416caec9b5e9338741c2g.jpg</t>
+  </si>
+  <si>
+    <t>EL1014</t>
+  </si>
+  <si>
+    <t>Flash Drive USB Chopp AMARILLO</t>
+  </si>
+  <si>
+    <t>Flash Drive USB  GamePad NEGRO</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/Sdb7401bb074a4b1aa7a5627884fb9878q.jpg</t>
+  </si>
+  <si>
+    <t>Flash Drive USB Angela ROSA</t>
+  </si>
+  <si>
+    <t>1942 Wrangler AMARILLO</t>
+  </si>
+  <si>
+    <t>7 Puertas, Luces y Sonido</t>
+  </si>
+  <si>
+    <t>https://canary.contestimg.wish.com/api/webimage/5943a5490b4571468dff89fb-large.jpg?cache_buster=cb361c2a334b026a2582e90c8bfe1804</t>
+  </si>
+  <si>
+    <t>KT6011</t>
+  </si>
+  <si>
+    <t>Beetle Classic</t>
   </si>
 </sst>
 </file>
@@ -1298,12 +1337,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1331,7 +1376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1369,11 +1414,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1580,27 +1651,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:H2312" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
-  <autoFilter ref="A1:H2312" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:H2315" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+  <autoFilter ref="A1:H2315" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
     <filterColumn colId="4">
-      <filters blank="1">
+      <filters>
         <filter val="01"/>
         <filter val="02"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A111:H2312">
-    <sortCondition ref="D1:D2312"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A71:H2315">
+    <sortCondition ref="H1:H2315"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="6" xr3:uid="{D349EDB8-1023-498A-8D26-F168360F9742}" name="FOTO" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{27800D88-F905-4A3C-90B5-3205899E52F5}" name="VIDEO" dataDxfId="7"/>
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{9228A578-C29A-4A98-B2E0-DD3E2C05AAD3}" name="CATEGORIA" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{D349EDB8-1023-498A-8D26-F168360F9742}" name="FOTO" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{27800D88-F905-4A3C-90B5-3205899E52F5}" name="VIDEO" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{9228A578-C29A-4A98-B2E0-DD3E2C05AAD3}" name="CATEGORIA" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1893,10 +1964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2313"/>
+  <dimension ref="A1:H2315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F136" sqref="F136"/>
+      <selection activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1930,7 +2001,7 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1960,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -1986,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2012,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2038,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2064,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2090,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2116,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2142,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2168,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2194,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2220,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2246,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2272,21 +2343,21 @@
         <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="E15" s="9">
         <v>0</v>
@@ -2298,21 +2369,21 @@
         <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="E16" s="9">
         <v>0</v>
@@ -2324,21 +2395,21 @@
         <v>0</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="E17" s="9">
         <v>0</v>
@@ -2350,21 +2421,21 @@
         <v>0</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="E18" s="9">
         <v>0</v>
@@ -2376,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2384,13 +2455,13 @@
         <v>69</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>70</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E19" s="9">
         <v>0</v>
@@ -2402,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2428,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2454,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2480,111 +2551,111 @@
         <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E23" s="9">
         <v>0</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G23" s="10">
         <v>0</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E24" s="9">
         <v>0</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G24" s="10">
         <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>271</v>
-      </c>
       <c r="C25" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E25" s="9">
         <v>0</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G25" s="10">
         <v>0</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E26" s="9">
         <v>0</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G26" s="10">
         <v>0</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2608,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2634,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2660,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2686,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2710,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2734,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2742,13 +2813,13 @@
         <v>178</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>96</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E33" s="9">
         <v>0</v>
@@ -2760,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2786,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2812,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2838,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2864,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2890,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2916,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2942,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2968,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -2994,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3018,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3044,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3070,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3096,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3122,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3148,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3174,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3200,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3224,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3250,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3276,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3302,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3328,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3352,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3378,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3404,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3430,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3456,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3482,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3508,21 +3579,21 @@
         <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E63" s="9">
         <v>0</v>
@@ -3534,21 +3605,21 @@
         <v>0</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E64" s="9">
         <v>0</v>
@@ -3560,34 +3631,20 @@
         <v>0</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="E65" s="1">
-        <v>1</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="G65" s="4">
-        <v>19</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>144</v>
-      </c>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="10">
+        <v>0</v>
+      </c>
+      <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
@@ -3612,7 +3669,7 @@
         <v>28</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3638,7 +3695,7 @@
         <v>28</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3664,7 +3721,7 @@
         <v>28</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3676,7 +3733,7 @@
         <v>49</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="E69" s="9">
         <v>0</v>
@@ -3688,83 +3745,67 @@
         <v>28</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>76</v>
-      </c>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="E70" s="9">
-        <v>1</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="3"/>
       <c r="G70" s="10">
-        <v>28</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="E71" s="9">
-        <v>1</v>
+      <c r="A71" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E71" s="1">
+        <v>2</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G71" s="10">
-        <v>28</v>
+        <v>398</v>
+      </c>
+      <c r="G71" s="4">
+        <v>12</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>390</v>
+        <v>310</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E72" s="9">
-        <v>1</v>
+        <v>350</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="E72" s="1">
+        <v>2</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G72" s="10">
-        <v>28</v>
+        <v>399</v>
+      </c>
+      <c r="G72" s="4">
+        <v>19</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>390</v>
+        <v>310</v>
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3790,7 +3831,7 @@
         <v>37</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3816,7 +3857,7 @@
         <v>37</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3842,97 +3883,93 @@
         <v>37</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>52</v>
+        <v>352</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="E76" s="9">
-        <v>1</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" s="10">
-        <v>37</v>
+        <v>401</v>
+      </c>
+      <c r="E76" s="1">
+        <v>2</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G76" s="4">
+        <v>19</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>389</v>
+        <v>310</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>53</v>
+        <v>351</v>
       </c>
       <c r="B77" s="3"/>
-      <c r="C77" s="7" t="s">
-        <v>52</v>
+      <c r="C77" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E77" s="9">
-        <v>1</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" s="10">
-        <v>37</v>
+        <v>402</v>
+      </c>
+      <c r="E77" s="1">
+        <v>2</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G77" s="4">
+        <v>19</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>389</v>
+        <v>310</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>234</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B78" s="3"/>
       <c r="C78" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>235</v>
+        <v>75</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>277</v>
       </c>
       <c r="E78" s="9">
         <v>1</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G78" s="10">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E79" s="1">
         <v>0</v>
@@ -3947,16 +3984,16 @@
     </row>
     <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D80" s="8" t="s">
         <v>319</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>324</v>
       </c>
       <c r="E80" s="1">
         <v>0</v>
@@ -3992,7 +4029,7 @@
         <v>46</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4018,7 +4055,7 @@
         <v>46</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4044,7 +4081,7 @@
         <v>46</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4070,7 +4107,7 @@
         <v>46</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4096,7 +4133,7 @@
         <v>46</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4122,7 +4159,7 @@
         <v>46</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4148,21 +4185,21 @@
         <v>46</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E88" s="9">
         <v>0</v>
@@ -4174,21 +4211,21 @@
         <v>46</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C89" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D89" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>295</v>
       </c>
       <c r="E89" s="9">
         <v>0</v>
@@ -4200,21 +4237,21 @@
         <v>46</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D90" s="8" t="s">
         <v>292</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>294</v>
       </c>
       <c r="E90" s="9">
         <v>0</v>
@@ -4226,7 +4263,7 @@
         <v>46</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4252,7 +4289,7 @@
         <v>46</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4264,7 +4301,7 @@
         <v>71</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E92" s="9">
         <v>0</v>
@@ -4276,7 +4313,7 @@
         <v>46</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4300,7 +4337,7 @@
         <v>46</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4314,7 +4351,7 @@
         <v>59</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E94" s="9">
         <v>0</v>
@@ -4326,7 +4363,7 @@
         <v>46</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4340,7 +4377,7 @@
         <v>62</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E95" s="9">
         <v>0</v>
@@ -4352,7 +4389,7 @@
         <v>46</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4360,13 +4397,13 @@
         <v>17</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E96" s="9">
         <v>0</v>
@@ -4378,7 +4415,7 @@
         <v>46</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4404,7 +4441,7 @@
         <v>46</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4430,7 +4467,7 @@
         <v>46</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4456,7 +4493,7 @@
         <v>46</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4482,7 +4519,7 @@
         <v>46</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4508,7 +4545,7 @@
         <v>46</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4534,7 +4571,7 @@
         <v>46</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4558,7 +4595,7 @@
         <v>46</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4584,7 +4621,7 @@
         <v>46</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4610,7 +4647,7 @@
         <v>46</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4636,7 +4673,7 @@
         <v>46</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4662,7 +4699,7 @@
         <v>46</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4686,7 +4723,7 @@
         <v>46</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4712,7 +4749,7 @@
         <v>46</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4738,21 +4775,21 @@
         <v>46</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E111" s="1">
         <v>0</v>
@@ -4760,19 +4797,19 @@
       <c r="F111" s="3"/>
       <c r="G111" s="4"/>
       <c r="H111" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E112" s="1">
         <v>0</v>
@@ -4780,339 +4817,363 @@
       <c r="F112" s="3"/>
       <c r="G112" s="4"/>
       <c r="H112" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B113" s="3"/>
-      <c r="C113" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="E113" s="1">
-        <v>2</v>
-      </c>
-      <c r="F113" s="3"/>
-      <c r="G113" s="4">
-        <v>12</v>
+      <c r="A113" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E113" s="9">
+        <v>1</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G113" s="10">
+        <v>28</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>312</v>
+        <v>380</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E114" s="9">
+        <v>1</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G114" s="10">
+        <v>28</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="B114" s="3"/>
-      <c r="C114" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="E114" s="1">
-        <v>2</v>
-      </c>
-      <c r="F114" s="3"/>
-      <c r="G114" s="4">
-        <v>19</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
-        <v>358</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="5" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>315</v>
+        <v>395</v>
       </c>
       <c r="E115" s="1">
-        <v>2</v>
-      </c>
-      <c r="F115" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>394</v>
+      </c>
       <c r="G115" s="4">
         <v>19</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>312</v>
+        <v>144</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B116" s="3"/>
+        <v>367</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>366</v>
+      </c>
       <c r="C116" s="5" t="s">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>314</v>
+        <v>415</v>
       </c>
       <c r="E116" s="1">
-        <v>2</v>
-      </c>
-      <c r="F116" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>416</v>
+      </c>
       <c r="G116" s="4">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>342</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
+        <v>417</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="5" t="s">
-        <v>344</v>
+        <v>418</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>343</v>
+        <v>419</v>
       </c>
       <c r="E117" s="1">
-        <v>0</v>
-      </c>
-      <c r="F117" s="3"/>
-      <c r="G117" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G117" s="4">
+        <v>15</v>
+      </c>
       <c r="H117" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>305</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="B118" s="3"/>
       <c r="C118" s="5" t="s">
-        <v>307</v>
+        <v>378</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>308</v>
+        <v>411</v>
       </c>
       <c r="E118" s="1">
-        <v>0</v>
-      </c>
-      <c r="F118" s="3"/>
-      <c r="G118" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="G118" s="4">
+        <v>16</v>
+      </c>
       <c r="H118" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>107</v>
+      <c r="A119" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B119" s="3"/>
+      <c r="C119" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="E119" s="9">
-        <v>0</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G119" s="10">
-        <v>46</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0</v>
+      </c>
+      <c r="F119" s="3"/>
+      <c r="G119" s="4"/>
       <c r="H119" s="3" t="s">
-        <v>389</v>
+        <v>264</v>
       </c>
     </row>
     <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
+      <c r="F120" s="3"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C120" s="7" t="s">
+      <c r="B121" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C121" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D120" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E120" s="9">
-        <v>0</v>
-      </c>
-      <c r="F120" s="3" t="s">
+      <c r="D121" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E121" s="9">
+        <v>0</v>
+      </c>
+      <c r="F121" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G120" s="10">
+      <c r="G121" s="10">
         <v>46</v>
       </c>
-      <c r="H120" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="B121" s="3"/>
-      <c r="C121" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="E121" s="1">
-        <v>1</v>
-      </c>
-      <c r="F121" s="3"/>
-      <c r="G121" s="4">
-        <v>16</v>
-      </c>
       <c r="H121" s="3" t="s">
-        <v>304</v>
+        <v>379</v>
       </c>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>285</v>
+        <v>192</v>
       </c>
       <c r="E122" s="9">
         <v>0</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G122" s="10">
         <v>46</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>375</v>
-      </c>
+      <c r="A123" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B123" s="3"/>
       <c r="C123" s="5" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="E123" s="1">
-        <v>1</v>
-      </c>
-      <c r="F123" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>406</v>
+      </c>
       <c r="G123" s="4">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>144</v>
+        <v>302</v>
       </c>
     </row>
     <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>354</v>
+        <v>173</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>353</v>
+        <v>174</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="E124" s="1">
-        <v>0</v>
-      </c>
-      <c r="F124" s="3"/>
-      <c r="G124" s="4">
+        <v>283</v>
+      </c>
+      <c r="E124" s="9">
+        <v>0</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G124" s="10">
+        <v>46</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B125" s="3"/>
+      <c r="C125" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="E125" s="1">
+        <v>1</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="G125" s="4">
+        <v>28</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+      <c r="F126" s="3"/>
+      <c r="G126" s="4">
         <v>59</v>
       </c>
-      <c r="H124" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="E125" s="1">
-        <v>0</v>
-      </c>
-      <c r="F125" s="3"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B126" s="3"/>
-      <c r="C126" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="E126" s="1">
-        <v>0</v>
-      </c>
-      <c r="F126" s="3"/>
-      <c r="G126" s="4"/>
       <c r="H126" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="B127" s="3"/>
+        <v>318</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>316</v>
+      </c>
       <c r="C127" s="5" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="E127" s="1">
         <v>0</v>
@@ -5124,240 +5185,244 @@
       </c>
     </row>
     <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>366</v>
-      </c>
+      <c r="A128" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B128" s="3"/>
       <c r="C128" s="5" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="E128" s="1">
         <v>0</v>
       </c>
-      <c r="F128" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="G128" s="4">
+      <c r="F128" s="3"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B129" s="3"/>
+      <c r="C129" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
+      <c r="F129" s="3"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G130" s="4">
         <v>22</v>
       </c>
-      <c r="H128" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="E129" s="1">
-        <v>1</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="G129" s="4">
-        <v>29</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="B130" s="3"/>
-      <c r="C130" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="E130" s="1">
-        <v>1</v>
-      </c>
-      <c r="F130" s="3"/>
-      <c r="G130" s="4">
-        <v>19</v>
-      </c>
       <c r="H130" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="B131" s="3"/>
+      <c r="A131" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="B131" s="14"/>
       <c r="C131" s="5" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="E131" s="1">
         <v>1</v>
       </c>
-      <c r="F131" s="3"/>
+      <c r="F131" s="3" t="s">
+        <v>405</v>
+      </c>
       <c r="G131" s="4">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="E132" s="1">
+        <v>1</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G132" s="4">
+        <v>28</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B133" s="3"/>
+      <c r="C133" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D133" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="B132" s="3"/>
-      <c r="C132" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="E132" s="1">
-        <v>0</v>
-      </c>
-      <c r="F132" s="3"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>404</v>
-      </c>
       <c r="E133" s="1">
-        <v>1</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F133" s="3"/>
       <c r="G133" s="4"/>
       <c r="H133" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>335</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
+        <v>374</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1</v>
+      </c>
+      <c r="F134" s="3"/>
+      <c r="G134" s="4">
+        <v>19</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="E134" s="1">
-        <v>0</v>
-      </c>
-      <c r="F134" s="3"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
-        <v>359</v>
       </c>
       <c r="B135" s="3"/>
       <c r="C135" s="5" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="E135" s="1">
         <v>0</v>
       </c>
       <c r="F135" s="3"/>
-      <c r="G135" s="4">
-        <v>28</v>
-      </c>
+      <c r="G135" s="4"/>
       <c r="H135" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
-        <v>380</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
+        <v>353</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="5" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
       <c r="E136" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F136" s="3"/>
       <c r="G136" s="4">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>337</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
+        <v>373</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="5" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="E137" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" s="3"/>
-      <c r="G137" s="4"/>
+      <c r="G137" s="4">
+        <v>19</v>
+      </c>
       <c r="H137" s="3" t="s">
-        <v>144</v>
+        <v>264</v>
       </c>
     </row>
     <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="8"/>
+      <c r="A138" s="3" t="s">
+        <v>332</v>
+      </c>
       <c r="B138" s="3"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="8"/>
+      <c r="C138" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>333</v>
+      </c>
       <c r="E138" s="1">
         <v>0</v>
       </c>
       <c r="F138" s="3"/>
       <c r="G138" s="4"/>
-      <c r="H138" s="3"/>
+      <c r="H138" s="3" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
@@ -5891,7 +5956,7 @@
       <c r="A183" s="8"/>
       <c r="B183" s="3"/>
       <c r="C183" s="5"/>
-      <c r="D183" s="3"/>
+      <c r="D183" s="8"/>
       <c r="E183" s="1">
         <v>0</v>
       </c>
@@ -7412,7 +7477,7 @@
       <c r="H309" s="3"/>
     </row>
     <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="3"/>
+      <c r="A310" s="8"/>
       <c r="B310" s="3"/>
       <c r="C310" s="5"/>
       <c r="D310" s="3"/>
@@ -31411,53 +31476,148 @@
       <c r="G2309" s="4"/>
       <c r="H2309" s="3"/>
     </row>
-    <row r="2310" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2310" s="8"/>
+    <row r="2310" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2310" s="3"/>
       <c r="B2310" s="3"/>
       <c r="C2310" s="5"/>
-      <c r="D2310" s="8"/>
-      <c r="E2310" s="1"/>
+      <c r="D2310" s="3"/>
+      <c r="E2310" s="1">
+        <v>0</v>
+      </c>
       <c r="F2310" s="3"/>
-      <c r="G2310" s="10">
-        <v>0</v>
-      </c>
-      <c r="H2310" s="3" t="s">
+      <c r="G2310" s="4"/>
+      <c r="H2310" s="3"/>
+    </row>
+    <row r="2311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2311" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2311" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2311" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2311" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2311" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2311" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="G2311" s="4">
+        <v>29</v>
+      </c>
+      <c r="H2311" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2311" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2311" s="8"/>
-      <c r="B2311" s="3"/>
-      <c r="C2311" s="5"/>
-      <c r="D2311" s="8"/>
-      <c r="E2311" s="1"/>
-      <c r="F2311" s="3"/>
-      <c r="G2311" s="10">
-        <v>0</v>
-      </c>
-      <c r="H2311" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
     <row r="2312" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2312" s="8"/>
-      <c r="B2312" s="3"/>
-      <c r="C2312" s="5"/>
-      <c r="D2312" s="8"/>
-      <c r="E2312" s="1"/>
-      <c r="F2312" s="3"/>
-      <c r="G2312" s="10">
-        <v>0</v>
+      <c r="A2312" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2312" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2312" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2312" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="E2312" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2312" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="G2312" s="4">
+        <v>40</v>
       </c>
       <c r="H2312" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2313" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F2313" s="3"/>
+      <c r="A2313" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2313" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2313" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2313" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2313" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2313" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2313" s="10">
+        <v>37</v>
+      </c>
+      <c r="H2313" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2314" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2314" s="3"/>
+      <c r="C2314" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2314" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E2314" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2314" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2314" s="10">
+        <v>37</v>
+      </c>
+      <c r="H2314" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2315" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2315" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2315" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2315" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2315" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2315" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2315" s="10">
+        <v>37</v>
+      </c>
+      <c r="H2315" s="3" t="s">
+        <v>379</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E2312">
+  <conditionalFormatting sqref="E2:E2315">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/proali.xlsx
+++ b/proali.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos PY\py_deltron\Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60DC1AA-C07F-43BB-A387-726B1578D2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4577CABA-C2D8-437A-9C02-BB544639A516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1661,7 +1661,7 @@
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A71:H2315">
-    <sortCondition ref="H1:H2315"/>
+    <sortCondition ref="G1:G2315"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="6" xr3:uid="{D349EDB8-1023-498A-8D26-F168360F9742}" name="FOTO" dataDxfId="10"/>
@@ -3786,26 +3786,26 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="5" t="s">
-        <v>311</v>
+        <v>418</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="E72" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>399</v>
+        <v>28</v>
       </c>
       <c r="G72" s="4">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>310</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3888,74 +3888,74 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="5" t="s">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="E76" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="G76" s="4">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
-        <v>351</v>
+      <c r="A77" s="3" t="s">
+        <v>370</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="5" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="E77" s="1">
         <v>2</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="G77" s="4">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="B78" s="3"/>
-      <c r="C78" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E78" s="9">
-        <v>1</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" s="10">
-        <v>28</v>
+      <c r="C78" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="E78" s="1">
+        <v>2</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G78" s="4">
+        <v>19</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>380</v>
+        <v>310</v>
       </c>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4822,54 +4822,50 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="E113" s="9">
-        <v>1</v>
+        <v>352</v>
+      </c>
+      <c r="B113" s="3"/>
+      <c r="C113" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="E113" s="1">
+        <v>2</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G113" s="10">
-        <v>28</v>
+        <v>399</v>
+      </c>
+      <c r="G113" s="4">
+        <v>19</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>380</v>
+        <v>310</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E114" s="9">
-        <v>1</v>
+        <v>351</v>
+      </c>
+      <c r="B114" s="3"/>
+      <c r="C114" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="E114" s="1">
+        <v>2</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G114" s="10">
-        <v>28</v>
+        <v>399</v>
+      </c>
+      <c r="G114" s="4">
+        <v>19</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>380</v>
+        <v>310</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -4898,76 +4894,70 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>366</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="B116" s="3"/>
       <c r="C116" s="5" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="E116" s="1">
         <v>1</v>
       </c>
-      <c r="F116" s="3" t="s">
-        <v>416</v>
-      </c>
+      <c r="F116" s="3"/>
       <c r="G116" s="4">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>144</v>
+        <v>264</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>417</v>
+        <v>373</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="5" t="s">
-        <v>418</v>
+        <v>371</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="E117" s="1">
         <v>1</v>
       </c>
-      <c r="F117" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="F117" s="3"/>
       <c r="G117" s="4">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>144</v>
+        <v>264</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>377</v>
+        <v>76</v>
       </c>
       <c r="B118" s="3"/>
-      <c r="C118" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="E118" s="1">
+      <c r="C118" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E118" s="9">
         <v>1</v>
       </c>
-      <c r="F118" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="G118" s="4">
-        <v>16</v>
+      <c r="F118" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G118" s="10">
+        <v>28</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>302</v>
+        <v>380</v>
       </c>
     </row>
     <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -5065,27 +5055,29 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="B123" s="3"/>
-      <c r="C123" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="E123" s="1">
-        <v>2</v>
+      <c r="A123" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E123" s="9">
+        <v>1</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="G123" s="4">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="G123" s="10">
+        <v>28</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>302</v>
+        <v>380</v>
       </c>
     </row>
     <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -5116,26 +5108,28 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="E125" s="1">
+        <v>198</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E125" s="9">
         <v>1</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="G125" s="4">
+        <v>44</v>
+      </c>
+      <c r="G125" s="10">
         <v>28</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>302</v>
+        <v>380</v>
       </c>
     </row>
     <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -5251,21 +5245,21 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="B131" s="14"/>
+      <c r="A131" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B131" s="3"/>
       <c r="C131" s="5" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E131" s="1">
         <v>1</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G131" s="4">
         <v>28</v>
@@ -5276,14 +5270,14 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B132" s="14"/>
       <c r="C132" s="5" t="s">
         <v>410</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E132" s="1">
         <v>1</v>
@@ -5319,25 +5313,27 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="B134" s="3"/>
+      <c r="A134" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="B134" s="14"/>
       <c r="C134" s="5" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="E134" s="1">
         <v>1</v>
       </c>
-      <c r="F134" s="3"/>
+      <c r="F134" s="3" t="s">
+        <v>405</v>
+      </c>
       <c r="G134" s="4">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
     </row>
     <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -5384,21 +5380,25 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="B137" s="3"/>
+        <v>364</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>362</v>
+      </c>
       <c r="C137" s="5" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="E137" s="1">
         <v>1</v>
       </c>
-      <c r="F137" s="3"/>
+      <c r="F137" s="3" t="s">
+        <v>365</v>
+      </c>
       <c r="G137" s="4">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H137" s="3" t="s">
         <v>264</v>
@@ -31490,74 +31490,72 @@
     </row>
     <row r="2311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2311" s="8" t="s">
-        <v>364</v>
+        <v>53</v>
       </c>
       <c r="B2311" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C2311" s="5" t="s">
-        <v>363</v>
+        <v>228</v>
+      </c>
+      <c r="C2311" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="D2311" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="E2311" s="1">
+        <v>229</v>
+      </c>
+      <c r="E2311" s="9">
         <v>1</v>
       </c>
-      <c r="F2311" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="G2311" s="4">
-        <v>29</v>
+      <c r="F2311" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2311" s="10">
+        <v>37</v>
       </c>
       <c r="H2311" s="3" t="s">
-        <v>264</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2312" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2312" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B2312" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C2312" s="5" t="s">
-        <v>323</v>
+      <c r="A2312" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2312" s="3"/>
+      <c r="C2312" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="D2312" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="E2312" s="1">
+        <v>276</v>
+      </c>
+      <c r="E2312" s="9">
         <v>1</v>
       </c>
-      <c r="F2312" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="G2312" s="4">
-        <v>40</v>
+      <c r="F2312" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2312" s="10">
+        <v>37</v>
       </c>
       <c r="H2312" s="3" t="s">
-        <v>264</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2313" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2313" s="3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C2313" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D2313" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E2313" s="9">
         <v>1</v>
       </c>
       <c r="F2313" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2313" s="10">
         <v>37</v>
@@ -31567,53 +31565,55 @@
       </c>
     </row>
     <row r="2314" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2314" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2314" s="3"/>
-      <c r="C2314" s="7" t="s">
-        <v>52</v>
+      <c r="A2314" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2314" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2314" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="D2314" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="E2314" s="9">
+        <v>393</v>
+      </c>
+      <c r="E2314" s="1">
         <v>1</v>
       </c>
-      <c r="F2314" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2314" s="10">
-        <v>37</v>
+      <c r="F2314" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="G2314" s="4">
+        <v>40</v>
       </c>
       <c r="H2314" s="3" t="s">
-        <v>379</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2315" s="8" t="s">
-        <v>54</v>
+        <v>367</v>
       </c>
       <c r="B2315" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2315" s="7" t="s">
-        <v>55</v>
+        <v>366</v>
+      </c>
+      <c r="C2315" s="5" t="s">
+        <v>368</v>
       </c>
       <c r="D2315" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E2315" s="9">
+        <v>415</v>
+      </c>
+      <c r="E2315" s="1">
         <v>1</v>
       </c>
-      <c r="F2315" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2315" s="10">
-        <v>37</v>
+      <c r="F2315" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="G2315" s="4">
+        <v>50</v>
       </c>
       <c r="H2315" s="3" t="s">
-        <v>379</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/proali.xlsx
+++ b/proali.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos PY\py_deltron\Online\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\mi-tienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4577CABA-C2D8-437A-9C02-BB544639A516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F07FAD-BA39-41B2-8125-046098CCB850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,12 +50,6 @@
     <t>KT5419</t>
   </si>
   <si>
-    <t>FOTO</t>
-  </si>
-  <si>
-    <t>VIDEO</t>
-  </si>
-  <si>
     <t>https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg</t>
   </si>
   <si>
@@ -1293,6 +1287,12 @@
   </si>
   <si>
     <t>Beetle Classic</t>
+  </si>
+  <si>
+    <t>MODAL</t>
+  </si>
+  <si>
+    <t>IMAGEN</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1417,34 +1417,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1651,27 +1628,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:H2315" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:H2315" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
   <autoFilter ref="A1:H2315" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
     <filterColumn colId="4">
-      <filters>
+      <filters blank="1">
         <filter val="01"/>
         <filter val="02"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A71:H2315">
-    <sortCondition ref="G1:G2315"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H2315">
+    <sortCondition ref="D1:D2315"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="6" xr3:uid="{D349EDB8-1023-498A-8D26-F168360F9742}" name="FOTO" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{27800D88-F905-4A3C-90B5-3205899E52F5}" name="VIDEO" dataDxfId="9"/>
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{9228A578-C29A-4A98-B2E0-DD3E2C05AAD3}" name="CATEGORIA" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{D349EDB8-1023-498A-8D26-F168360F9742}" name="IMAGEN" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{27800D88-F905-4A3C-90B5-3205899E52F5}" name="MODAL" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{9228A578-C29A-4A98-B2E0-DD3E2C05AAD3}" name="CATEGORIA" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1967,7 +1944,7 @@
   <dimension ref="A1:H2315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G134" sqref="G134"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1984,10 +1961,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>419</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>418</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2002,154 +1979,152 @@
         <v>3</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>147</v>
+        <v>226</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>149</v>
+      <c r="D2" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="E2" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="G2" s="10">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>147</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>148</v>
+      <c r="D3" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="E3" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="G3" s="10">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>51</v>
+        <v>365</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="G4" s="4">
         <v>50</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>380</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>146</v>
+        <v>65</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="E5" s="9">
         <v>0</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G5" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>25</v>
+        <v>65</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>257</v>
       </c>
       <c r="E6" s="9">
         <v>0</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="10">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>134</v>
+        <v>253</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>132</v>
+        <v>65</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="E7" s="9">
         <v>0</v>
@@ -2158,24 +2133,24 @@
         <v>21</v>
       </c>
       <c r="G7" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>129</v>
+        <v>254</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>133</v>
+        <v>65</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="E8" s="9">
         <v>0</v>
@@ -2184,876 +2159,880 @@
         <v>21</v>
       </c>
       <c r="G8" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>103</v>
+        <v>28</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="E9" s="9">
         <v>0</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G9" s="10">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="E10" s="9">
         <v>0</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G10" s="10">
         <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E11" s="9">
         <v>0</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G11" s="10">
         <v>0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E12" s="9">
         <v>0</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G12" s="10">
         <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E13" s="9">
         <v>0</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G13" s="10">
         <v>0</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>159</v>
+        <v>230</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>160</v>
+        <v>53</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="E14" s="9">
         <v>0</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G14" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>389</v>
+        <v>236</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>388</v>
+        <v>53</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="E15" s="9">
         <v>0</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G15" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>386</v>
+        <v>234</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>387</v>
+        <v>53</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="E16" s="9">
         <v>0</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G16" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>384</v>
+        <v>232</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>385</v>
+        <v>53</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="E17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G17" s="10">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>381</v>
+        <v>22</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>382</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>390</v>
+        <v>20</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>383</v>
+        <v>23</v>
       </c>
       <c r="E18" s="9">
         <v>0</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G18" s="10">
         <v>0</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>281</v>
+        <v>132</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>282</v>
+        <v>130</v>
       </c>
       <c r="E19" s="9">
         <v>0</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G19" s="10">
         <v>0</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="E20" s="9">
         <v>0</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G20" s="10">
         <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="E21" s="9">
         <v>0</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G21" s="10">
         <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="E22" s="9">
         <v>0</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G22" s="10">
         <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>267</v>
+        <v>151</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>270</v>
+        <v>153</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>271</v>
+        <v>93</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="E23" s="9">
         <v>0</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>266</v>
+        <v>26</v>
       </c>
       <c r="G23" s="10">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>267</v>
+        <v>151</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>272</v>
+        <v>156</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>273</v>
+        <v>93</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="E24" s="9">
         <v>0</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>266</v>
+        <v>26</v>
       </c>
       <c r="G24" s="10">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>267</v>
+        <v>151</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>269</v>
+        <v>150</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>268</v>
+        <v>93</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="E25" s="9">
         <v>0</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>266</v>
+        <v>26</v>
       </c>
       <c r="G25" s="10">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>267</v>
+        <v>151</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>274</v>
+        <v>157</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>275</v>
+        <v>93</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="E26" s="9">
         <v>0</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>266</v>
+        <v>26</v>
       </c>
       <c r="G26" s="10">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B27" s="3"/>
+        <v>379</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>387</v>
+      </c>
       <c r="C27" s="7" t="s">
-        <v>97</v>
+        <v>388</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="E27" s="9">
         <v>0</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G27" s="10">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>73</v>
+        <v>379</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>246</v>
+        <v>384</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>74</v>
+        <v>388</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>247</v>
+        <v>385</v>
       </c>
       <c r="E28" s="9">
         <v>0</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G28" s="10">
         <v>0</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>73</v>
+        <v>379</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>250</v>
+        <v>382</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>74</v>
+        <v>388</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>251</v>
+        <v>383</v>
       </c>
       <c r="E29" s="9">
         <v>0</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G29" s="10">
         <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>73</v>
+        <v>379</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>248</v>
+        <v>380</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>74</v>
+        <v>388</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>249</v>
+        <v>381</v>
       </c>
       <c r="E30" s="9">
         <v>0</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G30" s="10">
         <v>0</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B31" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>279</v>
+      </c>
       <c r="C31" s="7" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="E31" s="9">
         <v>0</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G31" s="10">
         <v>0</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="C32" s="7" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="E32" s="9">
         <v>0</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G32" s="10">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>285</v>
+        <v>39</v>
       </c>
       <c r="E33" s="9">
         <v>0</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G33" s="10">
         <v>0</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="E34" s="9">
         <v>0</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G34" s="10">
         <v>0</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="E35" s="9">
         <v>0</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G35" s="10">
         <v>0</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>113</v>
+        <v>265</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>114</v>
+        <v>268</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>88</v>
+        <v>263</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>115</v>
+        <v>269</v>
       </c>
       <c r="E36" s="9">
         <v>0</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="G36" s="10">
         <v>0</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>113</v>
+        <v>265</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>117</v>
+        <v>270</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>88</v>
+        <v>263</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>118</v>
+        <v>271</v>
       </c>
       <c r="E37" s="9">
         <v>0</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="G37" s="10">
         <v>0</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>7</v>
+        <v>265</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>8</v>
+        <v>267</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>4</v>
+        <v>263</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="E38" s="9">
         <v>0</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="G38" s="10">
         <v>0</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>124</v>
+        <v>265</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>4</v>
+        <v>263</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>112</v>
+        <v>273</v>
       </c>
       <c r="E39" s="9">
         <v>0</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="G39" s="10">
         <v>0</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>12</v>
+        <v>214</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>13</v>
+        <v>104</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="E40" s="9">
         <v>0</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G40" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>123</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B41" s="3"/>
       <c r="C41" s="7" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="E41" s="9">
         <v>0</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G41" s="10">
         <v>0</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>125</v>
+        <v>244</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>10</v>
+        <v>245</v>
       </c>
       <c r="E42" s="9">
         <v>0</v>
@@ -3065,68 +3044,70 @@
         <v>0</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>248</v>
+      </c>
       <c r="C43" s="7" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>46</v>
+        <v>249</v>
       </c>
       <c r="E43" s="9">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>44</v>
+      <c r="F43" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="G43" s="10">
         <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>85</v>
+        <v>246</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E44" s="9">
         <v>0</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>20</v>
+      <c r="F44" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="G44" s="10">
         <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>85</v>
+        <v>243</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>242</v>
@@ -3134,2286 +3115,2326 @@
       <c r="E45" s="9">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>20</v>
+      <c r="F45" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="G45" s="10">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>83</v>
+        <v>288</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>263</v>
+        <v>294</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>295</v>
       </c>
       <c r="E46" s="9">
         <v>0</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G46" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>87</v>
+        <v>288</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>142</v>
+        <v>293</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>291</v>
       </c>
       <c r="E47" s="9">
         <v>0</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G47" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>87</v>
+        <v>288</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>137</v>
+        <v>292</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>290</v>
       </c>
       <c r="E48" s="9">
         <v>0</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G48" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>86</v>
+        <v>173</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="E49" s="9">
         <v>0</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>44</v>
+      <c r="F49" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G49" s="10">
         <v>0</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>136</v>
+        <v>175</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="E50" s="9">
         <v>0</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>44</v>
+      <c r="F50" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G50" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>171</v>
+        <v>70</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>105</v>
+        <v>69</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="E51" s="9">
         <v>0</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>44</v>
+      <c r="F51" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="G51" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c r="E52" s="9">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>44</v>
+      <c r="F52" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G52" s="10">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>182</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B53" s="3"/>
       <c r="C53" s="7" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>183</v>
+        <v>275</v>
       </c>
       <c r="E53" s="9">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>44</v>
+        <v>1</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G53" s="10">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>184</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B54" s="3"/>
       <c r="C54" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>185</v>
+        <v>63</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="E54" s="9">
         <v>0</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>44</v>
+      <c r="F54" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G54" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>179</v>
+        <v>58</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>181</v>
+        <v>57</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>277</v>
       </c>
       <c r="E55" s="9">
         <v>0</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>44</v>
+      <c r="F55" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G55" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>188</v>
+        <v>56</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="7" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="E56" s="9">
         <v>0</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>48</v>
+      <c r="F56" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G56" s="10">
         <v>0</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>217</v>
+        <v>61</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>220</v>
+        <v>60</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="E57" s="9">
         <v>0</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>44</v>
+      <c r="F57" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="G57" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>218</v>
+        <v>282</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="E58" s="9">
         <v>0</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>44</v>
+      <c r="F58" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="G58" s="10">
         <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>217</v>
+        <v>307</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="E59" s="9">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G59" s="10">
-        <v>0</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="4"/>
       <c r="H59" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E60" s="9">
-        <v>0</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G60" s="10">
-        <v>0</v>
+        <v>396</v>
+      </c>
+      <c r="G60" s="4">
+        <v>12</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>380</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="E61" s="9">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G61" s="10">
-        <v>0</v>
-      </c>
+      <c r="A61" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="4"/>
       <c r="H61" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="E62" s="9">
-        <v>0</v>
+        <v>348</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="E62" s="1">
+        <v>2</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G62" s="10">
-        <v>0</v>
+        <v>397</v>
+      </c>
+      <c r="G62" s="4">
+        <v>19</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="E63" s="9">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G63" s="10">
-        <v>0</v>
+        <v>397</v>
+      </c>
+      <c r="G63" s="4">
+        <v>19</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="E64" s="9">
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G64" s="10">
-        <v>0</v>
+        <v>397</v>
+      </c>
+      <c r="G64" s="4">
+        <v>19</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>415</v>
+      </c>
       <c r="B65" s="3"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="10">
-        <v>0</v>
-      </c>
-      <c r="H65" s="3"/>
+      <c r="C65" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="4">
+        <v>15</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>27</v>
+        <v>117</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="E66" s="9">
         <v>0</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G66" s="10">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="E67" s="9">
         <v>0</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G67" s="10">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>245</v>
+        <v>112</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>244</v>
+        <v>113</v>
       </c>
       <c r="E68" s="9">
         <v>0</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G68" s="10">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="5" t="s">
-        <v>49</v>
+        <v>111</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>391</v>
+        <v>116</v>
       </c>
       <c r="E69" s="9">
         <v>0</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>48</v>
+      <c r="F69" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="G69" s="10">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="3"/>
+      <c r="A70" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E70" s="9">
+        <v>0</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="G70" s="10">
         <v>0</v>
       </c>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="E71" s="1">
-        <v>2</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="G71" s="4">
-        <v>12</v>
+      <c r="H70" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E71" s="9">
+        <v>0</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="10">
+        <v>0</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="E72" s="1">
-        <v>1</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G72" s="4">
-        <v>15</v>
+        <v>120</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="9">
+        <v>0</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" s="10">
+        <v>0</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>144</v>
+        <v>378</v>
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>261</v>
+        <v>121</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>260</v>
+        <v>9</v>
       </c>
       <c r="E73" s="9">
         <v>0</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G73" s="10">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>198</v>
+        <v>5</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>202</v>
+        <v>123</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>201</v>
+        <v>8</v>
       </c>
       <c r="E74" s="9">
         <v>0</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>44</v>
+      <c r="F74" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G74" s="10">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>67</v>
+      <c r="A75" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="E75" s="9">
-        <v>0</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" s="10">
-        <v>37</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3"/>
+      <c r="G75" s="4"/>
       <c r="H75" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="4">
+        <v>40</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E77" s="9">
+        <v>0</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" s="10">
+        <v>46</v>
+      </c>
+      <c r="H77" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="E76" s="1">
-        <v>1</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="G76" s="4">
-        <v>16</v>
-      </c>
-      <c r="H76" s="3" t="s">
+    </row>
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="9">
+        <v>0</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="10">
+        <v>46</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="E77" s="1">
-        <v>2</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="G77" s="4">
-        <v>16</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="E78" s="1">
-        <v>2</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="G78" s="4">
-        <v>19</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>334</v>
+      <c r="B79" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="E79" s="1">
         <v>0</v>
       </c>
       <c r="F79" s="3"/>
-      <c r="G79" s="4">
-        <v>39</v>
-      </c>
+      <c r="G79" s="4"/>
       <c r="H79" s="3" t="s">
-        <v>144</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="E80" s="1">
-        <v>0</v>
-      </c>
-      <c r="F80" s="3"/>
-      <c r="G80" s="4">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E80" s="9">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G80" s="10">
+        <v>0</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>144</v>
+        <v>378</v>
       </c>
     </row>
     <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>68</v>
+        <v>346</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>67</v>
+        <v>344</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>345</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E81" s="9">
-        <v>0</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" s="10">
-        <v>46</v>
+        <v>347</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3"/>
+      <c r="G81" s="4">
+        <v>59</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>379</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>254</v>
+        <v>45</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>389</v>
       </c>
       <c r="E82" s="9">
         <v>0</v>
       </c>
-      <c r="F82" s="8" t="s">
-        <v>23</v>
+      <c r="F82" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="G82" s="10">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>68</v>
+        <v>356</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>67</v>
+        <v>355</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>359</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E83" s="9">
-        <v>0</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G83" s="10">
-        <v>46</v>
+        <v>357</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G83" s="4">
+        <v>22</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>54</v>
+        <v>362</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>55</v>
+        <v>360</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>361</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E84" s="9">
-        <v>0</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" s="10">
-        <v>46</v>
+        <v>390</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G84" s="4">
+        <v>29</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>55</v>
+        <v>372</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="5" t="s">
+        <v>370</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E85" s="9">
-        <v>0</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" s="10">
-        <v>46</v>
+        <v>374</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+      <c r="F85" s="3"/>
+      <c r="G85" s="4">
+        <v>19</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>55</v>
+        <v>371</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E86" s="9">
-        <v>0</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" s="10">
-        <v>46</v>
+        <v>373</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86" s="3"/>
+      <c r="G86" s="4">
+        <v>19</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>106</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>321</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E87" s="9">
-        <v>0</v>
-      </c>
-      <c r="F87" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="G87" s="4">
+        <v>40</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="E88" s="1">
+        <v>2</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="G88" s="4">
+        <v>16</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G89" s="4">
         <v>28</v>
       </c>
-      <c r="G87" s="10">
-        <v>46</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="E88" s="9">
-        <v>0</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G88" s="10">
-        <v>46</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="E89" s="9">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G89" s="10">
-        <v>46</v>
-      </c>
       <c r="H89" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>291</v>
+        <v>375</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="5" t="s">
+        <v>376</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E90" s="9">
-        <v>0</v>
+        <v>409</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G90" s="10">
-        <v>46</v>
+        <v>404</v>
+      </c>
+      <c r="G90" s="4">
+        <v>16</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>101</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E91" s="9">
-        <v>0</v>
-      </c>
-      <c r="F91" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G91" s="4">
         <v>28</v>
       </c>
-      <c r="G91" s="10">
-        <v>46</v>
-      </c>
       <c r="H91" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>72</v>
+        <v>402</v>
       </c>
       <c r="B92" s="3"/>
-      <c r="C92" s="7" t="s">
-        <v>71</v>
+      <c r="C92" s="5" t="s">
+        <v>401</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E92" s="9">
-        <v>0</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" s="10">
-        <v>46</v>
+        <v>405</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="G92" s="4">
+        <v>28</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>379</v>
+        <v>300</v>
       </c>
     </row>
     <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B93" s="3"/>
+        <v>203</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="C93" s="7" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="E93" s="9">
         <v>0</v>
       </c>
-      <c r="F93" s="8" t="s">
-        <v>21</v>
+      <c r="F93" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="G93" s="10">
         <v>46</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>60</v>
+        <v>203</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>279</v>
+        <v>207</v>
       </c>
       <c r="E94" s="9">
         <v>0</v>
       </c>
-      <c r="F94" s="8" t="s">
-        <v>21</v>
+      <c r="F94" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="G94" s="10">
         <v>46</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>280</v>
+        <v>209</v>
       </c>
       <c r="E95" s="9">
         <v>0</v>
       </c>
-      <c r="F95" s="8" t="s">
-        <v>61</v>
+      <c r="F95" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="G95" s="10">
         <v>46</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>287</v>
+        <v>210</v>
       </c>
       <c r="C96" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E96" s="9">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="E96" s="9">
-        <v>0</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="G96" s="10">
         <v>46</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>16</v>
+        <v>351</v>
+      </c>
+      <c r="B97" s="3"/>
+      <c r="C97" s="5" t="s">
+        <v>343</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" s="9">
-        <v>0</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" s="10">
-        <v>46</v>
+        <v>352</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="4">
+        <v>28</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>379</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>89</v>
+        <v>228</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="E98" s="9">
         <v>0</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G98" s="10">
         <v>46</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>209</v>
+        <v>239</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>241</v>
       </c>
       <c r="E99" s="9">
         <v>0</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G99" s="10">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>211</v>
+        <v>238</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="E100" s="9">
         <v>0</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G100" s="10">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>213</v>
+        <v>260</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>261</v>
       </c>
       <c r="E101" s="9">
         <v>0</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G101" s="10">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>230</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B102" s="3"/>
       <c r="C102" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>231</v>
+        <v>75</v>
       </c>
       <c r="E102" s="9">
         <v>0</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G102" s="10">
         <v>46</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>77</v>
+        <v>85</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="E103" s="9">
         <v>0</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G103" s="10">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>168</v>
+        <v>136</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="E104" s="9">
         <v>0</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G104" s="10">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>163</v>
+        <v>137</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="E105" s="9">
         <v>0</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G105" s="10">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>165</v>
+        <v>133</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="E106" s="9">
         <v>0</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G106" s="10">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>91</v>
+      <c r="A107" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>315</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E107" s="9">
-        <v>0</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G107" s="10">
-        <v>46</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
+      <c r="F107" s="3"/>
+      <c r="G107" s="4"/>
       <c r="H107" s="3" t="s">
-        <v>379</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B108" s="3"/>
+        <v>160</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="C108" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="E108" s="9">
         <v>0</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G108" s="10">
         <v>46</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="E109" s="9">
         <v>0</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G109" s="10">
         <v>46</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="E110" s="9">
         <v>0</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G110" s="10">
         <v>46</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>309</v>
+        <v>160</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>312</v>
+        <v>168</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="E111" s="1">
-        <v>0</v>
-      </c>
-      <c r="F111" s="3"/>
-      <c r="G111" s="4"/>
+        <v>167</v>
+      </c>
+      <c r="E111" s="9">
+        <v>0</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G111" s="10">
+        <v>46</v>
+      </c>
       <c r="H111" s="3" t="s">
-        <v>302</v>
+        <v>377</v>
       </c>
     </row>
     <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>340</v>
+      <c r="A112" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="B112" s="3"/>
-      <c r="C112" s="5" t="s">
-        <v>342</v>
+      <c r="C112" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="E112" s="1">
-        <v>0</v>
-      </c>
-      <c r="F112" s="3"/>
-      <c r="G112" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="E112" s="9">
+        <v>0</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G112" s="10">
+        <v>46</v>
+      </c>
       <c r="H112" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>352</v>
+        <v>169</v>
       </c>
       <c r="B113" s="3"/>
-      <c r="C113" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="E113" s="1">
-        <v>2</v>
+      <c r="C113" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E113" s="9">
+        <v>0</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="G113" s="4">
-        <v>19</v>
+        <v>42</v>
+      </c>
+      <c r="G113" s="10">
+        <v>0</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="B114" s="3"/>
-      <c r="C114" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="E114" s="1">
-        <v>2</v>
+        <v>177</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E114" s="9">
+        <v>0</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="G114" s="4">
-        <v>19</v>
+        <v>42</v>
+      </c>
+      <c r="G114" s="10">
+        <v>0</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="E115" s="1">
-        <v>1</v>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E115" s="9">
+        <v>0</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="G115" s="4">
-        <v>19</v>
+        <v>42</v>
+      </c>
+      <c r="G115" s="10">
+        <v>0</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="B116" s="3"/>
-      <c r="C116" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="E116" s="1">
-        <v>1</v>
-      </c>
-      <c r="F116" s="3"/>
-      <c r="G116" s="4">
-        <v>19</v>
+        <v>177</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E116" s="9">
+        <v>0</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G116" s="10">
+        <v>0</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="B117" s="3"/>
-      <c r="C117" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="E117" s="1">
-        <v>1</v>
-      </c>
-      <c r="F117" s="3"/>
-      <c r="G117" s="4">
-        <v>19</v>
+        <v>177</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E117" s="9">
+        <v>0</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G117" s="10">
+        <v>0</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B118" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="C118" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>277</v>
+        <v>105</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="E118" s="9">
-        <v>1</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="G118" s="10">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B119" s="3"/>
-      <c r="C119" s="5" t="s">
-        <v>339</v>
+      <c r="A119" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="E119" s="1">
-        <v>0</v>
-      </c>
-      <c r="F119" s="3"/>
-      <c r="G119" s="4"/>
+        <v>189</v>
+      </c>
+      <c r="E119" s="9">
+        <v>0</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G119" s="10">
+        <v>46</v>
+      </c>
       <c r="H119" s="3" t="s">
-        <v>264</v>
+        <v>377</v>
       </c>
     </row>
     <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>304</v>
+        <v>187</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>305</v>
+        <v>192</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E120" s="1">
-        <v>0</v>
-      </c>
-      <c r="F120" s="3"/>
-      <c r="G120" s="4"/>
+        <v>193</v>
+      </c>
+      <c r="E120" s="9">
+        <v>0</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G120" s="10">
+        <v>46</v>
+      </c>
       <c r="H120" s="3" t="s">
-        <v>302</v>
+        <v>377</v>
       </c>
     </row>
     <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E121" s="9">
         <v>0</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G121" s="10">
         <v>46</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>193</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="B122" s="3"/>
       <c r="C122" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D122" s="8" t="s">
-        <v>192</v>
+      <c r="D122" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="E122" s="9">
         <v>0</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G122" s="10">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="E123" s="9">
+      <c r="A123" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B123" s="3"/>
+      <c r="C123" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="E123" s="1">
         <v>1</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G123" s="10">
-        <v>28</v>
+        <v>392</v>
+      </c>
+      <c r="G123" s="4">
+        <v>19</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>380</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>283</v>
+        <v>88</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="E124" s="9">
         <v>0</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G124" s="10">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="E125" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G125" s="10">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>348</v>
+        <v>215</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E126" s="1">
-        <v>0</v>
-      </c>
-      <c r="F126" s="3"/>
-      <c r="G126" s="4">
-        <v>59</v>
+        <v>216</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E126" s="9">
+        <v>0</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G126" s="10">
+        <v>0</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>144</v>
+        <v>378</v>
       </c>
     </row>
     <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="E127" s="1">
-        <v>0</v>
-      </c>
-      <c r="F127" s="3"/>
-      <c r="G127" s="4"/>
+      <c r="A127" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E127" s="9">
+        <v>0</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G127" s="10">
+        <v>0</v>
+      </c>
       <c r="H127" s="3" t="s">
-        <v>144</v>
+        <v>378</v>
       </c>
     </row>
     <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="B128" s="3"/>
-      <c r="C128" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="E128" s="1">
-        <v>0</v>
-      </c>
-      <c r="F128" s="3"/>
-      <c r="G128" s="4"/>
+      <c r="A128" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E128" s="9">
+        <v>0</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G128" s="10">
+        <v>0</v>
+      </c>
       <c r="H128" s="3" t="s">
-        <v>144</v>
+        <v>378</v>
       </c>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B129" s="3"/>
-      <c r="C129" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="E129" s="1">
-        <v>0</v>
-      </c>
-      <c r="F129" s="3"/>
-      <c r="G129" s="4"/>
+      <c r="A129" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E129" s="9">
+        <v>0</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G129" s="10">
+        <v>0</v>
+      </c>
       <c r="H129" s="3" t="s">
-        <v>144</v>
+        <v>378</v>
       </c>
     </row>
     <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>358</v>
+        <v>286</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="E130" s="1">
+        <v>298</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E130" s="9">
         <v>0</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="G130" s="4">
-        <v>22</v>
+        <v>42</v>
+      </c>
+      <c r="G130" s="10">
+        <v>0</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="B131" s="3"/>
-      <c r="C131" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="E131" s="1">
+        <v>286</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="E131" s="9">
+        <v>0</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G131" s="10">
+        <v>0</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E132" s="9">
+        <v>0</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G132" s="10">
+        <v>37</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E133" s="9">
         <v>1</v>
       </c>
-      <c r="F131" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="G131" s="4">
+      <c r="F133" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G133" s="10">
         <v>28</v>
       </c>
-      <c r="H131" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="E132" s="1">
+      <c r="H133" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E134" s="9">
         <v>1</v>
       </c>
-      <c r="F132" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G132" s="4">
+      <c r="F134" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G134" s="10">
         <v>28</v>
       </c>
-      <c r="H132" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B133" s="3"/>
-      <c r="C133" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="E133" s="1">
-        <v>0</v>
-      </c>
-      <c r="F133" s="3"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="E134" s="1">
-        <v>1</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G134" s="4">
-        <v>28</v>
-      </c>
       <c r="H134" s="3" t="s">
-        <v>302</v>
+        <v>378</v>
       </c>
     </row>
     <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="B135" s="3"/>
-      <c r="C135" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="E135" s="1">
-        <v>0</v>
-      </c>
-      <c r="F135" s="3"/>
-      <c r="G135" s="4"/>
+      <c r="A135" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E135" s="9">
+        <v>0</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G135" s="10">
+        <v>37</v>
+      </c>
       <c r="H135" s="3" t="s">
-        <v>144</v>
+        <v>378</v>
       </c>
     </row>
     <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="B136" s="3"/>
+      <c r="A136" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>332</v>
+      </c>
       <c r="C136" s="5" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="E136" s="1">
         <v>0</v>
       </c>
       <c r="F136" s="3"/>
       <c r="G136" s="4">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>362</v>
-      </c>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B137" s="3"/>
       <c r="C137" s="5" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>392</v>
+        <v>324</v>
       </c>
       <c r="E137" s="1">
-        <v>1</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="G137" s="4">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F137" s="3"/>
+      <c r="G137" s="4"/>
       <c r="H137" s="3" t="s">
-        <v>264</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B138" s="3"/>
       <c r="C138" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E138" s="1">
         <v>0</v>
@@ -5421,67 +5442,91 @@
       <c r="F138" s="3"/>
       <c r="G138" s="4"/>
       <c r="H138" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="8"/>
+      <c r="A139" s="3" t="s">
+        <v>325</v>
+      </c>
       <c r="B139" s="3"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="8"/>
+      <c r="C139" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>326</v>
+      </c>
       <c r="E139" s="1">
         <v>0</v>
       </c>
       <c r="F139" s="3"/>
       <c r="G139" s="4"/>
-      <c r="H139" s="3"/>
+      <c r="H139" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="8"/>
+      <c r="A140" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="B140" s="3"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="8"/>
+      <c r="C140" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>327</v>
+      </c>
       <c r="E140" s="1">
         <v>0</v>
       </c>
       <c r="F140" s="3"/>
       <c r="G140" s="4"/>
-      <c r="H140" s="3"/>
+      <c r="H140" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="8"/>
+      <c r="A141" s="3" t="s">
+        <v>330</v>
+      </c>
       <c r="B141" s="3"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="8"/>
+      <c r="C141" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>331</v>
+      </c>
       <c r="E141" s="1">
         <v>0</v>
       </c>
       <c r="F141" s="3"/>
       <c r="G141" s="4"/>
-      <c r="H141" s="3"/>
-    </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H141" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="3"/>
       <c r="C142" s="5"/>
       <c r="D142" s="8"/>
-      <c r="E142" s="1">
-        <v>0</v>
-      </c>
+      <c r="E142" s="1"/>
       <c r="F142" s="3"/>
-      <c r="G142" s="4"/>
+      <c r="G142" s="10">
+        <v>0</v>
+      </c>
       <c r="H142" s="3"/>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="3"/>
       <c r="C143" s="5"/>
       <c r="D143" s="8"/>
-      <c r="E143" s="1">
-        <v>0</v>
-      </c>
+      <c r="E143" s="1"/>
       <c r="F143" s="3"/>
-      <c r="G143" s="4"/>
+      <c r="G143" s="10">
+        <v>0</v>
+      </c>
       <c r="H143" s="3"/>
     </row>
     <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -5968,7 +6013,7 @@
       <c r="A184" s="8"/>
       <c r="B184" s="3"/>
       <c r="C184" s="5"/>
-      <c r="D184" s="3"/>
+      <c r="D184" s="8"/>
       <c r="E184" s="1">
         <v>0</v>
       </c>
@@ -5980,7 +6025,7 @@
       <c r="A185" s="8"/>
       <c r="B185" s="3"/>
       <c r="C185" s="5"/>
-      <c r="D185" s="3"/>
+      <c r="D185" s="8"/>
       <c r="E185" s="1">
         <v>0</v>
       </c>
@@ -5992,7 +6037,7 @@
       <c r="A186" s="8"/>
       <c r="B186" s="3"/>
       <c r="C186" s="5"/>
-      <c r="D186" s="3"/>
+      <c r="D186" s="8"/>
       <c r="E186" s="1">
         <v>0</v>
       </c>
@@ -6004,7 +6049,7 @@
       <c r="A187" s="8"/>
       <c r="B187" s="3"/>
       <c r="C187" s="5"/>
-      <c r="D187" s="3"/>
+      <c r="D187" s="8"/>
       <c r="E187" s="1">
         <v>0</v>
       </c>
@@ -6016,7 +6061,7 @@
       <c r="A188" s="8"/>
       <c r="B188" s="3"/>
       <c r="C188" s="5"/>
-      <c r="D188" s="3"/>
+      <c r="D188" s="8"/>
       <c r="E188" s="1">
         <v>0</v>
       </c>
@@ -7489,7 +7534,7 @@
       <c r="H310" s="3"/>
     </row>
     <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="3"/>
+      <c r="A311" s="8"/>
       <c r="B311" s="3"/>
       <c r="C311" s="5"/>
       <c r="D311" s="3"/>
@@ -7501,7 +7546,7 @@
       <c r="H311" s="3"/>
     </row>
     <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="3"/>
+      <c r="A312" s="8"/>
       <c r="B312" s="3"/>
       <c r="C312" s="5"/>
       <c r="D312" s="3"/>
@@ -7513,7 +7558,7 @@
       <c r="H312" s="3"/>
     </row>
     <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="3"/>
+      <c r="A313" s="8"/>
       <c r="B313" s="3"/>
       <c r="C313" s="5"/>
       <c r="D313" s="3"/>
@@ -7525,7 +7570,7 @@
       <c r="H313" s="3"/>
     </row>
     <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="3"/>
+      <c r="A314" s="8"/>
       <c r="B314" s="3"/>
       <c r="C314" s="5"/>
       <c r="D314" s="3"/>
@@ -7537,7 +7582,7 @@
       <c r="H314" s="3"/>
     </row>
     <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="3"/>
+      <c r="A315" s="8"/>
       <c r="B315" s="3"/>
       <c r="C315" s="5"/>
       <c r="D315" s="3"/>
@@ -31488,133 +31533,65 @@
       <c r="G2310" s="4"/>
       <c r="H2310" s="3"/>
     </row>
-    <row r="2311" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2311" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2311" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2311" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2311" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="E2311" s="9">
-        <v>1</v>
-      </c>
-      <c r="F2311" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2311" s="10">
-        <v>37</v>
-      </c>
-      <c r="H2311" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="2312" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2312" s="8" t="s">
-        <v>53</v>
-      </c>
+    <row r="2311" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2311" s="3"/>
+      <c r="B2311" s="3"/>
+      <c r="C2311" s="5"/>
+      <c r="D2311" s="3"/>
+      <c r="E2311" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2311" s="3"/>
+      <c r="G2311" s="4"/>
+      <c r="H2311" s="3"/>
+    </row>
+    <row r="2312" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2312" s="3"/>
       <c r="B2312" s="3"/>
-      <c r="C2312" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2312" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="E2312" s="9">
-        <v>1</v>
-      </c>
-      <c r="F2312" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2312" s="10">
-        <v>37</v>
-      </c>
-      <c r="H2312" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="2313" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2313" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2313" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2313" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2313" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E2313" s="9">
-        <v>1</v>
-      </c>
-      <c r="F2313" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2313" s="10">
-        <v>37</v>
-      </c>
-      <c r="H2313" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="2314" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2314" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B2314" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C2314" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="D2314" s="8" t="s">
-        <v>393</v>
-      </c>
+      <c r="C2312" s="5"/>
+      <c r="D2312" s="3"/>
+      <c r="E2312" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2312" s="3"/>
+      <c r="G2312" s="4"/>
+      <c r="H2312" s="3"/>
+    </row>
+    <row r="2313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2313" s="3"/>
+      <c r="B2313" s="3"/>
+      <c r="C2313" s="5"/>
+      <c r="D2313" s="3"/>
+      <c r="E2313" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2313" s="3"/>
+      <c r="G2313" s="4"/>
+      <c r="H2313" s="3"/>
+    </row>
+    <row r="2314" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2314" s="3"/>
+      <c r="B2314" s="3"/>
+      <c r="C2314" s="5"/>
+      <c r="D2314" s="3"/>
       <c r="E2314" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2314" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="G2314" s="4">
-        <v>40</v>
-      </c>
-      <c r="H2314" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="2315" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2315" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="B2315" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C2315" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="D2315" s="8" t="s">
-        <v>415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F2314" s="3"/>
+      <c r="G2314" s="4"/>
+      <c r="H2314" s="3"/>
+    </row>
+    <row r="2315" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2315" s="3"/>
+      <c r="B2315" s="3"/>
+      <c r="C2315" s="5"/>
+      <c r="D2315" s="3"/>
       <c r="E2315" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2315" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="G2315" s="4">
-        <v>50</v>
-      </c>
-      <c r="H2315" s="3" t="s">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F2315" s="3"/>
+      <c r="G2315" s="4"/>
+      <c r="H2315" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E2315">
@@ -31623,14 +31600,14 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A42" r:id="rId1" xr:uid="{927C92C7-6B61-4EB9-9C9C-FD4E9084BAFF}"/>
-    <hyperlink ref="A41" r:id="rId2" xr:uid="{25778FAC-AD20-4E64-A08F-91AC02BCF198}"/>
-    <hyperlink ref="A81" r:id="rId3" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{149EC145-919F-4AAB-B457-D975A30A31A7}"/>
-    <hyperlink ref="A97" r:id="rId4" xr:uid="{FCF7D838-4D62-4799-8E4F-2595606E99C2}"/>
-    <hyperlink ref="B97" r:id="rId5" display="https://video.aliexpress-media.com/play/u/ae_sg_item/2210947737601/p/1/e/6/t/10301/5000119272165.mp4?from=chrome" xr:uid="{6BE665CA-47CE-4FBE-9062-70CB85717110}"/>
-    <hyperlink ref="A82" r:id="rId6" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{2584EE3D-0412-4BD2-8398-FAAB1C32718D}"/>
-    <hyperlink ref="A83" r:id="rId7" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{0647A1AD-A655-422F-8B07-94408022CD94}"/>
-    <hyperlink ref="A75" r:id="rId8" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{14CB63D3-0390-43A2-AE82-0C817E70ABD2}"/>
+    <hyperlink ref="A74" r:id="rId1" xr:uid="{927C92C7-6B61-4EB9-9C9C-FD4E9084BAFF}"/>
+    <hyperlink ref="A73" r:id="rId2" xr:uid="{25778FAC-AD20-4E64-A08F-91AC02BCF198}"/>
+    <hyperlink ref="A5" r:id="rId3" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{149EC145-919F-4AAB-B457-D975A30A31A7}"/>
+    <hyperlink ref="A78" r:id="rId4" xr:uid="{FCF7D838-4D62-4799-8E4F-2595606E99C2}"/>
+    <hyperlink ref="B78" r:id="rId5" display="https://video.aliexpress-media.com/play/u/ae_sg_item/2210947737601/p/1/e/6/t/10301/5000119272165.mp4?from=chrome" xr:uid="{6BE665CA-47CE-4FBE-9062-70CB85717110}"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{2584EE3D-0412-4BD2-8398-FAAB1C32718D}"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{0647A1AD-A655-422F-8B07-94408022CD94}"/>
+    <hyperlink ref="A6" r:id="rId8" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{14CB63D3-0390-43A2-AE82-0C817E70ABD2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>

--- a/proali.xlsx
+++ b/proali.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\mi-tienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F07FAD-BA39-41B2-8125-046098CCB850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAD688C-9CFE-4C2E-8D77-8B249485FB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="423">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1052,9 +1052,6 @@
     <t>https://ae01.alicdn.com/kf/S648edc9c082047588679f1d083c2d4f49.jpg</t>
   </si>
   <si>
-    <t>https://ae01.alicdn.com/kf/Sd1576e32c31e4a78b2fb1999ea9eae9aE.jpg</t>
-  </si>
-  <si>
     <t>AD0101</t>
   </si>
   <si>
@@ -1097,9 +1094,6 @@
     <t>KT6009</t>
   </si>
   <si>
-    <t>https://ae01.alicdn.com/kf/Sab4ed8d51ae84a05a57ff4f00d1e0f14v.jpg</t>
-  </si>
-  <si>
     <t>https://video.aliexpress-media.com/play/u/ae_sg_item/3000004561156/p/1/e/6/t/10301/5000116342390.mp4?from=chrome</t>
   </si>
   <si>
@@ -1121,27 +1115,15 @@
     <t>FA1004</t>
   </si>
   <si>
-    <t>https://ae01.alicdn.com/kf/Sae25f178c1284767bea703083a938f3fQ.jpg</t>
-  </si>
-  <si>
-    <t>24cm</t>
-  </si>
-  <si>
     <t>https://video.aliexpress-media.com/play/u/ae_sg_item/2215483985827/p/1/e/6/t/10301/1100196404795.mp4?from=chrome</t>
   </si>
   <si>
-    <t>https://ae01.alicdn.com/kf/S4a113d13fb98454bb8e35540a59363f2R.jpg</t>
-  </si>
-  <si>
     <t>KT6010</t>
   </si>
   <si>
     <t>https://ae01.alicdn.com/kf/Sde505b957ad846489551806450cc5097M.jpg</t>
   </si>
   <si>
-    <t>https://ae01.alicdn.com/kf/S418a7345aeb142b3b9e300af9e1e9c8cU.jpg</t>
-  </si>
-  <si>
     <t>FA1005</t>
   </si>
   <si>
@@ -1160,9 +1142,6 @@
     <t>Figura de accion Luigui VERDE</t>
   </si>
   <si>
-    <t>https://ae01.alicdn.com/kf/S13265d1146304043b88ac83928fb26f5v.jpg?width=1000&amp;height=611&amp;hash=1611</t>
-  </si>
-  <si>
     <t>EL1012</t>
   </si>
   <si>
@@ -1211,33 +1190,12 @@
     <t>Figura de accion Pokemon</t>
   </si>
   <si>
-    <t>1/18 Metal fundido a presión</t>
-  </si>
-  <si>
-    <t>Moto Vespa ROJO</t>
-  </si>
-  <si>
-    <t>Adhesivo Decorativo Hojitas ROJO</t>
-  </si>
-  <si>
-    <t>6-7cm - Set de 6 Unidades</t>
-  </si>
-  <si>
     <t>Fibra de Carbono, Reflectivo</t>
   </si>
   <si>
     <t>Para 4 puertas, Fibra de Carbono, Reflectivo</t>
   </si>
   <si>
-    <t>Ashesivo Protector para manija AZUL</t>
-  </si>
-  <si>
-    <t>Ashesivo Protector para manija BLANCO</t>
-  </si>
-  <si>
-    <t>Ashesivo Protector para manija ROJO</t>
-  </si>
-  <si>
     <t>EL1013</t>
   </si>
   <si>
@@ -1271,15 +1229,6 @@
     <t>https://ae01.alicdn.com/kf/Sdb7401bb074a4b1aa7a5627884fb9878q.jpg</t>
   </si>
   <si>
-    <t>Flash Drive USB Angela ROSA</t>
-  </si>
-  <si>
-    <t>1942 Wrangler AMARILLO</t>
-  </si>
-  <si>
-    <t>7 Puertas, Luces y Sonido</t>
-  </si>
-  <si>
     <t>https://canary.contestimg.wish.com/api/webimage/5943a5490b4571468dff89fb-large.jpg?cache_buster=cb361c2a334b026a2582e90c8bfe1804</t>
   </si>
   <si>
@@ -1293,6 +1242,66 @@
   </si>
   <si>
     <t>IMAGEN</t>
+  </si>
+  <si>
+    <t>3D Red Carbon Fiber Look Fender Bumper Hood Reflective Strip Stickers Universal ROJO</t>
+  </si>
+  <si>
+    <t>https://xotictech.com/cdn/shop/products/74b96dbb2d19db9758ba306fc55ad040_eab1dfdc-7422-4e9a-a43e-433a4647de21.jpg</t>
+  </si>
+  <si>
+    <t>https://www.c-enter.com.mx/tienda/wp-content/uploads/2023/11/play.png</t>
+  </si>
+  <si>
+    <t>64GB USB 2.0, 55mm x 40mm</t>
+  </si>
+  <si>
+    <t>Car Door Cup Handle Paint Scratch Protector Sticker 3D Carbon Fiber Universal AZUL</t>
+  </si>
+  <si>
+    <t>Car Door Cup Handle Paint Scratch Protector Sticker 3D Carbon Fiber Universal BLANCO</t>
+  </si>
+  <si>
+    <t>Car Door Cup Handle Paint Scratch Protector Sticker 3D Carbon Fiber Universal ROJO</t>
+  </si>
+  <si>
+    <t>1/18 Metal fundido a presión, 9.8cm x 5.6cm x 3.8cm</t>
+  </si>
+  <si>
+    <t>https://id-test-11.slatic.net/p/4cd0492d2c5dbf1e2b87803df52b9e7a.jpg</t>
+  </si>
+  <si>
+    <t>Moto 1976 VESPA 200 ROJO</t>
+  </si>
+  <si>
+    <t>Metal fundido a presión, puertas que se abren, acción de retroceso, 7 Puertas, luces y Sonido 15.5cm x 1/20 7cm</t>
+  </si>
+  <si>
+    <t>Jeep Wrangler Rubicon 1942 AMARILLO</t>
+  </si>
+  <si>
+    <t>https://images.tokopedia.net/img/cache/700/VqbcmM/2022/12/15/a57300d6-04ba-4d4e-bc3f-000c8455ef32.jpg</t>
+  </si>
+  <si>
+    <t>Flash Drive USB Angela ROSADO</t>
+  </si>
+  <si>
+    <t>https://fuegoverde.com.co/wp-content/uploads/2020/07/FIGURA-DE-RIUK-DEATH-NOTE.jpg</t>
+  </si>
+  <si>
+    <t>ABS de 26cm x 24cm</t>
+  </si>
+  <si>
+    <t>ABS 6-7cm - Set de 6 Unidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABS </t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>https://image.made-in-china.com/155f0j00hfdojIgUCLpA/Gjus68-Plastic-Special-Beer-Mug-Model-USB-2-0-Flash-Drive-Pendrive-8GB-16GB-32GB-64GB-Memory-Stick-Pen-Drive-USB-Thumb-Drive.JPG</t>
   </si>
 </sst>
 </file>
@@ -1303,7 +1312,7 @@
     <numFmt numFmtId="164" formatCode="_-&quot;S/&quot;\ * #,##0_-;\-&quot;S/&quot;\ * #,##0_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1336,8 +1345,19 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="4"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1347,6 +1367,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1376,7 +1402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1416,6 +1442,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1637,8 +1669,8 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H2315">
-    <sortCondition ref="D1:D2315"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H143">
+    <sortCondition ref="H1:H2315"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="6" xr3:uid="{D349EDB8-1023-498A-8D26-F168360F9742}" name="IMAGEN" dataDxfId="8"/>
@@ -1943,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2315"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1961,10 +1993,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1986,1471 +2018,1463 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>50</v>
+      <c r="A2" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E2" s="9">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="G2" s="4">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="G3" s="4">
         <v>19</v>
       </c>
-      <c r="G2" s="10">
-        <v>37</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="H3" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="G4" s="4">
         <v>19</v>
       </c>
-      <c r="G3" s="10">
-        <v>37</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="G4" s="4">
-        <v>50</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>142</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>251</v>
+        <v>28</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="E5" s="9">
         <v>0</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G5" s="10">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>257</v>
+        <v>48</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="E6" s="9">
         <v>0</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G6" s="10">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>253</v>
+        <v>145</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>252</v>
+        <v>48</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="E7" s="9">
         <v>0</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G7" s="10">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>254</v>
+        <v>148</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>255</v>
+        <v>48</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="E8" s="9">
         <v>0</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G8" s="10">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>25</v>
+        <v>143</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="E9" s="9">
         <v>0</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G9" s="10">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="E10" s="9">
         <v>0</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G10" s="10">
         <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E11" s="9">
         <v>0</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="G11" s="10">
         <v>0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E12" s="9">
         <v>0</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="G12" s="10">
         <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="E13" s="9">
         <v>0</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="G13" s="10">
         <v>0</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>231</v>
+        <v>101</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="E14" s="9">
         <v>0</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14" s="10">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>52</v>
+        <v>372</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>236</v>
+        <v>377</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>237</v>
+        <v>381</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>378</v>
       </c>
       <c r="E15" s="9">
         <v>0</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G15" s="10">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>52</v>
+        <v>372</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>234</v>
+        <v>375</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>235</v>
+        <v>381</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>376</v>
       </c>
       <c r="E16" s="9">
         <v>0</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G16" s="10">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>53</v>
+      <c r="A17" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="5" t="s">
+        <v>309</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E17" s="9">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="10">
-        <v>37</v>
+        <v>409</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="G17" s="4">
+        <v>19</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>377</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>22</v>
+        <v>372</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>373</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>20</v>
+        <v>381</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>23</v>
+        <v>374</v>
       </c>
       <c r="E18" s="9">
         <v>0</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G18" s="10">
         <v>0</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>132</v>
+        <v>279</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="E19" s="9">
         <v>0</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G19" s="10">
         <v>0</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="E20" s="9">
         <v>0</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G20" s="10">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="E21" s="9">
         <v>0</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G21" s="10">
         <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="E22" s="9">
         <v>0</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G22" s="10">
         <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>154</v>
+        <v>30</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="E23" s="9">
         <v>0</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G23" s="10">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>151</v>
+        <v>265</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>156</v>
+        <v>268</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>155</v>
+        <v>263</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>269</v>
       </c>
       <c r="E24" s="9">
         <v>0</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>26</v>
+        <v>264</v>
       </c>
       <c r="G24" s="10">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>151</v>
+        <v>265</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>152</v>
+        <v>263</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>271</v>
       </c>
       <c r="E25" s="9">
         <v>0</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>26</v>
+        <v>264</v>
       </c>
       <c r="G25" s="10">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>151</v>
+        <v>265</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>157</v>
+        <v>267</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>158</v>
+        <v>263</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>266</v>
       </c>
       <c r="E26" s="9">
         <v>0</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>26</v>
+        <v>264</v>
       </c>
       <c r="G26" s="10">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>379</v>
+        <v>265</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>387</v>
+        <v>272</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>388</v>
+        <v>263</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>386</v>
+        <v>273</v>
       </c>
       <c r="E27" s="9">
         <v>0</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
       <c r="G27" s="10">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>384</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B28" s="3"/>
       <c r="C28" s="7" t="s">
-        <v>388</v>
+        <v>95</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>385</v>
+        <v>96</v>
       </c>
       <c r="E28" s="9">
         <v>0</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="G28" s="10">
         <v>0</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>379</v>
+        <v>71</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>382</v>
+        <v>244</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>388</v>
+        <v>72</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>383</v>
+        <v>245</v>
       </c>
       <c r="E29" s="9">
         <v>0</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G29" s="10">
         <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>379</v>
+        <v>71</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>380</v>
+        <v>248</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>388</v>
+        <v>72</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>381</v>
+        <v>249</v>
       </c>
       <c r="E30" s="9">
         <v>0</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G30" s="10">
         <v>0</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="E31" s="9">
         <v>0</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G31" s="10">
         <v>0</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>36</v>
+        <v>243</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>35</v>
+        <v>242</v>
       </c>
       <c r="E32" s="9">
         <v>0</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G32" s="10">
         <v>28</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B33" s="3"/>
       <c r="C33" s="7" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="E33" s="9">
         <v>0</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G33" s="10">
         <v>0</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>38</v>
+        <v>259</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D34" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="10">
         <v>37</v>
       </c>
-      <c r="E34" s="9">
-        <v>0</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" s="10">
-        <v>0</v>
-      </c>
       <c r="H34" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="15"/>
       <c r="C35" s="7" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>34</v>
+        <v>275</v>
       </c>
       <c r="E35" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G35" s="10">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>268</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B36" s="3"/>
       <c r="C36" s="7" t="s">
-        <v>263</v>
+        <v>55</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>269</v>
+        <v>54</v>
       </c>
       <c r="E36" s="9">
         <v>0</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>264</v>
+        <v>19</v>
       </c>
       <c r="G36" s="10">
         <v>0</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>265</v>
+        <v>176</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>263</v>
+        <v>94</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="E37" s="9">
         <v>0</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>264</v>
+        <v>18</v>
       </c>
       <c r="G37" s="10">
         <v>0</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>267</v>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>197</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>263</v>
+        <v>109</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>266</v>
+        <v>198</v>
       </c>
       <c r="E38" s="9">
-        <v>0</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>264</v>
+        <v>1</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G38" s="10">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>272</v>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>202</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>263</v>
+        <v>109</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>273</v>
+        <v>201</v>
       </c>
       <c r="E39" s="9">
-        <v>0</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>264</v>
+        <v>1</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G39" s="10">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>213</v>
+        <v>86</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="E40" s="9">
         <v>0</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G40" s="10">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B41" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="C41" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="E41" s="9">
         <v>0</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G41" s="10">
         <v>0</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>245</v>
+        <v>113</v>
       </c>
       <c r="E42" s="9">
         <v>0</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G42" s="10">
         <v>0</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>248</v>
+        <v>115</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>249</v>
+        <v>116</v>
       </c>
       <c r="E43" s="9">
         <v>0</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G43" s="10">
         <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>246</v>
+        <v>6</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>247</v>
+        <v>110</v>
       </c>
       <c r="E44" s="9">
         <v>0</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G44" s="10">
         <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>243</v>
+        <v>120</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>242</v>
+        <v>110</v>
       </c>
       <c r="E45" s="9">
         <v>0</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G45" s="10">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>294</v>
+        <v>120</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>295</v>
+        <v>4</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="E46" s="9">
         <v>0</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>42</v>
+      <c r="F46" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G46" s="10">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>288</v>
+        <v>5</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>293</v>
+        <v>121</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>291</v>
+        <v>4</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E47" s="9">
         <v>0</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>42</v>
+      <c r="F47" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G47" s="10">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>288</v>
+        <v>5</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>292</v>
+        <v>123</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>290</v>
+        <v>4</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="E48" s="9">
         <v>0</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>42</v>
+      <c r="F48" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G48" s="10">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="7" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="E49" s="9">
         <v>0</v>
       </c>
-      <c r="F49" s="8" t="s">
-        <v>26</v>
+      <c r="F49" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G49" s="10">
         <v>0</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>100</v>
+        <v>45</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>382</v>
       </c>
       <c r="E50" s="9">
         <v>0</v>
       </c>
-      <c r="F50" s="8" t="s">
-        <v>26</v>
+      <c r="F50" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="G50" s="10">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>276</v>
+        <v>82</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>241</v>
       </c>
       <c r="E51" s="9">
         <v>0</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G51" s="10">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>73</v>
+        <v>238</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="E52" s="9">
         <v>0</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="10">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E53" s="9">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G52" s="10">
-        <v>37</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="E53" s="9">
-        <v>1</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="G53" s="10">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>62</v>
+        <v>85</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="E54" s="9">
         <v>0</v>
       </c>
-      <c r="F54" s="8" t="s">
-        <v>19</v>
+      <c r="F54" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G54" s="10">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>277</v>
+        <v>136</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="E55" s="9">
         <v>0</v>
       </c>
-      <c r="F55" s="8" t="s">
-        <v>19</v>
+      <c r="F55" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G55" s="10">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="7" t="s">
-        <v>55</v>
+        <v>85</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="E56" s="9">
         <v>0</v>
       </c>
-      <c r="F56" s="8" t="s">
-        <v>19</v>
+      <c r="F56" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G56" s="10">
         <v>0</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>278</v>
+        <v>133</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="E57" s="9">
         <v>0</v>
       </c>
-      <c r="F57" s="8" t="s">
-        <v>59</v>
+      <c r="F57" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G57" s="10">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>282</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B58" s="3"/>
       <c r="C58" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>283</v>
+        <v>103</v>
       </c>
       <c r="E58" s="9">
         <v>0</v>
       </c>
-      <c r="F58" s="8" t="s">
-        <v>18</v>
+      <c r="F58" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G58" s="10">
         <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3475,28 +3499,30 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="E60" s="1">
-        <v>2</v>
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E60" s="9">
+        <v>0</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="G60" s="4">
-        <v>12</v>
+        <v>42</v>
+      </c>
+      <c r="G60" s="10">
+        <v>0</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>308</v>
+        <v>371</v>
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3505,10 +3531,10 @@
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>340</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>341</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -3519,97 +3545,101 @@
         <v>308</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D62" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E62" s="9">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" s="10">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="G63" s="4">
+        <v>50</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="E62" s="1">
-        <v>2</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="G62" s="4">
-        <v>19</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D63" s="8" t="s">
+      <c r="B64" s="15"/>
+      <c r="C64" s="5" t="s">
         <v>399</v>
-      </c>
-      <c r="E63" s="1">
-        <v>2</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="G63" s="4">
-        <v>19</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="5" t="s">
-        <v>309</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>400</v>
       </c>
       <c r="E64" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>397</v>
+        <v>26</v>
       </c>
       <c r="G64" s="4">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>308</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="B65" s="3"/>
+      <c r="A65" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="B65" s="15"/>
       <c r="C65" s="5" t="s">
-        <v>416</v>
+        <v>352</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>26</v>
+        <v>410</v>
       </c>
       <c r="G65" s="4">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>142</v>
@@ -3617,236 +3647,234 @@
     </row>
     <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>117</v>
+        <v>182</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="E66" s="9">
         <v>0</v>
       </c>
-      <c r="F66" s="8" t="s">
-        <v>18</v>
+      <c r="F66" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G66" s="10">
         <v>0</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="E67" s="9">
         <v>0</v>
       </c>
-      <c r="F67" s="8" t="s">
-        <v>18</v>
+      <c r="F67" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G67" s="10">
         <v>0</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>112</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="B68" s="3"/>
       <c r="C68" s="7" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E68" s="9">
         <v>0</v>
       </c>
-      <c r="F68" s="8" t="s">
-        <v>18</v>
+      <c r="F68" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="G68" s="10">
         <v>0</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>111</v>
+        <v>215</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>115</v>
+        <v>223</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>116</v>
+        <v>218</v>
       </c>
       <c r="E69" s="9">
         <v>0</v>
       </c>
-      <c r="F69" s="8" t="s">
-        <v>18</v>
+      <c r="F69" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G69" s="10">
         <v>0</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>5</v>
+        <v>215</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>6</v>
+        <v>216</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="E70" s="9">
         <v>0</v>
       </c>
-      <c r="F70" s="8" t="s">
-        <v>19</v>
+      <c r="F70" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G70" s="10">
         <v>0</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>122</v>
+        <v>215</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="E71" s="9">
         <v>0</v>
       </c>
-      <c r="F71" s="8" t="s">
-        <v>19</v>
+      <c r="F71" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G71" s="10">
         <v>0</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>10</v>
+        <v>215</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="E72" s="9">
         <v>0</v>
       </c>
-      <c r="F72" s="8" t="s">
-        <v>19</v>
+      <c r="F72" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G72" s="10">
         <v>0</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>5</v>
+        <v>215</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>121</v>
+        <v>220</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>9</v>
+        <v>219</v>
       </c>
       <c r="E73" s="9">
         <v>0</v>
       </c>
-      <c r="F73" s="8" t="s">
-        <v>19</v>
+      <c r="F73" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G73" s="10">
         <v>0</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>5</v>
+        <v>215</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>8</v>
+        <v>219</v>
       </c>
       <c r="E74" s="9">
         <v>0</v>
       </c>
-      <c r="F74" s="8" t="s">
-        <v>19</v>
+      <c r="F74" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G74" s="10">
         <v>0</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3895,54 +3923,54 @@
     </row>
     <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>15</v>
+        <v>286</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>284</v>
+        <v>287</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>297</v>
       </c>
       <c r="E77" s="9">
         <v>0</v>
       </c>
-      <c r="F77" s="8" t="s">
-        <v>18</v>
+      <c r="F77" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G77" s="10">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>13</v>
+        <v>286</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>17</v>
+        <v>299</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>12</v>
+        <v>287</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>296</v>
       </c>
       <c r="E78" s="9">
         <v>0</v>
       </c>
-      <c r="F78" s="8" t="s">
-        <v>18</v>
+      <c r="F78" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G78" s="10">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -3969,14 +3997,16 @@
     </row>
     <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B80" s="3"/>
+        <v>196</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="C80" s="7" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="E80" s="9">
         <v>0</v>
@@ -3985,24 +4015,24 @@
         <v>42</v>
       </c>
       <c r="G80" s="10">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D81" s="8" t="s">
         <v>346</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>347</v>
       </c>
       <c r="E81" s="1">
         <v>0</v>
@@ -4017,46 +4047,48 @@
     </row>
     <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>389</v>
+        <v>66</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="E82" s="9">
         <v>0</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F82" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G82" s="10">
         <v>46</v>
       </c>
-      <c r="G82" s="10">
-        <v>28</v>
-      </c>
       <c r="H82" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="E83" s="1">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="G83" s="4">
         <v>22</v>
@@ -4066,335 +4098,339 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>360</v>
-      </c>
+      <c r="A84" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="B84" s="15"/>
       <c r="C84" s="5" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E84" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="G84" s="4">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="B85" s="3"/>
+      <c r="A85" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="B85" s="15"/>
       <c r="C85" s="5" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="E85" s="1">
         <v>1</v>
       </c>
-      <c r="F85" s="3"/>
+      <c r="F85" s="3" t="s">
+        <v>389</v>
+      </c>
       <c r="G85" s="4">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="B86" s="3"/>
+      <c r="A86" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="B86" s="15"/>
       <c r="C86" s="5" t="s">
         <v>369</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
       </c>
-      <c r="F86" s="3"/>
+      <c r="F86" s="3" t="s">
+        <v>390</v>
+      </c>
       <c r="G86" s="4">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>319</v>
-      </c>
+      <c r="A87" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="B87" s="15"/>
       <c r="C87" s="5" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G87" s="4">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B88" s="3"/>
+      <c r="A88" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="B88" s="15"/>
       <c r="C88" s="5" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="E88" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="G88" s="4">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="B89" s="3"/>
+      <c r="A89" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>358</v>
+      </c>
       <c r="C89" s="5" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="G89" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="B90" s="3"/>
+      <c r="A90" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="B90" s="15"/>
       <c r="C90" s="5" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>409</v>
+        <v>368</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="G90" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="B91" s="3"/>
+      <c r="A91" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="B91" s="15"/>
       <c r="C91" s="5" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="E91" s="1">
         <v>1</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="G91" s="4">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="B92" s="3"/>
+      <c r="A92" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>319</v>
+      </c>
       <c r="C92" s="5" t="s">
-        <v>401</v>
+        <v>321</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="G92" s="4">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
     </row>
     <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c r="E93" s="9">
         <v>0</v>
       </c>
-      <c r="F93" s="3" t="s">
-        <v>18</v>
+      <c r="F93" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="G93" s="10">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="E94" s="9">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>18</v>
+      <c r="F94" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="G94" s="10">
         <v>46</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="E95" s="9">
         <v>0</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>18</v>
+      <c r="F95" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="G95" s="10">
         <v>46</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>203</v>
+        <v>52</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="E96" s="9">
         <v>0</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="F96" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G96" s="10">
         <v>46</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E97" s="1">
         <v>0</v>
@@ -4409,222 +4445,224 @@
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>79</v>
+        <v>236</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E98" s="9">
         <v>0</v>
       </c>
-      <c r="F98" s="3" t="s">
+      <c r="F98" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G98" s="10">
         <v>46</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>241</v>
+        <v>234</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="E99" s="9">
         <v>0</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="F99" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G99" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>240</v>
+        <v>153</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="E100" s="9">
         <v>0</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>18</v>
+      <c r="F100" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G100" s="10">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>261</v>
+        <v>156</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="E101" s="9">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>19</v>
+      <c r="F101" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G101" s="10">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="E102" s="9">
         <v>0</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>42</v>
+      <c r="F102" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G102" s="10">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>140</v>
+        <v>157</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="E103" s="9">
         <v>0</v>
       </c>
-      <c r="F103" s="3" t="s">
-        <v>42</v>
+      <c r="F103" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G103" s="10">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>85</v>
+        <v>372</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>84</v>
+        <v>380</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>381</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>135</v>
+        <v>379</v>
       </c>
       <c r="E104" s="9">
         <v>0</v>
       </c>
-      <c r="F104" s="3" t="s">
+      <c r="F104" s="8" t="s">
         <v>42</v>
       </c>
       <c r="G104" s="10">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>85</v>
+        <v>214</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>138</v>
+        <v>212</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="E105" s="9">
         <v>0</v>
       </c>
-      <c r="F105" s="3" t="s">
-        <v>42</v>
+      <c r="F105" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G105" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>85</v>
+        <v>288</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>134</v>
+        <v>294</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>295</v>
       </c>
       <c r="E106" s="9">
         <v>0</v>
@@ -4633,10 +4671,10 @@
         <v>42</v>
       </c>
       <c r="G106" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -4663,16 +4701,16 @@
     </row>
     <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>160</v>
+        <v>288</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>165</v>
+        <v>293</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>89</v>
+        <v>289</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>166</v>
+        <v>291</v>
       </c>
       <c r="E108" s="9">
         <v>0</v>
@@ -4684,21 +4722,21 @@
         <v>46</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>160</v>
+        <v>288</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>162</v>
+        <v>292</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>89</v>
+        <v>289</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>161</v>
+        <v>290</v>
       </c>
       <c r="E109" s="9">
         <v>0</v>
@@ -4710,377 +4748,379 @@
         <v>46</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="E110" s="9">
         <v>0</v>
       </c>
-      <c r="F110" s="3" t="s">
-        <v>42</v>
+      <c r="F110" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G110" s="10">
         <v>46</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>168</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B111" s="3"/>
       <c r="C111" s="7" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>167</v>
+        <v>276</v>
       </c>
       <c r="E111" s="9">
         <v>0</v>
       </c>
-      <c r="F111" s="3" t="s">
-        <v>42</v>
+      <c r="F111" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="G111" s="10">
         <v>46</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>170</v>
+        <v>64</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="7" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="E112" s="9">
         <v>0</v>
       </c>
-      <c r="F112" s="3" t="s">
-        <v>42</v>
+      <c r="F112" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G112" s="10">
         <v>46</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B113" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="C113" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>103</v>
+        <v>57</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>277</v>
       </c>
       <c r="E113" s="9">
         <v>0</v>
       </c>
-      <c r="F113" s="3" t="s">
-        <v>42</v>
+      <c r="F113" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G113" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>184</v>
+        <v>60</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="E114" s="9">
         <v>0</v>
       </c>
-      <c r="F114" s="3" t="s">
-        <v>42</v>
+      <c r="F114" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="G114" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>180</v>
+        <v>285</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>181</v>
+        <v>16</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>284</v>
       </c>
       <c r="E115" s="9">
         <v>0</v>
       </c>
-      <c r="F115" s="3" t="s">
-        <v>42</v>
+      <c r="F115" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="G115" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D116" s="11" t="s">
-        <v>183</v>
+        <v>14</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="E116" s="9">
         <v>0</v>
       </c>
-      <c r="F116" s="3" t="s">
-        <v>42</v>
+      <c r="F116" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="G116" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>179</v>
+        <v>87</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="E117" s="9">
         <v>0</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G117" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E118" s="9">
         <v>0</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="G118" s="10">
         <v>46</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="E119" s="9">
         <v>0</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="G119" s="10">
         <v>46</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="E120" s="9">
         <v>0</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="G120" s="10">
         <v>46</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>105</v>
+        <v>228</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="E121" s="9">
         <v>0</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="G121" s="10">
         <v>46</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="B122" s="3"/>
-      <c r="C122" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>108</v>
+      <c r="C122" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="E122" s="9">
         <v>0</v>
       </c>
       <c r="F122" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G122" s="10">
         <v>46</v>
       </c>
-      <c r="G122" s="10">
-        <v>0</v>
-      </c>
       <c r="H122" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="B123" s="3"/>
-      <c r="C123" s="5" t="s">
-        <v>353</v>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="E123" s="1">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="E123" s="9">
+        <v>0</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="G123" s="4">
-        <v>19</v>
+        <v>42</v>
+      </c>
+      <c r="G123" s="10">
+        <v>46</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>142</v>
+        <v>370</v>
       </c>
     </row>
     <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D124" s="11" t="s">
-        <v>218</v>
+        <v>89</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="E124" s="9">
         <v>0</v>
@@ -5089,24 +5129,24 @@
         <v>42</v>
       </c>
       <c r="G124" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>217</v>
+        <v>89</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="E125" s="9">
         <v>0</v>
@@ -5115,24 +5155,24 @@
         <v>42</v>
       </c>
       <c r="G125" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D126" s="11" t="s">
-        <v>217</v>
+        <v>89</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="E126" s="9">
         <v>0</v>
@@ -5141,24 +5181,22 @@
         <v>42</v>
       </c>
       <c r="G126" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>221</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B127" s="3"/>
       <c r="C127" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>222</v>
+        <v>90</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="E127" s="9">
         <v>0</v>
@@ -5167,218 +5205,216 @@
         <v>42</v>
       </c>
       <c r="G127" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>219</v>
+        <v>105</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="E128" s="9">
         <v>0</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G128" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>219</v>
+        <v>105</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="E129" s="9">
         <v>0</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G129" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>286</v>
+        <v>187</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>298</v>
+        <v>192</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>297</v>
+        <v>105</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="E130" s="9">
         <v>0</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G130" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>286</v>
+        <v>187</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>299</v>
+        <v>191</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>296</v>
+        <v>105</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="E131" s="9">
         <v>0</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G131" s="10">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>172</v>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>226</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="E132" s="9">
-        <v>0</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G132" s="10">
         <v>37</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>198</v>
+        <v>92</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="E133" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G133" s="10">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>202</v>
-      </c>
+      <c r="A134" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B134" s="15"/>
       <c r="C134" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D134" s="11" t="s">
-        <v>201</v>
+        <v>50</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="E134" s="9">
         <v>1</v>
       </c>
-      <c r="F134" s="3" t="s">
-        <v>42</v>
+      <c r="F134" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G134" s="10">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>200</v>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D135" s="11" t="s">
-        <v>199</v>
+        <v>53</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="E135" s="9">
-        <v>0</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="G135" s="10">
         <v>37</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -5392,7 +5428,7 @@
         <v>333</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E136" s="1">
         <v>0</v>
@@ -5407,7 +5443,7 @@
     </row>
     <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="5" t="s">
@@ -5506,8 +5542,8 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="8"/>
-      <c r="B142" s="3"/>
+      <c r="A142" s="14"/>
+      <c r="B142" s="15"/>
       <c r="C142" s="5"/>
       <c r="D142" s="8"/>
       <c r="E142" s="1"/>
@@ -5518,8 +5554,8 @@
       <c r="H142" s="3"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="8"/>
-      <c r="B143" s="3"/>
+      <c r="A143" s="14"/>
+      <c r="B143" s="15"/>
       <c r="C143" s="5"/>
       <c r="D143" s="8"/>
       <c r="E143" s="1"/>
@@ -31600,14 +31636,14 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A74" r:id="rId1" xr:uid="{927C92C7-6B61-4EB9-9C9C-FD4E9084BAFF}"/>
-    <hyperlink ref="A73" r:id="rId2" xr:uid="{25778FAC-AD20-4E64-A08F-91AC02BCF198}"/>
-    <hyperlink ref="A5" r:id="rId3" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{149EC145-919F-4AAB-B457-D975A30A31A7}"/>
-    <hyperlink ref="A78" r:id="rId4" xr:uid="{FCF7D838-4D62-4799-8E4F-2595606E99C2}"/>
-    <hyperlink ref="B78" r:id="rId5" display="https://video.aliexpress-media.com/play/u/ae_sg_item/2210947737601/p/1/e/6/t/10301/5000119272165.mp4?from=chrome" xr:uid="{6BE665CA-47CE-4FBE-9062-70CB85717110}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{2584EE3D-0412-4BD2-8398-FAAB1C32718D}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{0647A1AD-A655-422F-8B07-94408022CD94}"/>
-    <hyperlink ref="A6" r:id="rId8" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{14CB63D3-0390-43A2-AE82-0C817E70ABD2}"/>
+    <hyperlink ref="A48" r:id="rId1" xr:uid="{927C92C7-6B61-4EB9-9C9C-FD4E9084BAFF}"/>
+    <hyperlink ref="A47" r:id="rId2" xr:uid="{25778FAC-AD20-4E64-A08F-91AC02BCF198}"/>
+    <hyperlink ref="A82" r:id="rId3" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{149EC145-919F-4AAB-B457-D975A30A31A7}"/>
+    <hyperlink ref="A116" r:id="rId4" xr:uid="{FCF7D838-4D62-4799-8E4F-2595606E99C2}"/>
+    <hyperlink ref="B116" r:id="rId5" display="https://video.aliexpress-media.com/play/u/ae_sg_item/2210947737601/p/1/e/6/t/10301/5000119272165.mp4?from=chrome" xr:uid="{6BE665CA-47CE-4FBE-9062-70CB85717110}"/>
+    <hyperlink ref="A94" r:id="rId6" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{2584EE3D-0412-4BD2-8398-FAAB1C32718D}"/>
+    <hyperlink ref="A95" r:id="rId7" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{0647A1AD-A655-422F-8B07-94408022CD94}"/>
+    <hyperlink ref="A93" r:id="rId8" display="https://www.kinsmart.com/upload/products/original/242018445884.KT5419-website.jpg" xr:uid="{14CB63D3-0390-43A2-AE82-0C817E70ABD2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>

--- a/proali.xlsx
+++ b/proali.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\mi-tienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAD688C-9CFE-4C2E-8D77-8B249485FB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CE6D7E-E005-418F-9AD2-A8E5D2309E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1277,12 +1277,6 @@
     <t>Metal fundido a presión, puertas que se abren, acción de retroceso, 7 Puertas, luces y Sonido 15.5cm x 1/20 7cm</t>
   </si>
   <si>
-    <t>Jeep Wrangler Rubicon 1942 AMARILLO</t>
-  </si>
-  <si>
-    <t>https://images.tokopedia.net/img/cache/700/VqbcmM/2022/12/15/a57300d6-04ba-4d4e-bc3f-000c8455ef32.jpg</t>
-  </si>
-  <si>
     <t>Flash Drive USB Angela ROSADO</t>
   </si>
   <si>
@@ -1302,6 +1296,12 @@
   </si>
   <si>
     <t>https://image.made-in-china.com/155f0j00hfdojIgUCLpA/Gjus68-Plastic-Special-Beer-Mug-Model-USB-2-0-Flash-Drive-Pendrive-8GB-16GB-32GB-64GB-Memory-Stick-Pen-Drive-USB-Thumb-Drive.JPG</t>
+  </si>
+  <si>
+    <t>https://img.joomcdn.net/374db6a4f9fe77f89e083dc6d0df48949c023e6e_original.jpeg</t>
+  </si>
+  <si>
+    <t>Jeep Wrangler Rubicon 1941 AMARILLO</t>
   </si>
 </sst>
 </file>
@@ -1976,7 +1976,7 @@
   <dimension ref="A1:H2315"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3573,7 +3573,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>360</v>
@@ -3582,7 +3582,7 @@
         <v>361</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -4130,7 +4130,7 @@
         <v>394</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E85" s="1">
         <v>1</v>
@@ -4147,7 +4147,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B86" s="15"/>
       <c r="C86" s="5" t="s">
@@ -4219,7 +4219,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B89" s="15" t="s">
         <v>358</v>
@@ -4234,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G89" s="4">
         <v>29</v>
@@ -4258,7 +4258,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G90" s="4">
         <v>19</v>
@@ -4282,7 +4282,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G91" s="4">
         <v>19</v>
@@ -4308,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G92" s="4">
         <v>40</v>

--- a/proali.xlsx
+++ b/proali.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\mi-tienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CE6D7E-E005-418F-9AD2-A8E5D2309E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B082485-42F7-43EC-8F14-466668BC0250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="432">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1302,6 +1302,33 @@
   </si>
   <si>
     <t>Jeep Wrangler Rubicon 1941 AMARILLO</t>
+  </si>
+  <si>
+    <t>Xiaomi Portable Bluetooth Speaker (5W) Negro</t>
+  </si>
+  <si>
+    <t>Batería de larga duración de hasta 10 horas, Compatible con Bluetooth 5.4, Resistencia IP67 al polvo y al agua</t>
+  </si>
+  <si>
+    <t>XIAOMI</t>
+  </si>
+  <si>
+    <t>https://i02.appmifile.com/mi-com-product/fly-birds/xiaomi-sound-pocket/PC/7143343dbe16d1d3087afa51b0879686.jpg?f=webp</t>
+  </si>
+  <si>
+    <t>XIA001</t>
+  </si>
+  <si>
+    <t>Mi 16-in-1 Ratchet Screwdriver</t>
+  </si>
+  <si>
+    <t>45 dientes en trinquete, 16 distintas puntas de destornillador, S2, 20Nm</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71lLfwYmTjL._UF894,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>XIA002</t>
   </si>
 </sst>
 </file>
@@ -1402,7 +1429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1449,11 +1476,27 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1660,8 +1703,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:H2315" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
-  <autoFilter ref="A1:H2315" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:H2319" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="A1:H2319" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
     <filterColumn colId="4">
       <filters blank="1">
         <filter val="01"/>
@@ -1673,14 +1716,14 @@
     <sortCondition ref="H1:H2315"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="6" xr3:uid="{D349EDB8-1023-498A-8D26-F168360F9742}" name="IMAGEN" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{27800D88-F905-4A3C-90B5-3205899E52F5}" name="MODAL" dataDxfId="7"/>
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{9228A578-C29A-4A98-B2E0-DD3E2C05AAD3}" name="CATEGORIA" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{D349EDB8-1023-498A-8D26-F168360F9742}" name="IMAGEN" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{27800D88-F905-4A3C-90B5-3205899E52F5}" name="MODAL" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{9228A578-C29A-4A98-B2E0-DD3E2C05AAD3}" name="CATEGORIA" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1973,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2315"/>
+  <dimension ref="A1:H2319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C2316" sqref="C2316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5542,28 +5585,54 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="14"/>
+      <c r="A142" s="14" t="s">
+        <v>426</v>
+      </c>
       <c r="B142" s="15"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="3"/>
+      <c r="C142" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="E142" s="1">
+        <v>1</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>424</v>
+      </c>
       <c r="G142" s="10">
-        <v>0</v>
-      </c>
-      <c r="H142" s="3"/>
+        <f>1.126*69</f>
+        <v>77.693999999999988</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="14"/>
+      <c r="A143" s="14" t="s">
+        <v>430</v>
+      </c>
       <c r="B143" s="15"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="3"/>
+      <c r="C143" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="D143" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="E143" s="1">
+        <v>1</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>429</v>
+      </c>
       <c r="G143" s="10">
-        <v>0</v>
-      </c>
-      <c r="H143" s="3"/>
+        <f>1.126*79</f>
+        <v>88.953999999999994</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
@@ -31629,9 +31698,61 @@
       <c r="G2315" s="4"/>
       <c r="H2315" s="3"/>
     </row>
+    <row r="2316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2316" s="17"/>
+      <c r="B2316" s="17"/>
+      <c r="C2316" s="5"/>
+      <c r="D2316" s="3"/>
+      <c r="E2316" s="1"/>
+      <c r="F2316" s="3"/>
+      <c r="G2316" s="4">
+        <f t="shared" ref="G2316:G2319" si="0">1.126</f>
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="H2316" s="3"/>
+    </row>
+    <row r="2317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2317" s="17"/>
+      <c r="B2317" s="17"/>
+      <c r="C2317" s="5"/>
+      <c r="D2317" s="3"/>
+      <c r="E2317" s="1"/>
+      <c r="F2317" s="3"/>
+      <c r="G2317" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="H2317" s="3"/>
+    </row>
+    <row r="2318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2318" s="17"/>
+      <c r="B2318" s="17"/>
+      <c r="C2318" s="5"/>
+      <c r="D2318" s="3"/>
+      <c r="E2318" s="1"/>
+      <c r="F2318" s="3"/>
+      <c r="G2318" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="H2318" s="3"/>
+    </row>
+    <row r="2319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2319" s="17"/>
+      <c r="B2319" s="17"/>
+      <c r="C2319" s="5"/>
+      <c r="D2319" s="3"/>
+      <c r="E2319" s="1"/>
+      <c r="F2319" s="3"/>
+      <c r="G2319" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="H2319" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E2315">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="E2:E2319">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/proali.xlsx
+++ b/proali.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\mi-tienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B082485-42F7-43EC-8F14-466668BC0250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72208EA8-97AA-4939-ADDB-17760EE180BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="448">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1329,6 +1329,54 @@
   </si>
   <si>
     <t>XIA002</t>
+  </si>
+  <si>
+    <t>Mi Precision Screwdriver Kit</t>
+  </si>
+  <si>
+    <t>XIA003</t>
+  </si>
+  <si>
+    <t>https://media.adeo.com/media/982796/media.jpg?width=650&amp;height=650&amp;format=jpg&amp;quality=80&amp;fit=bounds</t>
+  </si>
+  <si>
+    <t>24 high-quality precision bits, Comfortable, non-slip handle. Aluminium alloy caseMagnetic storage container.</t>
+  </si>
+  <si>
+    <t>XIA004</t>
+  </si>
+  <si>
+    <t>XIA005</t>
+  </si>
+  <si>
+    <t>XIA006</t>
+  </si>
+  <si>
+    <t>XIA007</t>
+  </si>
+  <si>
+    <t>XIA008</t>
+  </si>
+  <si>
+    <t>XIA009</t>
+  </si>
+  <si>
+    <t>Mi Cordless Screwdriver</t>
+  </si>
+  <si>
+    <t>Torque potente de 5 N.m | Batería de 2000 mAh | 12 puntas de acero S2 | Almacenamiento integrado. 3.6V</t>
+  </si>
+  <si>
+    <t>https://i01.appmifile.com/webfile/globalimg/products/pc/mi-cordless-screwdriver/overview_03.jpg</t>
+  </si>
+  <si>
+    <t>Xiaomi Hair Clipper 2</t>
+  </si>
+  <si>
+    <t>Cuchilla con doble revestimiento y alta dureza, 19 posiciones de longitud, 2 modos de velocidad, Sistema antiobstrucciones inteligente, Pantalla digital, Totalmente lavable IPX7.</t>
+  </si>
+  <si>
+    <t>https://i02.appmifile.com/mi-com-product/fly-birds/xiaomi-hair-clipper-2/PC/432eee3c1391e9051f920bc76c465a30.jpg?f=webp</t>
   </si>
 </sst>
 </file>
@@ -1429,7 +1477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1477,6 +1525,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1703,8 +1754,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:H2319" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="A1:H2319" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:H2322" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="A1:H2322" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
     <filterColumn colId="4">
       <filters blank="1">
         <filter val="01"/>
@@ -2016,10 +2067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2319"/>
+  <dimension ref="A1:H2322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C2316" sqref="C2316"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D2318" sqref="D2318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,7 +2080,7 @@
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" customWidth="1"/>
+    <col min="6" max="6" width="52.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -5602,8 +5653,7 @@
         <v>424</v>
       </c>
       <c r="G142" s="10">
-        <f>1.126*69</f>
-        <v>77.693999999999988</v>
+        <v>78</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>425</v>
@@ -5627,8 +5677,7 @@
         <v>429</v>
       </c>
       <c r="G143" s="10">
-        <f>1.126*79</f>
-        <v>88.953999999999994</v>
+        <v>89</v>
       </c>
       <c r="H143" s="3" t="s">
         <v>425</v>
@@ -31698,60 +31747,139 @@
       <c r="G2315" s="4"/>
       <c r="H2315" s="3"/>
     </row>
-    <row r="2316" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2316" s="17"/>
-      <c r="B2316" s="17"/>
-      <c r="C2316" s="5"/>
-      <c r="D2316" s="3"/>
-      <c r="E2316" s="1"/>
-      <c r="F2316" s="3"/>
+    <row r="2316" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2316" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B2316" s="3"/>
+      <c r="C2316" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D2316" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E2316" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2316" s="17" t="s">
+        <v>435</v>
+      </c>
       <c r="G2316" s="4">
+        <v>89</v>
+      </c>
+      <c r="H2316" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2317" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B2317" s="3"/>
+      <c r="C2317" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D2317" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E2317" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2317" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="G2317" s="4">
+        <v>168</v>
+      </c>
+      <c r="H2317" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2318" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B2318" s="3"/>
+      <c r="C2318" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D2318" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="E2318" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2318" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="G2318" s="4">
+        <v>145</v>
+      </c>
+      <c r="H2318" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2319" s="3"/>
+      <c r="B2319" s="3"/>
+      <c r="C2319" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2319" s="3"/>
+      <c r="E2319" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2319" s="3"/>
+      <c r="G2319" s="4">
         <f t="shared" ref="G2316:G2319" si="0">1.126</f>
         <v>1.1259999999999999</v>
       </c>
-      <c r="H2316" s="3"/>
-    </row>
-    <row r="2317" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2317" s="17"/>
-      <c r="B2317" s="17"/>
-      <c r="C2317" s="5"/>
-      <c r="D2317" s="3"/>
-      <c r="E2317" s="1"/>
-      <c r="F2317" s="3"/>
-      <c r="G2317" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1259999999999999</v>
-      </c>
-      <c r="H2317" s="3"/>
-    </row>
-    <row r="2318" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2318" s="17"/>
-      <c r="B2318" s="17"/>
-      <c r="C2318" s="5"/>
-      <c r="D2318" s="3"/>
-      <c r="E2318" s="1"/>
-      <c r="F2318" s="3"/>
-      <c r="G2318" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1259999999999999</v>
-      </c>
-      <c r="H2318" s="3"/>
-    </row>
-    <row r="2319" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2319" s="17"/>
-      <c r="B2319" s="17"/>
-      <c r="C2319" s="5"/>
-      <c r="D2319" s="3"/>
-      <c r="E2319" s="1"/>
-      <c r="F2319" s="3"/>
-      <c r="G2319" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1259999999999999</v>
-      </c>
       <c r="H2319" s="3"/>
     </row>
+    <row r="2320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2320" s="18"/>
+      <c r="B2320" s="18"/>
+      <c r="C2320" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D2320" s="3"/>
+      <c r="E2320" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2320" s="3"/>
+      <c r="G2320" s="4"/>
+      <c r="H2320" s="3"/>
+    </row>
+    <row r="2321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2321" s="18"/>
+      <c r="B2321" s="18"/>
+      <c r="C2321" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="D2321" s="3"/>
+      <c r="E2321" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2321" s="3"/>
+      <c r="G2321" s="4"/>
+      <c r="H2321" s="3"/>
+    </row>
+    <row r="2322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2322" s="18"/>
+      <c r="B2322" s="18"/>
+      <c r="C2322" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2322" s="3"/>
+      <c r="E2322" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2322" s="3"/>
+      <c r="G2322" s="4"/>
+      <c r="H2322" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E2319">
+  <conditionalFormatting sqref="E2:E2322">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/proali.xlsx
+++ b/proali.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\mi-tienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72208EA8-97AA-4939-ADDB-17760EE180BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AC04F0-700B-4D7E-9581-7BD483AC461D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="475">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1377,6 +1377,87 @@
   </si>
   <si>
     <t>https://i02.appmifile.com/mi-com-product/fly-birds/xiaomi-hair-clipper-2/PC/432eee3c1391e9051f920bc76c465a30.jpg?f=webp</t>
+  </si>
+  <si>
+    <t>Xiaomi Hair Clipper</t>
+  </si>
+  <si>
+    <t>5 ajustes de longitud para más precisión + 14 ajustes de longitud para el peine. Cabezal de cuchilla de cerámica con revestimiento de titanio. Duración de la batería de hasta 180 minutos.</t>
+  </si>
+  <si>
+    <t>https://i01.appmifile.com/webfile/globalimg/products/pc/xiaomi-hair-clipper/section14.jpg</t>
+  </si>
+  <si>
+    <t>Xiaomi 165W Power Bank 10000mAh Gris</t>
+  </si>
+  <si>
+    <t>Puertos dobles con una salida combinada de hasta 165W, Autocarga de hasta 90W para una recarga eficiente, Salida de hasta 120W con el cable integrado.</t>
+  </si>
+  <si>
+    <t>https://i02.appmifile.com/mi-com-product/fly-birds/xiaomi-165w-power-bank-10000-integrated-cable/pc/217af059435cecc6fcc06221ce89f501.jpg?f=webp</t>
+  </si>
+  <si>
+    <t>https://i02.appmifile.com/mi-com-product/fly-birds/xiaomi-18w-power-bank-30000mah/pc/8dbd08d9d3ddbd61cbbcbfc0370ae2ad.jpg?f=webp</t>
+  </si>
+  <si>
+    <t>Xiaomi 18W Power Bank 30000mAh</t>
+  </si>
+  <si>
+    <t>Protección contra cortocircuitos, Una carga puede durar 10 días</t>
+  </si>
+  <si>
+    <t>https://i02.appmifile.com/mi-com-product/fly-birds/xiaomi-magnetic-power-bank-5000/pc/78c437cddc633b558b44acd35f6878e7.jpg?f=webp</t>
+  </si>
+  <si>
+    <t>Xiaomi Magnetic Power Bank 5000</t>
+  </si>
+  <si>
+    <t>Compacta e inalámbrica, proporciona carga instantánea al adherirla al dispositivo, Admite salida simultánea por cable e inalámbrica para cargar dos dispositivos a la vez. La batería portátil incluso admite salida inalámbrica mientras se carga. Es una batería portátil y una superficie de carga inalámbrica, todo en uno.</t>
+  </si>
+  <si>
+    <t>Xiaomi 33W Power Bank 10000 (Integrated Cable)</t>
+  </si>
+  <si>
+    <t>Xiaomi Ultra Slim Power Bank 5000mAh</t>
+  </si>
+  <si>
+    <t>20000mAh Redmi Fast Charge Power Bank</t>
+  </si>
+  <si>
+    <t>Xiaomi Power Bank 10000mAh (Integrated Cable)</t>
+  </si>
+  <si>
+    <t>Xiaomi Power Bank 10000mAh 22.5W Lite</t>
+  </si>
+  <si>
+    <t>XIA010</t>
+  </si>
+  <si>
+    <t>XIA011</t>
+  </si>
+  <si>
+    <t>XIA012</t>
+  </si>
+  <si>
+    <t>XIA013</t>
+  </si>
+  <si>
+    <t>XIA014</t>
+  </si>
+  <si>
+    <t>https://i02.appmifile.com/mi-com-product/fly-birds/xiaomi-33w-power-bank-10000-integrated-cable/pc/title.png?f=webp</t>
+  </si>
+  <si>
+    <t>https://i02.appmifile.com/mi-com-product/fly-birds/xiaomi-ultra-slim-power-bank-5000mah/pc/3318e73d886f89a04dc79f1c49453f34.jpg?f=webp</t>
+  </si>
+  <si>
+    <t>https://i02.appmifile.com/511_operator_sg/29/09/2021/587c581d2db09b99846864188e9f2cc0.jpg</t>
+  </si>
+  <si>
+    <t>https://i02.appmifile.com/mi-com-product/fly-birds/xiaomi-power-bank-10000mah-integrated-cable/PC/85f8afb8adbac6a0239c15ba2f7115ff.jpg?f=webp</t>
+  </si>
+  <si>
+    <t>https://i02.appmifile.com/mi-com-product/fly-birds/xiaomi-power-bank-10000mah-22w-lite/pc/a11b4fe76e3c86578b32520506601276.jpg?f=webp</t>
   </si>
 </sst>
 </file>
@@ -1537,7 +1618,57 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1754,8 +1885,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:H2322" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="A1:H2322" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:H2327" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
+  <autoFilter ref="A1:H2327" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
     <filterColumn colId="4">
       <filters blank="1">
         <filter val="01"/>
@@ -1767,14 +1898,14 @@
     <sortCondition ref="H1:H2315"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="6" xr3:uid="{D349EDB8-1023-498A-8D26-F168360F9742}" name="IMAGEN" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{27800D88-F905-4A3C-90B5-3205899E52F5}" name="MODAL" dataDxfId="8"/>
-    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{9228A578-C29A-4A98-B2E0-DD3E2C05AAD3}" name="CATEGORIA" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{D349EDB8-1023-498A-8D26-F168360F9742}" name="IMAGEN" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{27800D88-F905-4A3C-90B5-3205899E52F5}" name="MODAL" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{5E7AB560-39D5-48BA-BB2F-55D33E0EF285}" name="CODIGO" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{5E327936-82E8-4DDE-88EB-81FF82C89ADB}" name="DESCRIPCION" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{12B8D6EE-232C-4DB2-9A27-C4B8E0000BAA}" name="STOCK" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{C949476A-A627-4C6B-82A7-EF2C7D592B43}" name="DETALLES" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{E975A22D-7BF6-4A02-8E56-104C3DD535C4}" name="PRECIO" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{9228A578-C29A-4A98-B2E0-DD3E2C05AAD3}" name="CATEGORIA" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2067,10 +2198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2322"/>
+  <dimension ref="A1:H2327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D2318" sqref="D2318"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="E2327" sqref="E2327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31820,67 +31951,214 @@
       </c>
     </row>
     <row r="2319" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2319" s="3"/>
+      <c r="A2319" s="3" t="s">
+        <v>450</v>
+      </c>
       <c r="B2319" s="3"/>
       <c r="C2319" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="D2319" s="3"/>
+      <c r="D2319" s="17" t="s">
+        <v>448</v>
+      </c>
       <c r="E2319" s="1">
         <v>1</v>
       </c>
-      <c r="F2319" s="3"/>
+      <c r="F2319" s="3" t="s">
+        <v>449</v>
+      </c>
       <c r="G2319" s="4">
-        <f t="shared" ref="G2316:G2319" si="0">1.126</f>
-        <v>1.1259999999999999</v>
-      </c>
-      <c r="H2319" s="3"/>
+        <v>123</v>
+      </c>
+      <c r="H2319" s="3" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="2320" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2320" s="18"/>
+      <c r="A2320" s="18" t="s">
+        <v>453</v>
+      </c>
       <c r="B2320" s="18"/>
       <c r="C2320" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="D2320" s="3"/>
+      <c r="D2320" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="E2320" s="1">
         <v>1</v>
       </c>
-      <c r="F2320" s="3"/>
-      <c r="G2320" s="4"/>
-      <c r="H2320" s="3"/>
+      <c r="F2320" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G2320" s="4">
+        <v>179</v>
+      </c>
+      <c r="H2320" s="3" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="2321" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2321" s="18"/>
+      <c r="A2321" s="18" t="s">
+        <v>454</v>
+      </c>
       <c r="B2321" s="18"/>
       <c r="C2321" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="D2321" s="3"/>
+      <c r="D2321" s="3" t="s">
+        <v>455</v>
+      </c>
       <c r="E2321" s="1">
         <v>1</v>
       </c>
-      <c r="F2321" s="3"/>
-      <c r="G2321" s="4"/>
-      <c r="H2321" s="3"/>
+      <c r="F2321" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G2321" s="4">
+        <v>145</v>
+      </c>
+      <c r="H2321" s="3" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="2322" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2322" s="18"/>
+      <c r="A2322" s="18" t="s">
+        <v>457</v>
+      </c>
       <c r="B2322" s="18"/>
       <c r="C2322" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="D2322" s="3"/>
+      <c r="D2322" s="3" t="s">
+        <v>458</v>
+      </c>
       <c r="E2322" s="1">
         <v>1</v>
       </c>
-      <c r="F2322" s="3"/>
-      <c r="G2322" s="4"/>
-      <c r="H2322" s="3"/>
+      <c r="F2322" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="G2322" s="4">
+        <v>111</v>
+      </c>
+      <c r="H2322" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2323" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="B2323" s="18"/>
+      <c r="C2323" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="D2323" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E2323" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2323" s="3"/>
+      <c r="G2323" s="4">
+        <v>100</v>
+      </c>
+      <c r="H2323" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2324" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="B2324" s="18"/>
+      <c r="C2324" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="D2324" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E2324" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2324" s="3"/>
+      <c r="G2324" s="4">
+        <v>100</v>
+      </c>
+      <c r="H2324" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2325" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2325" s="18"/>
+      <c r="C2325" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="D2325" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E2325" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2325" s="3"/>
+      <c r="G2325" s="4">
+        <v>78</v>
+      </c>
+      <c r="H2325" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2326" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="B2326" s="18"/>
+      <c r="C2326" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D2326" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E2326" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2326" s="3"/>
+      <c r="G2326" s="4">
+        <v>78</v>
+      </c>
+      <c r="H2326" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2327" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2327" s="18"/>
+      <c r="C2327" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D2327" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E2327" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2327" s="3"/>
+      <c r="G2327" s="4">
+        <v>55</v>
+      </c>
+      <c r="H2327" s="3" t="s">
+        <v>425</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E2322">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="E2:E2327">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
